--- a/ZS.xlsx
+++ b/ZS.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/jgarza25_illinois_edu/Documents/Stock Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C02977FD-099F-4C15-ACDC-7472F6981A5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE11F10-7637-2E4A-9DAD-9C5E84A3BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="46680" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$13:$G$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$13:$H$32</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$G$13:$G$32</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$H$13:$H$32</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
@@ -256,6 +263,21 @@
   </si>
   <si>
     <t>Accured Compensation</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q225*</t>
+  </si>
+  <si>
+    <t>Q325*</t>
+  </si>
+  <si>
+    <t>Q425*</t>
+  </si>
+  <si>
+    <t>Skew</t>
   </si>
 </sst>
 </file>
@@ -544,6 +566,69 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C499-F94D-85D5-8C8CC5DD2636}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C499-F94D-85D5-8C8CC5DD2636}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C499-F94D-85D5-8C8CC5DD2636}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -618,9 +703,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$1:$U$1</c:f>
+              <c:f>Model!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -677,16 +762,31 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q225*</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q325*</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q425*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$4:$U$4</c:f>
+              <c:f>Model!$C$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -743,6 +843,21 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>453.40200000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,9 +1202,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$1:$U$1</c:f>
+              <c:f>Model!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>Q119</c:v>
                 </c:pt>
@@ -1146,16 +1261,31 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q225*</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Q325*</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Q425*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$15:$U$15</c:f>
+              <c:f>Model!$C$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-7</c:v>
                 </c:pt>
@@ -1212,6 +1342,21 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-31.405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-23.308051948051968</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-16.881558441558418</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-14.263896103896126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1435,7 @@
         <c:axId val="939186639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0"/>
+          <c:max val="30"/>
           <c:min val="-105"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1389,6 +1534,409 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>212.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>257.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF5D-2242-93DE-B40944CF91EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75306399"/>
+        <c:axId val="75308111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75306399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="210"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75308111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75308111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75306399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1430,6 +1978,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2501,18 +3089,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>640769</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>48487</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17512</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2529,8 +3633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14244201" y="0"/>
-          <a:ext cx="57150" cy="12001500"/>
+          <a:off x="17660930" y="0"/>
+          <a:ext cx="28167" cy="11708780"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2555,13 +3659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2579,8 +3683,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16821150" y="0"/>
-          <a:ext cx="0" cy="10525125"/>
+          <a:off x="22333415" y="0"/>
+          <a:ext cx="0" cy="11942259"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2611,7 +3715,7 @@
       <xdr:rowOff>99147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>17316</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>3897</xdr:rowOff>
@@ -2641,13 +3745,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>8660</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>97415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>371259</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>155865</xdr:rowOff>
@@ -2680,14 +3784,51 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85C1844-0443-E902-B57C-2FEC5D41E41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2725,7 +3866,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2831,7 +3972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2973,7 +4114,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2984,15 +4125,15 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +4144,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>2</v>
       </c>
@@ -3011,7 +4152,7 @@
         <v>145.12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +4162,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +4170,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>7</v>
       </c>
@@ -3050,8 +4191,8 @@
         <v>0.89954673526889628</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
@@ -3061,25 +4202,25 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>45</v>
       </c>
@@ -3100,30 +4241,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD53B0-CC7A-4D38-8B43-AB607B5A39F2}">
-  <dimension ref="A1:QA50"/>
+  <dimension ref="A1:QE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z21:Z22"/>
+      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:447" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3188,69 +4329,81 @@
       <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1">
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1">
         <v>2018</v>
       </c>
-      <c r="Z1">
+      <c r="AD1">
         <v>2019</v>
       </c>
-      <c r="AA1">
+      <c r="AE1">
         <v>2020</v>
       </c>
-      <c r="AB1">
-        <f>AA1+1</f>
+      <c r="AF1">
+        <f>AE1+1</f>
         <v>2021</v>
       </c>
-      <c r="AC1">
-        <f t="shared" ref="AC1:AN1" si="0">AB1+1</f>
+      <c r="AG1">
+        <f t="shared" ref="AG1:AR1" si="0">AF1+1</f>
         <v>2022</v>
       </c>
-      <c r="AD1">
+      <c r="AH1">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AE1">
+      <c r="AI1">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AF1">
+      <c r="AJ1">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AG1">
+      <c r="AK1">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AH1">
+      <c r="AL1">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AI1">
+      <c r="AM1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AJ1">
+      <c r="AN1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AK1">
+      <c r="AO1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AL1">
+      <c r="AP1">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AM1">
+      <c r="AQ1">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AN1">
+      <c r="AR1">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="2" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:447" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5">
@@ -3313,15 +4466,18 @@
       <c r="V2" s="5">
         <v>45138</v>
       </c>
+      <c r="W2" s="5">
+        <v>45230</v>
+      </c>
     </row>
-    <row r="3" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:447" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3"/>
       <c r="T3" s="5"/>
-      <c r="AC3" s="3"/>
+      <c r="AG3" s="3"/>
     </row>
-    <row r="4" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -3383,65 +4539,83 @@
         <v>419</v>
       </c>
       <c r="V4" s="3">
-        <v>430</v>
+        <f>AH4-U4-T4-S4</f>
+        <v>453.40200000000004</v>
+      </c>
+      <c r="W4" s="3">
+        <v>496</v>
+      </c>
+      <c r="X4" s="3">
+        <v>505</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>520</v>
       </c>
       <c r="Z4" s="3">
+        <v>530</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="18">
+        <f>8000/8200-1</f>
+        <v>-2.4390243902439046E-2</v>
+      </c>
+      <c r="AD4" s="3">
         <v>303</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AE4" s="3">
         <v>431</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AF4" s="3">
         <v>673</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AG4" s="3">
         <v>1091</v>
       </c>
-      <c r="AD4" s="3">
-        <v>1592</v>
-      </c>
-      <c r="AE4" s="3">
-        <f>AD4*1.35</f>
-        <v>2149.2000000000003</v>
-      </c>
-      <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AN4" si="1">AE4*1.35</f>
-        <v>2901.4200000000005</v>
-      </c>
-      <c r="AG4" s="3">
-        <f t="shared" si="1"/>
-        <v>3916.9170000000008</v>
-      </c>
       <c r="AH4" s="3">
-        <f t="shared" si="1"/>
-        <v>5287.8379500000019</v>
+        <v>1616</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="1"/>
-        <v>7138.5812325000034</v>
+        <f>SUM(W4:Z4)</f>
+        <v>2051</v>
       </c>
       <c r="AJ4" s="3">
-        <f t="shared" si="1"/>
-        <v>9637.0846638750045</v>
+        <f>AI4*1.25</f>
+        <v>2563.75</v>
       </c>
       <c r="AK4" s="3">
-        <f t="shared" si="1"/>
-        <v>13010.064296231258</v>
+        <f t="shared" ref="AK4:AR4" si="1">AJ4*1.25</f>
+        <v>3204.6875</v>
       </c>
       <c r="AL4" s="3">
         <f t="shared" si="1"/>
-        <v>17563.586799912198</v>
+        <v>4005.859375</v>
       </c>
       <c r="AM4" s="3">
         <f t="shared" si="1"/>
-        <v>23710.842179881471</v>
+        <v>5007.32421875</v>
       </c>
       <c r="AN4" s="3">
         <f t="shared" si="1"/>
-        <v>32009.636942839988</v>
+        <v>6259.1552734375</v>
+      </c>
+      <c r="AO4" s="3">
+        <f t="shared" si="1"/>
+        <v>7823.944091796875</v>
+      </c>
+      <c r="AP4" s="3">
+        <f t="shared" si="1"/>
+        <v>9779.9301147460938</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f t="shared" si="1"/>
+        <v>12224.912643432617</v>
+      </c>
+      <c r="AR4" s="3">
+        <f t="shared" si="1"/>
+        <v>15281.140804290771</v>
       </c>
     </row>
-    <row r="5" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -3503,96 +4677,158 @@
         <v>96</v>
       </c>
       <c r="V5" s="3">
-        <f>V4-V6</f>
-        <v>94.599999999999966</v>
-      </c>
-      <c r="Z5">
+        <f>AH5-U5-T5-S5</f>
+        <v>102.39600000000002</v>
+      </c>
+      <c r="W5" s="3">
+        <v>111</v>
+      </c>
+      <c r="X5" s="2">
+        <f>X4*0.22</f>
+        <v>111.1</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" ref="Y5:Z5" si="2">Y4*0.22</f>
+        <v>114.4</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="2"/>
+        <v>116.6</v>
+      </c>
+      <c r="AB5">
+        <f>AB4*AI4</f>
+        <v>-50.024390243902481</v>
+      </c>
+      <c r="AD5">
         <v>60</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>96</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>150</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>242</v>
       </c>
+      <c r="AH5">
+        <v>363</v>
+      </c>
+      <c r="AI5" s="3">
+        <f>SUM(W5:Z5)</f>
+        <v>453.1</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" ref="AJ5:AR5" si="3">AJ4-AJ6</f>
+        <v>538.38749999999982</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="3"/>
+        <v>672.984375</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" si="3"/>
+        <v>841.23046875</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="3"/>
+        <v>1051.5380859375</v>
+      </c>
+      <c r="AN5" s="3">
+        <f t="shared" si="3"/>
+        <v>1314.422607421875</v>
+      </c>
+      <c r="AO5" s="3">
+        <f t="shared" si="3"/>
+        <v>1643.0282592773438</v>
+      </c>
+      <c r="AP5" s="3">
+        <f t="shared" si="3"/>
+        <v>2053.7853240966797</v>
+      </c>
+      <c r="AQ5" s="3">
+        <f t="shared" si="3"/>
+        <v>2567.2316551208496</v>
+      </c>
+      <c r="AR5" s="3">
+        <f t="shared" si="3"/>
+        <v>3209.039568901062</v>
+      </c>
     </row>
-    <row r="6" spans="1:443" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:447" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ref="C6:T6" si="2">C4-C5</f>
+        <f t="shared" ref="C6:T6" si="4">C4-C5</f>
         <v>51</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>179</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>197.77999999999997</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>223</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>299.99400000000003</v>
       </c>
       <c r="U6" s="9">
@@ -3600,71 +4836,87 @@
         <v>323</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" ref="V6" si="3">V4*0.78</f>
-        <v>335.40000000000003</v>
+        <f>V4-V5</f>
+        <v>351.00600000000003</v>
+      </c>
+      <c r="W6" s="9">
+        <f>W4-W5</f>
+        <v>385</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" ref="X6:Z6" si="5">X4-X5</f>
+        <v>393.9</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" si="5"/>
+        <v>405.6</v>
       </c>
       <c r="Z6" s="9">
-        <f>Z4-Z5</f>
+        <f t="shared" si="5"/>
+        <v>413.4</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>AD4-AD5</f>
         <v>243</v>
       </c>
-      <c r="AA6" s="9">
-        <f>AA4-AA5</f>
+      <c r="AE6" s="9">
+        <f>AE4-AE5</f>
         <v>335</v>
       </c>
-      <c r="AB6" s="9">
-        <f>AB4-AB5</f>
+      <c r="AF6" s="9">
+        <f>AF4-AF5</f>
         <v>523</v>
       </c>
-      <c r="AC6" s="9">
-        <f>AC4-AC5</f>
+      <c r="AG6" s="9">
+        <f>AG4-AG5</f>
         <v>849</v>
       </c>
-      <c r="AD6" s="9">
-        <f>SUM(S6:V6)</f>
-        <v>1237.394</v>
-      </c>
-      <c r="AE6" s="9">
-        <f>AE4*0.79</f>
-        <v>1697.8680000000004</v>
-      </c>
-      <c r="AF6" s="9">
-        <f t="shared" ref="AF6:AN6" si="4">AF4*0.79</f>
-        <v>2292.1218000000003</v>
-      </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="4"/>
-        <v>3094.364430000001</v>
-      </c>
       <c r="AH6" s="9">
-        <f t="shared" si="4"/>
-        <v>4177.3919805000014</v>
+        <f>AH4-AH5</f>
+        <v>1253</v>
       </c>
       <c r="AI6" s="9">
-        <f t="shared" si="4"/>
-        <v>5639.479173675003</v>
+        <f>AI4*0.79</f>
+        <v>1620.29</v>
       </c>
       <c r="AJ6" s="9">
-        <f t="shared" si="4"/>
-        <v>7613.2968844612542</v>
+        <f t="shared" ref="AJ6:AR6" si="6">AJ4*0.79</f>
+        <v>2025.3625000000002</v>
       </c>
       <c r="AK6" s="9">
-        <f t="shared" si="4"/>
-        <v>10277.950794022694</v>
+        <f t="shared" si="6"/>
+        <v>2531.703125</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="4"/>
-        <v>13875.233571930637</v>
+        <f t="shared" si="6"/>
+        <v>3164.62890625</v>
       </c>
       <c r="AM6" s="9">
-        <f t="shared" si="4"/>
-        <v>18731.565322106362</v>
+        <f t="shared" si="6"/>
+        <v>3955.7861328125</v>
       </c>
       <c r="AN6" s="9">
-        <f t="shared" si="4"/>
-        <v>25287.613184843591</v>
+        <f t="shared" si="6"/>
+        <v>4944.732666015625</v>
+      </c>
+      <c r="AO6" s="9">
+        <f t="shared" si="6"/>
+        <v>6180.9158325195312</v>
+      </c>
+      <c r="AP6" s="9">
+        <f t="shared" si="6"/>
+        <v>7726.1447906494141</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f t="shared" si="6"/>
+        <v>9657.6809883117676</v>
+      </c>
+      <c r="AR6" s="9">
+        <f t="shared" si="6"/>
+        <v>12072.101235389709</v>
       </c>
     </row>
-    <row r="7" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -3725,20 +4977,45 @@
       <c r="U7" s="3">
         <v>236</v>
       </c>
-      <c r="Z7">
+      <c r="V7" s="3">
+        <f>AH7-U7-T7-S7</f>
+        <v>252.05500000000001</v>
+      </c>
+      <c r="W7" s="3">
+        <v>267</v>
+      </c>
+      <c r="X7" s="3">
+        <v>267</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>X7+5</f>
+        <v>272</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" ref="Z7" si="7">Y7+5</f>
+        <v>277</v>
+      </c>
+      <c r="AD7">
         <v>170</v>
       </c>
-      <c r="AA7">
+      <c r="AE7">
         <v>278</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <v>459</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>735</v>
       </c>
+      <c r="AH7">
+        <v>953</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>SUM(W7:Z7)</f>
+        <v>1083</v>
+      </c>
     </row>
-    <row r="8" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -3799,20 +5076,43 @@
       <c r="U8" s="3">
         <v>93</v>
       </c>
-      <c r="Z8">
+      <c r="V8" s="3">
+        <f>AH8-U8-T8-S8</f>
+        <v>96.235000000000014</v>
+      </c>
+      <c r="W8" s="3">
+        <v>114</v>
+      </c>
+      <c r="X8" s="3">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>114</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>114</v>
+      </c>
+      <c r="AD8">
         <v>62</v>
       </c>
-      <c r="AA8">
+      <c r="AE8">
         <v>98</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <v>175</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>289</v>
       </c>
+      <c r="AH8">
+        <v>350</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" ref="AI8:AI9" si="8">SUM(W8:Z8)</f>
+        <v>456</v>
+      </c>
     </row>
-    <row r="9" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -3873,222 +5173,367 @@
       <c r="U9" s="3">
         <v>43</v>
       </c>
-      <c r="Z9">
+      <c r="V9" s="3">
+        <f>AH9-U9-T9-S9</f>
+        <v>47.478000000000009</v>
+      </c>
+      <c r="W9" s="3">
+        <v>51</v>
+      </c>
+      <c r="X9" s="3">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>X9+2</f>
+        <v>53</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" ref="Z9" si="9">Y9+2</f>
+        <v>55</v>
+      </c>
+      <c r="AD9">
         <v>47</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <v>74</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <v>97</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>152</v>
       </c>
+      <c r="AH9">
+        <v>178</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
     </row>
-    <row r="10" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ref="C10:U10" si="5">SUM(C7:C9)</f>
+        <f t="shared" ref="C10:U10" si="10">SUM(C7:C9)</f>
         <v>60</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>281.10000000000002</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>332</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>348</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>365.23199999999997</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>372</v>
       </c>
+      <c r="V10" s="3">
+        <f t="shared" ref="V10:W10" si="11">SUM(V7:V9)</f>
+        <v>395.76800000000003</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" ref="X10:Z10" si="12">SUM(X7:X9)</f>
+        <v>432</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="12"/>
+        <v>439</v>
+      </c>
       <c r="Z10" s="3">
-        <f>Z9+Z8+Z7</f>
+        <f t="shared" si="12"/>
+        <v>446</v>
+      </c>
+      <c r="AD10" s="3">
+        <f>AD9+AD8+AD7</f>
         <v>279</v>
       </c>
-      <c r="AA10" s="3">
-        <f>AA9+AA8+AA7</f>
+      <c r="AE10" s="3">
+        <f>AE9+AE8+AE7</f>
         <v>450</v>
       </c>
-      <c r="AB10" s="3">
-        <f>AB9+AB8+AB7</f>
+      <c r="AF10" s="3">
+        <f>AF9+AF8+AF7</f>
         <v>731</v>
       </c>
-      <c r="AC10" s="3">
-        <f>AC9+AC8+AC7</f>
+      <c r="AG10" s="3">
+        <f>AG9+AG8+AG7</f>
         <v>1176</v>
       </c>
+      <c r="AH10" s="3">
+        <f>AH9+AH8+AH7</f>
+        <v>1481</v>
+      </c>
+      <c r="AI10" s="3">
+        <f>AI9+AI8+AI7</f>
+        <v>1749</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f>AI10*1.15</f>
+        <v>2011.35</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" ref="AK10:AM10" si="13">AJ10*1.15</f>
+        <v>2313.0524999999998</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="13"/>
+        <v>2660.0103749999994</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="13"/>
+        <v>3059.0119312499992</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" ref="AK10:AR10" si="14">AM10*1.1</f>
+        <v>3364.9131243749994</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="14"/>
+        <v>3701.4044368124996</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="14"/>
+        <v>4071.54488049375</v>
+      </c>
+      <c r="AQ10" s="3">
+        <f t="shared" si="14"/>
+        <v>4478.6993685431253</v>
+      </c>
+      <c r="AR10" s="3">
+        <f t="shared" si="14"/>
+        <v>4926.5693053974383</v>
+      </c>
     </row>
-    <row r="11" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:U11" si="6">C6-C10</f>
+        <f t="shared" ref="C11:U11" si="15">C6-C10</f>
         <v>-9</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-13</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-18</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-31</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-21</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-44</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-43</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-54</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-45</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-66</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-74</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-83.32000000000005</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-87</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-82</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-69</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-65.237999999999943</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-49</v>
       </c>
       <c r="V11" s="3">
-        <f>V4*-0.08</f>
-        <v>-34.4</v>
+        <f t="shared" ref="V11:W11" si="16">V6-V10</f>
+        <v>-44.762</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="16"/>
+        <v>-47</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" ref="X11:Z11" si="17">X6-X10</f>
+        <v>-38.100000000000023</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="17"/>
+        <v>-33.399999999999977</v>
       </c>
       <c r="Z11" s="3">
-        <f>Z6-Z10</f>
+        <f t="shared" si="17"/>
+        <v>-32.600000000000023</v>
+      </c>
+      <c r="AD11" s="3">
+        <f>AD6-AD10</f>
         <v>-36</v>
       </c>
-      <c r="AA11" s="3">
-        <f>AA6-AA10</f>
+      <c r="AE11" s="3">
+        <f>AE6-AE10</f>
         <v>-115</v>
       </c>
-      <c r="AB11" s="3">
-        <f>AB6-AB10</f>
+      <c r="AF11" s="3">
+        <f>AF6-AF10</f>
         <v>-208</v>
       </c>
-      <c r="AC11" s="3">
-        <f>AC6-AC10</f>
+      <c r="AG11" s="3">
+        <f>AG6-AG10</f>
         <v>-327</v>
       </c>
-      <c r="AD11" s="3">
-        <f>SUM(S11:V11)</f>
-        <v>-217.63799999999995</v>
+      <c r="AH11" s="3">
+        <f>AH6-AH10</f>
+        <v>-228</v>
+      </c>
+      <c r="AI11" s="3">
+        <f>AI6-AI10</f>
+        <v>-128.71000000000004</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f>AJ6-AJ10</f>
+        <v>14.012500000000273</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" ref="AK11:AR11" si="18">AK6-AK10</f>
+        <v>218.65062500000022</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="18"/>
+        <v>504.61853125000061</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="18"/>
+        <v>896.77420156250082</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" si="18"/>
+        <v>1579.8195416406256</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="18"/>
+        <v>2479.5113957070316</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="18"/>
+        <v>3654.599910155664</v>
+      </c>
+      <c r="AQ11" s="3">
+        <f t="shared" si="18"/>
+        <v>5178.9816197686423</v>
+      </c>
+      <c r="AR11" s="3">
+        <f t="shared" si="18"/>
+        <v>7145.5319299922712</v>
       </c>
     </row>
-    <row r="12" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -4163,127 +5608,245 @@
         <v>18</v>
       </c>
       <c r="V12" s="3">
-        <f>19-1</f>
-        <v>18</v>
-      </c>
-      <c r="Z12">
+        <f>AH12-U12-T12-S12</f>
+        <v>17.664000000000001</v>
+      </c>
+      <c r="W12" s="3">
+        <v>22</v>
+      </c>
+      <c r="X12" s="3">
+        <f>W12+2</f>
+        <v>24</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" ref="Y12:Z12" si="19">X12+2</f>
+        <v>26</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="AD12">
         <v>8</v>
       </c>
-      <c r="AA12">
+      <c r="AE12">
         <f>6-5</f>
         <v>1</v>
       </c>
-      <c r="AB12">
+      <c r="AF12">
         <f>3-53</f>
         <v>-50</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <f>5-57</f>
         <v>-52</v>
       </c>
+      <c r="AH12">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" ref="AI12:AI14" si="20">SUM(W12:Z12)</f>
+        <v>100</v>
+      </c>
+      <c r="AJ12">
+        <f>AI12*1.05</f>
+        <v>105</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" ref="AK12:AR12" si="21">AJ12*1.05</f>
+        <v>110.25</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="21"/>
+        <v>115.7625</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="21"/>
+        <v>121.55062500000001</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="21"/>
+        <v>127.62815625000002</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="21"/>
+        <v>134.00956406250003</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="21"/>
+        <v>140.71004226562505</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="21"/>
+        <v>147.74554437890632</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="21"/>
+        <v>155.13282159785163</v>
+      </c>
     </row>
-    <row r="13" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:T13" si="7">C11+C12</f>
+        <f t="shared" ref="C13:T13" si="22">C11+C12</f>
         <v>-7</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-11</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-5</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-16</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-29</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-19</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-48</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-55</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-66</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-57</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-79</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-87.527000000000001</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-96.82000000000005</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-100</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-93</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-62</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>-53.901999999999944</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" ref="U13:V13" si="8">U11+U12</f>
+        <f t="shared" ref="U13:V13" si="23">U11+U12</f>
         <v>-31</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="8"/>
-        <v>-16.399999999999999</v>
+        <f t="shared" si="23"/>
+        <v>-27.097999999999999</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" ref="W13:Z13" si="24">W11+W12</f>
+        <v>-25</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="24"/>
+        <v>-14.100000000000023</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="24"/>
+        <v>-7.3999999999999773</v>
       </c>
       <c r="Z13" s="3">
-        <f>Z11+Z12</f>
+        <f t="shared" si="24"/>
+        <v>-4.6000000000000227</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>AD11+AD12</f>
         <v>-28</v>
       </c>
-      <c r="AA13" s="3">
-        <f>AA11+AA12</f>
+      <c r="AE13" s="3">
+        <f>AE11+AE12</f>
         <v>-114</v>
       </c>
-      <c r="AB13" s="3">
-        <f>AB11+AB12</f>
+      <c r="AF13" s="3">
+        <f>AF11+AF12</f>
         <v>-258</v>
       </c>
-      <c r="AC13" s="3">
-        <f>AC11+AC12</f>
+      <c r="AG13" s="3">
+        <f>AG11+AG12</f>
         <v>-379</v>
       </c>
+      <c r="AH13" s="3">
+        <f>AH11+AH12</f>
+        <v>-174</v>
+      </c>
+      <c r="AI13" s="3">
+        <f>AI11+AI12</f>
+        <v>-28.710000000000036</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" ref="AJ13:AR13" si="25">AJ11+AJ12</f>
+        <v>119.01250000000027</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="25"/>
+        <v>328.90062500000022</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="25"/>
+        <v>620.38103125000066</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="25"/>
+        <v>1018.3248265625008</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="25"/>
+        <v>1707.4476978906257</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="25"/>
+        <v>2613.5209597695316</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="25"/>
+        <v>3795.3099524212889</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="25"/>
+        <v>5326.727164147549</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="25"/>
+        <v>7300.6647515901232</v>
+      </c>
     </row>
-    <row r="14" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -4343,1887 +5906,2018 @@
         <v>7</v>
       </c>
       <c r="V14" s="3">
+        <f>AH14-U14-T14-S14</f>
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="W14" s="3">
+        <v>9</v>
+      </c>
+      <c r="X14" s="2">
+        <f>W14/W6 * X6</f>
+        <v>9.2080519480519474</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" ref="Y14:Z14" si="26">X14/X6 * Y6</f>
+        <v>9.4815584415584429</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="26"/>
+        <v>9.6638961038961035</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
         <v>5</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
-      <c r="AB14">
-        <v>5</v>
-      </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>7</v>
       </c>
+      <c r="AH14">
+        <v>20</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="20"/>
+        <v>37.353506493506487</v>
+      </c>
+      <c r="AJ14">
+        <f>AJ13*0.15</f>
+        <v>17.851875000000039</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" ref="AK14:AR14" si="27">AK13*0.15</f>
+        <v>49.335093750000034</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="27"/>
+        <v>93.057154687500102</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="27"/>
+        <v>152.74872398437512</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="27"/>
+        <v>256.11715468359387</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="27"/>
+        <v>392.02814396542971</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="27"/>
+        <v>569.29649286319329</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="27"/>
+        <v>799.00907462213229</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="27"/>
+        <v>1095.0997127385185</v>
+      </c>
     </row>
-    <row r="15" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:447" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:T15" si="9">C13-C14</f>
+        <f t="shared" ref="C15:T15" si="28">C13-C14</f>
         <v>-7</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-4</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-12</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-5</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-17</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-29</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-19</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-48</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-55</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-68</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-59</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-80</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-89.626999999999995</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-98.920000000000044</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-100</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-95</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-67</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-57.593999999999944</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" ref="U15:V15" si="10">U13-U14</f>
+        <f t="shared" ref="U15:V15" si="29">U13-U14</f>
         <v>-38</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="10"/>
-        <v>-21.4</v>
+        <f t="shared" si="29"/>
+        <v>-31.405999999999999</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" ref="W15:Z15" si="30">W13-W14</f>
+        <v>-34</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="30"/>
+        <v>-23.308051948051968</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="30"/>
+        <v>-16.881558441558418</v>
       </c>
       <c r="Z15" s="3">
-        <f>Z13-Z14</f>
+        <f t="shared" si="30"/>
+        <v>-14.263896103896126</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>AD13-AD14</f>
         <v>-29</v>
       </c>
-      <c r="AA15" s="3">
-        <f>AA13-AA14</f>
+      <c r="AE15" s="3">
+        <f>AE13-AE14</f>
         <v>-116</v>
       </c>
-      <c r="AB15" s="3">
-        <f>AB13-AB14</f>
+      <c r="AF15" s="3">
+        <f>AF13-AF14</f>
         <v>-263</v>
       </c>
-      <c r="AC15" s="3">
-        <f>AC13-AC14</f>
+      <c r="AG15" s="3">
+        <f>AG13-AG14</f>
         <v>-386</v>
       </c>
-      <c r="AD15" s="3">
-        <f>SUM(S15:V15)</f>
-        <v>-183.99399999999994</v>
-      </c>
-      <c r="AE15" s="3">
-        <f>AE4*0.03</f>
-        <v>64.475999999999999</v>
-      </c>
-      <c r="AF15" s="3">
-        <f>AF4*0.05</f>
-        <v>145.07100000000003</v>
-      </c>
-      <c r="AG15" s="3">
-        <f>AG4*0.06</f>
-        <v>235.01502000000005</v>
-      </c>
       <c r="AH15" s="3">
-        <f>AH4*0.07</f>
-        <v>370.14865650000019</v>
+        <f>AH13-AH14</f>
+        <v>-194</v>
       </c>
       <c r="AI15" s="3">
-        <f>AI4*0.08</f>
-        <v>571.08649860000025</v>
+        <f>AI13-AI14</f>
+        <v>-66.063506493506523</v>
       </c>
       <c r="AJ15" s="3">
-        <f>AJ4*0.1</f>
-        <v>963.70846638750049</v>
+        <f t="shared" ref="AJ15:AR15" si="31">AJ13-AJ14</f>
+        <v>101.16062500000024</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" ref="AK15:AN15" si="11">AK4*0.1</f>
-        <v>1301.0064296231258</v>
+        <f t="shared" si="31"/>
+        <v>279.56553125000016</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="11"/>
-        <v>1756.35867999122</v>
+        <f t="shared" si="31"/>
+        <v>527.32387656250057</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="11"/>
-        <v>2371.084217988147</v>
+        <f t="shared" si="31"/>
+        <v>865.57610257812564</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="11"/>
-        <v>3200.9636942839988</v>
+        <f t="shared" si="31"/>
+        <v>1451.330543207032</v>
       </c>
       <c r="AO15" s="3">
-        <f>AN15*(1+$AS$28)</f>
-        <v>3168.9540573411587</v>
+        <f t="shared" si="31"/>
+        <v>2221.4928158041021</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" ref="AP15:DA15" si="12">AO15*(1+$AS$28)</f>
-        <v>3137.264516767747</v>
+        <f t="shared" si="31"/>
+        <v>3226.0134595580957</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="12"/>
-        <v>3105.8918716000694</v>
+        <f t="shared" si="31"/>
+        <v>4527.7180895254169</v>
       </c>
       <c r="AR15" s="3">
-        <f t="shared" si="12"/>
-        <v>3074.8329528840686</v>
+        <f t="shared" si="31"/>
+        <v>6205.5650388516042</v>
       </c>
       <c r="AS15" s="3">
-        <f t="shared" si="12"/>
-        <v>3044.0846233552279</v>
+        <f>AR15*(1+$AW$28)</f>
+        <v>6143.5093884630878</v>
       </c>
       <c r="AT15" s="3">
-        <f t="shared" si="12"/>
-        <v>3013.6437771216756</v>
+        <f t="shared" ref="AT15:DE15" si="32">AS15*(1+$AW$28)</f>
+        <v>6082.0742945784568</v>
       </c>
       <c r="AU15" s="3">
-        <f t="shared" si="12"/>
-        <v>2983.507339350459</v>
+        <f t="shared" si="32"/>
+        <v>6021.2535516326725</v>
       </c>
       <c r="AV15" s="3">
-        <f t="shared" si="12"/>
-        <v>2953.6722659569546</v>
+        <f t="shared" si="32"/>
+        <v>5961.0410161163454</v>
       </c>
       <c r="AW15" s="3">
-        <f t="shared" si="12"/>
-        <v>2924.1355432973851</v>
+        <f t="shared" si="32"/>
+        <v>5901.4306059551818</v>
       </c>
       <c r="AX15" s="3">
-        <f t="shared" si="12"/>
-        <v>2894.8941878644114</v>
+        <f t="shared" si="32"/>
+        <v>5842.4162998956299</v>
       </c>
       <c r="AY15" s="3">
-        <f t="shared" si="12"/>
-        <v>2865.9452459857671</v>
+        <f t="shared" si="32"/>
+        <v>5783.9921368966734</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="12"/>
-        <v>2837.2857935259094</v>
+        <f t="shared" si="32"/>
+        <v>5726.1522155277062</v>
       </c>
       <c r="BA15" s="3">
-        <f t="shared" si="12"/>
-        <v>2808.9129355906502</v>
+        <f t="shared" si="32"/>
+        <v>5668.8906933724293</v>
       </c>
       <c r="BB15" s="3">
-        <f t="shared" si="12"/>
-        <v>2780.8238062347436</v>
+        <f t="shared" si="32"/>
+        <v>5612.2017864387053</v>
       </c>
       <c r="BC15" s="3">
-        <f t="shared" si="12"/>
-        <v>2753.0155681723963</v>
+        <f t="shared" si="32"/>
+        <v>5556.0797685743182</v>
       </c>
       <c r="BD15" s="3">
-        <f t="shared" si="12"/>
-        <v>2725.4854124906724</v>
+        <f t="shared" si="32"/>
+        <v>5500.5189708885746</v>
       </c>
       <c r="BE15" s="3">
-        <f t="shared" si="12"/>
-        <v>2698.2305583657658</v>
+        <f t="shared" si="32"/>
+        <v>5445.5137811796885</v>
       </c>
       <c r="BF15" s="3">
-        <f t="shared" si="12"/>
-        <v>2671.248252782108</v>
+        <f t="shared" si="32"/>
+        <v>5391.0586433678918</v>
       </c>
       <c r="BG15" s="3">
-        <f t="shared" si="12"/>
-        <v>2644.5357702542869</v>
+        <f t="shared" si="32"/>
+        <v>5337.1480569342129</v>
       </c>
       <c r="BH15" s="3">
-        <f t="shared" si="12"/>
-        <v>2618.0904125517441</v>
+        <f t="shared" si="32"/>
+        <v>5283.7765763648704</v>
       </c>
       <c r="BI15" s="3">
-        <f t="shared" si="12"/>
-        <v>2591.9095084262267</v>
+        <f t="shared" si="32"/>
+        <v>5230.938810601222</v>
       </c>
       <c r="BJ15" s="3">
-        <f t="shared" si="12"/>
-        <v>2565.9904133419645</v>
+        <f t="shared" si="32"/>
+        <v>5178.6294224952098</v>
       </c>
       <c r="BK15" s="3">
-        <f t="shared" si="12"/>
-        <v>2540.3305092085448</v>
+        <f t="shared" si="32"/>
+        <v>5126.8431282702577</v>
       </c>
       <c r="BL15" s="3">
-        <f t="shared" si="12"/>
-        <v>2514.9272041164595</v>
+        <f t="shared" si="32"/>
+        <v>5075.5746969875554</v>
       </c>
       <c r="BM15" s="3">
-        <f t="shared" si="12"/>
-        <v>2489.7779320752948</v>
+        <f t="shared" si="32"/>
+        <v>5024.8189500176795</v>
       </c>
       <c r="BN15" s="3">
-        <f t="shared" si="12"/>
-        <v>2464.880152754542</v>
+        <f t="shared" si="32"/>
+        <v>4974.570760517503</v>
       </c>
       <c r="BO15" s="3">
-        <f t="shared" si="12"/>
-        <v>2440.2313512269966</v>
+        <f t="shared" si="32"/>
+        <v>4924.8250529123279</v>
       </c>
       <c r="BP15" s="3">
-        <f t="shared" si="12"/>
-        <v>2415.8290377147264</v>
+        <f t="shared" si="32"/>
+        <v>4875.5768023832043</v>
       </c>
       <c r="BQ15" s="3">
-        <f t="shared" si="12"/>
-        <v>2391.6707473375791</v>
+        <f t="shared" si="32"/>
+        <v>4826.8210343593719</v>
       </c>
       <c r="BR15" s="3">
-        <f t="shared" si="12"/>
-        <v>2367.7540398642032</v>
+        <f t="shared" si="32"/>
+        <v>4778.5528240157782</v>
       </c>
       <c r="BS15" s="3">
-        <f t="shared" si="12"/>
-        <v>2344.076499465561</v>
+        <f t="shared" si="32"/>
+        <v>4730.7672957756204</v>
       </c>
       <c r="BT15" s="3">
-        <f t="shared" si="12"/>
-        <v>2320.6357344709054</v>
+        <f t="shared" si="32"/>
+        <v>4683.4596228178643</v>
       </c>
       <c r="BU15" s="3">
-        <f t="shared" si="12"/>
-        <v>2297.4293771261964</v>
+        <f t="shared" si="32"/>
+        <v>4636.6250265896861</v>
       </c>
       <c r="BV15" s="3">
-        <f t="shared" si="12"/>
-        <v>2274.4550833549342</v>
+        <f t="shared" si="32"/>
+        <v>4590.2587763237889</v>
       </c>
       <c r="BW15" s="3">
-        <f t="shared" si="12"/>
-        <v>2251.7105325213847</v>
+        <f t="shared" si="32"/>
+        <v>4544.3561885605513</v>
       </c>
       <c r="BX15" s="3">
-        <f t="shared" si="12"/>
-        <v>2229.1934271961709</v>
+        <f t="shared" si="32"/>
+        <v>4498.9126266749454</v>
       </c>
       <c r="BY15" s="3">
-        <f t="shared" si="12"/>
-        <v>2206.9014929242094</v>
+        <f t="shared" si="32"/>
+        <v>4453.9235004081957</v>
       </c>
       <c r="BZ15" s="3">
-        <f t="shared" si="12"/>
-        <v>2184.8324779949671</v>
+        <f t="shared" si="32"/>
+        <v>4409.3842654041136</v>
       </c>
       <c r="CA15" s="3">
-        <f t="shared" si="12"/>
-        <v>2162.9841532150176</v>
+        <f t="shared" si="32"/>
+        <v>4365.2904227500721</v>
       </c>
       <c r="CB15" s="3">
-        <f t="shared" si="12"/>
-        <v>2141.3543116828673</v>
+        <f t="shared" si="32"/>
+        <v>4321.6375185225716</v>
       </c>
       <c r="CC15" s="3">
-        <f t="shared" si="12"/>
-        <v>2119.9407685660385</v>
+        <f t="shared" si="32"/>
+        <v>4278.4211433373457</v>
       </c>
       <c r="CD15" s="3">
-        <f t="shared" si="12"/>
-        <v>2098.7413608803781</v>
+        <f t="shared" si="32"/>
+        <v>4235.6369319039723</v>
       </c>
       <c r="CE15" s="3">
-        <f t="shared" si="12"/>
-        <v>2077.7539472715744</v>
+        <f t="shared" si="32"/>
+        <v>4193.2805625849323</v>
       </c>
       <c r="CF15" s="3">
-        <f t="shared" si="12"/>
-        <v>2056.9764077988584</v>
+        <f t="shared" si="32"/>
+        <v>4151.3477569590832</v>
       </c>
       <c r="CG15" s="3">
-        <f t="shared" si="12"/>
-        <v>2036.4066437208699</v>
+        <f t="shared" si="32"/>
+        <v>4109.8342793894926</v>
       </c>
       <c r="CH15" s="3">
-        <f t="shared" si="12"/>
-        <v>2016.0425772836611</v>
+        <f t="shared" si="32"/>
+        <v>4068.7359365955977</v>
       </c>
       <c r="CI15" s="3">
-        <f t="shared" si="12"/>
-        <v>1995.8821515108245</v>
+        <f t="shared" si="32"/>
+        <v>4028.0485772296415</v>
       </c>
       <c r="CJ15" s="3">
-        <f t="shared" si="12"/>
-        <v>1975.9233299957164</v>
+        <f t="shared" si="32"/>
+        <v>3987.7680914573452</v>
       </c>
       <c r="CK15" s="3">
-        <f t="shared" si="12"/>
-        <v>1956.1640966957591</v>
+        <f t="shared" si="32"/>
+        <v>3947.8904105427719</v>
       </c>
       <c r="CL15" s="3">
-        <f t="shared" si="12"/>
-        <v>1936.6024557288015</v>
+        <f t="shared" si="32"/>
+        <v>3908.4115064373441</v>
       </c>
       <c r="CM15" s="3">
-        <f t="shared" si="12"/>
-        <v>1917.2364311715135</v>
+        <f t="shared" si="32"/>
+        <v>3869.3273913729704</v>
       </c>
       <c r="CN15" s="3">
-        <f t="shared" si="12"/>
-        <v>1898.0640668597982</v>
+        <f t="shared" si="32"/>
+        <v>3830.6341174592408</v>
       </c>
       <c r="CO15" s="3">
-        <f t="shared" si="12"/>
-        <v>1879.0834261912003</v>
+        <f t="shared" si="32"/>
+        <v>3792.3277762846483</v>
       </c>
       <c r="CP15" s="3">
-        <f t="shared" si="12"/>
-        <v>1860.2925919292882</v>
+        <f t="shared" si="32"/>
+        <v>3754.4044985218015</v>
       </c>
       <c r="CQ15" s="3">
-        <f t="shared" si="12"/>
-        <v>1841.6896660099953</v>
+        <f t="shared" si="32"/>
+        <v>3716.8604535365835</v>
       </c>
       <c r="CR15" s="3">
-        <f t="shared" si="12"/>
-        <v>1823.2727693498953</v>
+        <f t="shared" si="32"/>
+        <v>3679.6918490012176</v>
       </c>
       <c r="CS15" s="3">
-        <f t="shared" si="12"/>
-        <v>1805.0400416563964</v>
+        <f t="shared" si="32"/>
+        <v>3642.8949305112055</v>
       </c>
       <c r="CT15" s="3">
-        <f t="shared" si="12"/>
-        <v>1786.9896412398325</v>
+        <f t="shared" si="32"/>
+        <v>3606.4659812060936</v>
       </c>
       <c r="CU15" s="3">
-        <f t="shared" si="12"/>
-        <v>1769.1197448274343</v>
+        <f t="shared" si="32"/>
+        <v>3570.4013213940325</v>
       </c>
       <c r="CV15" s="3">
-        <f t="shared" si="12"/>
-        <v>1751.4285473791599</v>
+        <f t="shared" si="32"/>
+        <v>3534.697308180092</v>
       </c>
       <c r="CW15" s="3">
-        <f t="shared" si="12"/>
-        <v>1733.9142619053682</v>
+        <f t="shared" si="32"/>
+        <v>3499.350335098291</v>
       </c>
       <c r="CX15" s="3">
-        <f t="shared" si="12"/>
-        <v>1716.5751192863145</v>
+        <f t="shared" si="32"/>
+        <v>3464.3568317473082</v>
       </c>
       <c r="CY15" s="3">
-        <f t="shared" si="12"/>
-        <v>1699.4093680934513</v>
+        <f t="shared" si="32"/>
+        <v>3429.713263429835</v>
       </c>
       <c r="CZ15" s="3">
-        <f t="shared" si="12"/>
-        <v>1682.4152744125167</v>
+        <f t="shared" si="32"/>
+        <v>3395.4161307955364</v>
       </c>
       <c r="DA15" s="3">
-        <f t="shared" si="12"/>
-        <v>1665.5911216683915</v>
+        <f t="shared" si="32"/>
+        <v>3361.461969487581</v>
       </c>
       <c r="DB15" s="3">
-        <f t="shared" ref="DB15:FM15" si="13">DA15*(1+$AS$28)</f>
-        <v>1648.9352104517075</v>
+        <f t="shared" si="32"/>
+        <v>3327.8473497927052</v>
       </c>
       <c r="DC15" s="3">
-        <f t="shared" si="13"/>
-        <v>1632.4458583471903</v>
+        <f t="shared" si="32"/>
+        <v>3294.568876294778</v>
       </c>
       <c r="DD15" s="3">
-        <f t="shared" si="13"/>
-        <v>1616.1213997637185</v>
+        <f t="shared" si="32"/>
+        <v>3261.6231875318304</v>
       </c>
       <c r="DE15" s="3">
-        <f t="shared" si="13"/>
-        <v>1599.9601857660814</v>
+        <f t="shared" si="32"/>
+        <v>3229.0069556565122</v>
       </c>
       <c r="DF15" s="3">
-        <f t="shared" si="13"/>
-        <v>1583.9605839084206</v>
+        <f t="shared" ref="DF15:FQ15" si="33">DE15*(1+$AW$28)</f>
+        <v>3196.7168860999473</v>
       </c>
       <c r="DG15" s="3">
-        <f t="shared" si="13"/>
-        <v>1568.1209780693364</v>
+        <f t="shared" si="33"/>
+        <v>3164.7497172389476</v>
       </c>
       <c r="DH15" s="3">
-        <f t="shared" si="13"/>
-        <v>1552.4397682886431</v>
+        <f t="shared" si="33"/>
+        <v>3133.1022200665579</v>
       </c>
       <c r="DI15" s="3">
-        <f t="shared" si="13"/>
-        <v>1536.9153706057566</v>
+        <f t="shared" si="33"/>
+        <v>3101.7711978658922</v>
       </c>
       <c r="DJ15" s="3">
-        <f t="shared" si="13"/>
-        <v>1521.5462168996989</v>
+        <f t="shared" si="33"/>
+        <v>3070.7534858872332</v>
       </c>
       <c r="DK15" s="3">
-        <f t="shared" si="13"/>
-        <v>1506.330754730702</v>
+        <f t="shared" si="33"/>
+        <v>3040.0459510283608</v>
       </c>
       <c r="DL15" s="3">
-        <f t="shared" si="13"/>
-        <v>1491.267447183395</v>
+        <f t="shared" si="33"/>
+        <v>3009.6454915180771</v>
       </c>
       <c r="DM15" s="3">
-        <f t="shared" si="13"/>
-        <v>1476.3547727115611</v>
+        <f t="shared" si="33"/>
+        <v>2979.5490366028962</v>
       </c>
       <c r="DN15" s="3">
-        <f t="shared" si="13"/>
-        <v>1461.5912249844455</v>
+        <f t="shared" si="33"/>
+        <v>2949.7535462368674</v>
       </c>
       <c r="DO15" s="3">
-        <f t="shared" si="13"/>
-        <v>1446.9753127346009</v>
+        <f t="shared" si="33"/>
+        <v>2920.2560107744985</v>
       </c>
       <c r="DP15" s="3">
-        <f t="shared" si="13"/>
-        <v>1432.505559607255</v>
+        <f t="shared" si="33"/>
+        <v>2891.0534506667536</v>
       </c>
       <c r="DQ15" s="3">
-        <f t="shared" si="13"/>
-        <v>1418.1805040111824</v>
+        <f t="shared" si="33"/>
+        <v>2862.1429161600859</v>
       </c>
       <c r="DR15" s="3">
-        <f t="shared" si="13"/>
-        <v>1403.9986989710706</v>
+        <f t="shared" si="33"/>
+        <v>2833.5214869984848</v>
       </c>
       <c r="DS15" s="3">
-        <f t="shared" si="13"/>
-        <v>1389.9587119813598</v>
+        <f t="shared" si="33"/>
+        <v>2805.1862721284997</v>
       </c>
       <c r="DT15" s="3">
-        <f t="shared" si="13"/>
-        <v>1376.0591248615463</v>
+        <f t="shared" si="33"/>
+        <v>2777.1344094072147</v>
       </c>
       <c r="DU15" s="3">
-        <f t="shared" si="13"/>
-        <v>1362.2985336129307</v>
+        <f t="shared" si="33"/>
+        <v>2749.3630653131427</v>
       </c>
       <c r="DV15" s="3">
-        <f t="shared" si="13"/>
-        <v>1348.6755482768012</v>
+        <f t="shared" si="33"/>
+        <v>2721.8694346600114</v>
       </c>
       <c r="DW15" s="3">
-        <f t="shared" si="13"/>
-        <v>1335.1887927940331</v>
+        <f t="shared" si="33"/>
+        <v>2694.6507403134115</v>
       </c>
       <c r="DX15" s="3">
-        <f t="shared" si="13"/>
-        <v>1321.8369048660927</v>
+        <f t="shared" si="33"/>
+        <v>2667.7042329102774</v>
       </c>
       <c r="DY15" s="3">
-        <f t="shared" si="13"/>
-        <v>1308.6185358174318</v>
+        <f t="shared" si="33"/>
+        <v>2641.0271905811746</v>
       </c>
       <c r="DZ15" s="3">
-        <f t="shared" si="13"/>
-        <v>1295.5323504592575</v>
+        <f t="shared" si="33"/>
+        <v>2614.6169186753627</v>
       </c>
       <c r="EA15" s="3">
-        <f t="shared" si="13"/>
-        <v>1282.5770269546649</v>
+        <f t="shared" si="33"/>
+        <v>2588.4707494886093</v>
       </c>
       <c r="EB15" s="3">
-        <f t="shared" si="13"/>
-        <v>1269.7512566851183</v>
+        <f t="shared" si="33"/>
+        <v>2562.586041993723</v>
       </c>
       <c r="EC15" s="3">
-        <f t="shared" si="13"/>
-        <v>1257.0537441182671</v>
+        <f t="shared" si="33"/>
+        <v>2536.9601815737856</v>
       </c>
       <c r="ED15" s="3">
-        <f t="shared" si="13"/>
-        <v>1244.4832066770844</v>
+        <f t="shared" si="33"/>
+        <v>2511.5905797580476</v>
       </c>
       <c r="EE15" s="3">
-        <f t="shared" si="13"/>
-        <v>1232.0383746103134</v>
+        <f t="shared" si="33"/>
+        <v>2486.474673960467</v>
       </c>
       <c r="EF15" s="3">
-        <f t="shared" si="13"/>
-        <v>1219.7179908642104</v>
+        <f t="shared" si="33"/>
+        <v>2461.6099272208626</v>
       </c>
       <c r="EG15" s="3">
-        <f t="shared" si="13"/>
-        <v>1207.5208109555683</v>
+        <f t="shared" si="33"/>
+        <v>2436.9938279486541</v>
       </c>
       <c r="EH15" s="3">
-        <f t="shared" si="13"/>
-        <v>1195.4456028460127</v>
+        <f t="shared" si="33"/>
+        <v>2412.6238896691675</v>
       </c>
       <c r="EI15" s="3">
-        <f t="shared" si="13"/>
-        <v>1183.4911468175526</v>
+        <f t="shared" si="33"/>
+        <v>2388.4976507724759</v>
       </c>
       <c r="EJ15" s="3">
-        <f t="shared" si="13"/>
-        <v>1171.6562353493771</v>
+        <f t="shared" si="33"/>
+        <v>2364.6126742647511</v>
       </c>
       <c r="EK15" s="3">
-        <f t="shared" si="13"/>
-        <v>1159.9396729958833</v>
+        <f t="shared" si="33"/>
+        <v>2340.9665475221036</v>
       </c>
       <c r="EL15" s="3">
-        <f t="shared" si="13"/>
-        <v>1148.3402762659243</v>
+        <f t="shared" si="33"/>
+        <v>2317.5568820468825</v>
       </c>
       <c r="EM15" s="3">
-        <f t="shared" si="13"/>
-        <v>1136.856873503265</v>
+        <f t="shared" si="33"/>
+        <v>2294.3813132264136</v>
       </c>
       <c r="EN15" s="3">
-        <f t="shared" si="13"/>
-        <v>1125.4883047682324</v>
+        <f t="shared" si="33"/>
+        <v>2271.4375000941495</v>
       </c>
       <c r="EO15" s="3">
-        <f t="shared" si="13"/>
-        <v>1114.23342172055</v>
+        <f t="shared" si="33"/>
+        <v>2248.7231250932082</v>
       </c>
       <c r="EP15" s="3">
-        <f t="shared" si="13"/>
-        <v>1103.0910875033446</v>
+        <f t="shared" si="33"/>
+        <v>2226.2358938422763</v>
       </c>
       <c r="EQ15" s="3">
-        <f t="shared" si="13"/>
-        <v>1092.0601766283112</v>
+        <f t="shared" si="33"/>
+        <v>2203.9735349038533</v>
       </c>
       <c r="ER15" s="3">
-        <f t="shared" si="13"/>
-        <v>1081.139574862028</v>
+        <f t="shared" si="33"/>
+        <v>2181.9337995548149</v>
       </c>
       <c r="ES15" s="3">
-        <f t="shared" si="13"/>
-        <v>1070.3281791134077</v>
+        <f t="shared" si="33"/>
+        <v>2160.1144615592666</v>
       </c>
       <c r="ET15" s="3">
-        <f t="shared" si="13"/>
-        <v>1059.6248973222737</v>
+        <f t="shared" si="33"/>
+        <v>2138.513316943674</v>
       </c>
       <c r="EU15" s="3">
-        <f t="shared" si="13"/>
-        <v>1049.0286483490509</v>
+        <f t="shared" si="33"/>
+        <v>2117.1281837742372</v>
       </c>
       <c r="EV15" s="3">
-        <f t="shared" si="13"/>
-        <v>1038.5383618655603</v>
+        <f t="shared" si="33"/>
+        <v>2095.9569019364949</v>
       </c>
       <c r="EW15" s="3">
-        <f t="shared" si="13"/>
-        <v>1028.1529782469047</v>
+        <f t="shared" si="33"/>
+        <v>2074.9973329171298</v>
       </c>
       <c r="EX15" s="3">
-        <f t="shared" si="13"/>
-        <v>1017.8714484644356</v>
+        <f t="shared" si="33"/>
+        <v>2054.2473595879587</v>
       </c>
       <c r="EY15" s="3">
-        <f t="shared" si="13"/>
-        <v>1007.6927339797912</v>
+        <f t="shared" si="33"/>
+        <v>2033.7048859920792</v>
       </c>
       <c r="EZ15" s="3">
-        <f t="shared" si="13"/>
-        <v>997.61580663999325</v>
+        <f t="shared" si="33"/>
+        <v>2013.3678371321585</v>
       </c>
       <c r="FA15" s="3">
-        <f t="shared" si="13"/>
-        <v>987.63964857359326</v>
+        <f t="shared" si="33"/>
+        <v>1993.2341587608369</v>
       </c>
       <c r="FB15" s="3">
-        <f t="shared" si="13"/>
-        <v>977.76325208785727</v>
+        <f t="shared" si="33"/>
+        <v>1973.3018171732285</v>
       </c>
       <c r="FC15" s="3">
-        <f t="shared" si="13"/>
-        <v>967.9856195669787</v>
+        <f t="shared" si="33"/>
+        <v>1953.5687990014962</v>
       </c>
       <c r="FD15" s="3">
-        <f t="shared" si="13"/>
-        <v>958.3057633713089</v>
+        <f t="shared" si="33"/>
+        <v>1934.0331110114812</v>
       </c>
       <c r="FE15" s="3">
-        <f t="shared" si="13"/>
-        <v>948.72270573759579</v>
+        <f t="shared" si="33"/>
+        <v>1914.6927799013663</v>
       </c>
       <c r="FF15" s="3">
-        <f t="shared" si="13"/>
-        <v>939.23547868021979</v>
+        <f t="shared" si="33"/>
+        <v>1895.5458521023527</v>
       </c>
       <c r="FG15" s="3">
-        <f t="shared" si="13"/>
-        <v>929.84312389341756</v>
+        <f t="shared" si="33"/>
+        <v>1876.5903935813292</v>
       </c>
       <c r="FH15" s="3">
-        <f t="shared" si="13"/>
-        <v>920.54469265448336</v>
+        <f t="shared" si="33"/>
+        <v>1857.8244896455158</v>
       </c>
       <c r="FI15" s="3">
-        <f t="shared" si="13"/>
-        <v>911.33924572793853</v>
+        <f t="shared" si="33"/>
+        <v>1839.2462447490607</v>
       </c>
       <c r="FJ15" s="3">
-        <f t="shared" si="13"/>
-        <v>902.22585327065917</v>
+        <f t="shared" si="33"/>
+        <v>1820.8537823015702</v>
       </c>
       <c r="FK15" s="3">
-        <f t="shared" si="13"/>
-        <v>893.20359473795259</v>
+        <f t="shared" si="33"/>
+        <v>1802.6452444785543</v>
       </c>
       <c r="FL15" s="3">
-        <f t="shared" si="13"/>
-        <v>884.27155879057307</v>
+        <f t="shared" si="33"/>
+        <v>1784.6187920337688</v>
       </c>
       <c r="FM15" s="3">
-        <f t="shared" si="13"/>
-        <v>875.42884320266728</v>
+        <f t="shared" si="33"/>
+        <v>1766.772604113431</v>
       </c>
       <c r="FN15" s="3">
-        <f t="shared" ref="FN15:HY15" si="14">FM15*(1+$AS$28)</f>
-        <v>866.67455477064061</v>
+        <f t="shared" si="33"/>
+        <v>1749.1048780722967</v>
       </c>
       <c r="FO15" s="3">
-        <f t="shared" si="14"/>
-        <v>858.00780922293416</v>
+        <f t="shared" si="33"/>
+        <v>1731.6138292915737</v>
       </c>
       <c r="FP15" s="3">
-        <f t="shared" si="14"/>
-        <v>849.42773113070484</v>
+        <f t="shared" si="33"/>
+        <v>1714.297690998658</v>
       </c>
       <c r="FQ15" s="3">
-        <f t="shared" si="14"/>
-        <v>840.93345381939776</v>
+        <f t="shared" si="33"/>
+        <v>1697.1547140886714</v>
       </c>
       <c r="FR15" s="3">
-        <f t="shared" si="14"/>
-        <v>832.52411928120375</v>
+        <f t="shared" ref="FR15:IC15" si="34">FQ15*(1+$AW$28)</f>
+        <v>1680.1831669477847</v>
       </c>
       <c r="FS15" s="3">
-        <f t="shared" si="14"/>
-        <v>824.19887808839167</v>
+        <f t="shared" si="34"/>
+        <v>1663.3813352783068</v>
       </c>
       <c r="FT15" s="3">
-        <f t="shared" si="14"/>
-        <v>815.95688930750771</v>
+        <f t="shared" si="34"/>
+        <v>1646.7475219255236</v>
       </c>
       <c r="FU15" s="3">
-        <f t="shared" si="14"/>
-        <v>807.79732041443265</v>
+        <f t="shared" si="34"/>
+        <v>1630.2800467062684</v>
       </c>
       <c r="FV15" s="3">
-        <f t="shared" si="14"/>
-        <v>799.71934721028833</v>
+        <f t="shared" si="34"/>
+        <v>1613.9772462392057</v>
       </c>
       <c r="FW15" s="3">
-        <f t="shared" si="14"/>
-        <v>791.7221537381854</v>
+        <f t="shared" si="34"/>
+        <v>1597.8374737768136</v>
       </c>
       <c r="FX15" s="3">
-        <f t="shared" si="14"/>
-        <v>783.80493220080359</v>
+        <f t="shared" si="34"/>
+        <v>1581.8590990390453</v>
       </c>
       <c r="FY15" s="3">
-        <f t="shared" si="14"/>
-        <v>775.96688287879556</v>
+        <f t="shared" si="34"/>
+        <v>1566.0405080486548</v>
       </c>
       <c r="FZ15" s="3">
-        <f t="shared" si="14"/>
-        <v>768.20721405000756</v>
+        <f t="shared" si="34"/>
+        <v>1550.3801029681683</v>
       </c>
       <c r="GA15" s="3">
-        <f t="shared" si="14"/>
-        <v>760.52514190950751</v>
+        <f t="shared" si="34"/>
+        <v>1534.8763019384867</v>
       </c>
       <c r="GB15" s="3">
-        <f t="shared" si="14"/>
-        <v>752.9198904904124</v>
+        <f t="shared" si="34"/>
+        <v>1519.5275389191017</v>
       </c>
       <c r="GC15" s="3">
-        <f t="shared" si="14"/>
-        <v>745.39069158550831</v>
+        <f t="shared" si="34"/>
+        <v>1504.3322635299107</v>
       </c>
       <c r="GD15" s="3">
-        <f t="shared" si="14"/>
-        <v>737.93678466965321</v>
+        <f t="shared" si="34"/>
+        <v>1489.2889408946116</v>
       </c>
       <c r="GE15" s="3">
-        <f t="shared" si="14"/>
-        <v>730.55741682295672</v>
+        <f t="shared" si="34"/>
+        <v>1474.3960514856656</v>
       </c>
       <c r="GF15" s="3">
-        <f t="shared" si="14"/>
-        <v>723.25184265472717</v>
+        <f t="shared" si="34"/>
+        <v>1459.6520909708088</v>
       </c>
       <c r="GG15" s="3">
-        <f t="shared" si="14"/>
-        <v>716.01932422817993</v>
+        <f t="shared" si="34"/>
+        <v>1445.0555700611008</v>
       </c>
       <c r="GH15" s="3">
-        <f t="shared" si="14"/>
-        <v>708.8591309858981</v>
+        <f t="shared" si="34"/>
+        <v>1430.6050143604898</v>
       </c>
       <c r="GI15" s="3">
-        <f t="shared" si="14"/>
-        <v>701.77053967603911</v>
+        <f t="shared" si="34"/>
+        <v>1416.298964216885</v>
       </c>
       <c r="GJ15" s="3">
-        <f t="shared" si="14"/>
-        <v>694.75283427927866</v>
+        <f t="shared" si="34"/>
+        <v>1402.1359745747161</v>
       </c>
       <c r="GK15" s="3">
-        <f t="shared" si="14"/>
-        <v>687.80530593648587</v>
+        <f t="shared" si="34"/>
+        <v>1388.114614828969</v>
       </c>
       <c r="GL15" s="3">
-        <f t="shared" si="14"/>
-        <v>680.92725287712096</v>
+        <f t="shared" si="34"/>
+        <v>1374.2334686806794</v>
       </c>
       <c r="GM15" s="3">
-        <f t="shared" si="14"/>
-        <v>674.11798034834976</v>
+        <f t="shared" si="34"/>
+        <v>1360.4911339938726</v>
       </c>
       <c r="GN15" s="3">
-        <f t="shared" si="14"/>
-        <v>667.37680054486623</v>
+        <f t="shared" si="34"/>
+        <v>1346.8862226539338</v>
       </c>
       <c r="GO15" s="3">
-        <f t="shared" si="14"/>
-        <v>660.70303253941756</v>
+        <f t="shared" si="34"/>
+        <v>1333.4173604273944</v>
       </c>
       <c r="GP15" s="3">
-        <f t="shared" si="14"/>
-        <v>654.09600221402343</v>
+        <f t="shared" si="34"/>
+        <v>1320.0831868231205</v>
       </c>
       <c r="GQ15" s="3">
-        <f t="shared" si="14"/>
-        <v>647.55504219188322</v>
+        <f t="shared" si="34"/>
+        <v>1306.8823549548893</v>
       </c>
       <c r="GR15" s="3">
-        <f t="shared" si="14"/>
-        <v>641.07949176996442</v>
+        <f t="shared" si="34"/>
+        <v>1293.8135314053404</v>
       </c>
       <c r="GS15" s="3">
-        <f t="shared" si="14"/>
-        <v>634.66869685226482</v>
+        <f t="shared" si="34"/>
+        <v>1280.875396091287</v>
       </c>
       <c r="GT15" s="3">
-        <f t="shared" si="14"/>
-        <v>628.32200988374211</v>
+        <f t="shared" si="34"/>
+        <v>1268.0666421303742</v>
       </c>
       <c r="GU15" s="3">
-        <f t="shared" si="14"/>
-        <v>622.03878978490468</v>
+        <f t="shared" si="34"/>
+        <v>1255.3859757090704</v>
       </c>
       <c r="GV15" s="3">
-        <f t="shared" si="14"/>
-        <v>615.81840188705564</v>
+        <f t="shared" si="34"/>
+        <v>1242.8321159519796</v>
       </c>
       <c r="GW15" s="3">
-        <f t="shared" si="14"/>
-        <v>609.6602178681851</v>
+        <f t="shared" si="34"/>
+        <v>1230.4037947924598</v>
       </c>
       <c r="GX15" s="3">
-        <f t="shared" si="14"/>
-        <v>603.56361568950319</v>
+        <f t="shared" si="34"/>
+        <v>1218.0997568445352</v>
       </c>
       <c r="GY15" s="3">
-        <f t="shared" si="14"/>
-        <v>597.52797953260813</v>
+        <f t="shared" si="34"/>
+        <v>1205.91875927609</v>
       </c>
       <c r="GZ15" s="3">
-        <f t="shared" si="14"/>
-        <v>591.55269973728207</v>
+        <f t="shared" si="34"/>
+        <v>1193.859571683329</v>
       </c>
       <c r="HA15" s="3">
-        <f t="shared" si="14"/>
-        <v>585.63717273990926</v>
+        <f t="shared" si="34"/>
+        <v>1181.9209759664957</v>
       </c>
       <c r="HB15" s="3">
-        <f t="shared" si="14"/>
-        <v>579.78080101251021</v>
+        <f t="shared" si="34"/>
+        <v>1170.1017662068307</v>
       </c>
       <c r="HC15" s="3">
-        <f t="shared" si="14"/>
-        <v>573.98299300238511</v>
+        <f t="shared" si="34"/>
+        <v>1158.4007485447623</v>
       </c>
       <c r="HD15" s="3">
-        <f t="shared" si="14"/>
-        <v>568.24316307236131</v>
+        <f t="shared" si="34"/>
+        <v>1146.8167410593146</v>
       </c>
       <c r="HE15" s="3">
-        <f t="shared" si="14"/>
-        <v>562.5607314416377</v>
+        <f t="shared" si="34"/>
+        <v>1135.3485736487214</v>
       </c>
       <c r="HF15" s="3">
-        <f t="shared" si="14"/>
-        <v>556.93512412722134</v>
+        <f t="shared" si="34"/>
+        <v>1123.9950879122341</v>
       </c>
       <c r="HG15" s="3">
-        <f t="shared" si="14"/>
-        <v>551.36577288594913</v>
+        <f t="shared" si="34"/>
+        <v>1112.7551370331119</v>
       </c>
       <c r="HH15" s="3">
-        <f t="shared" si="14"/>
-        <v>545.85211515708966</v>
+        <f t="shared" si="34"/>
+        <v>1101.6275856627808</v>
       </c>
       <c r="HI15" s="3">
-        <f t="shared" si="14"/>
-        <v>540.39359400551871</v>
+        <f t="shared" si="34"/>
+        <v>1090.611309806153</v>
       </c>
       <c r="HJ15" s="3">
-        <f t="shared" si="14"/>
-        <v>534.98965806546346</v>
+        <f t="shared" si="34"/>
+        <v>1079.7051967080915</v>
       </c>
       <c r="HK15" s="3">
-        <f t="shared" si="14"/>
-        <v>529.63976148480879</v>
+        <f t="shared" si="34"/>
+        <v>1068.9081447410106</v>
       </c>
       <c r="HL15" s="3">
-        <f t="shared" si="14"/>
-        <v>524.34336386996074</v>
+        <f t="shared" si="34"/>
+        <v>1058.2190632936004</v>
       </c>
       <c r="HM15" s="3">
-        <f t="shared" si="14"/>
-        <v>519.09993023126117</v>
+        <f t="shared" si="34"/>
+        <v>1047.6368726606643</v>
       </c>
       <c r="HN15" s="3">
-        <f t="shared" si="14"/>
-        <v>513.90893092894851</v>
+        <f t="shared" si="34"/>
+        <v>1037.1605039340577</v>
       </c>
       <c r="HO15" s="3">
-        <f t="shared" si="14"/>
-        <v>508.76984161965902</v>
+        <f t="shared" si="34"/>
+        <v>1026.788898894717</v>
       </c>
       <c r="HP15" s="3">
-        <f t="shared" si="14"/>
-        <v>503.68214320346243</v>
+        <f t="shared" si="34"/>
+        <v>1016.5210099057698</v>
       </c>
       <c r="HQ15" s="3">
-        <f t="shared" si="14"/>
-        <v>498.6453217714278</v>
+        <f t="shared" si="34"/>
+        <v>1006.3557998067121</v>
       </c>
       <c r="HR15" s="3">
-        <f t="shared" si="14"/>
-        <v>493.65886855371355</v>
+        <f t="shared" si="34"/>
+        <v>996.29224180864492</v>
       </c>
       <c r="HS15" s="3">
-        <f t="shared" si="14"/>
-        <v>488.72227986817643</v>
+        <f t="shared" si="34"/>
+        <v>986.32931939055845</v>
       </c>
       <c r="HT15" s="3">
-        <f t="shared" si="14"/>
-        <v>483.83505706949467</v>
+        <f t="shared" si="34"/>
+        <v>976.46602619665282</v>
       </c>
       <c r="HU15" s="3">
-        <f t="shared" si="14"/>
-        <v>478.99670649879971</v>
+        <f t="shared" si="34"/>
+        <v>966.70136593468624</v>
       </c>
       <c r="HV15" s="3">
-        <f t="shared" si="14"/>
-        <v>474.20673943381172</v>
+        <f t="shared" si="34"/>
+        <v>957.03435227533942</v>
       </c>
       <c r="HW15" s="3">
-        <f t="shared" si="14"/>
-        <v>469.46467203947361</v>
+        <f t="shared" si="34"/>
+        <v>947.46400875258598</v>
       </c>
       <c r="HX15" s="3">
-        <f t="shared" si="14"/>
-        <v>464.77002531907885</v>
+        <f t="shared" si="34"/>
+        <v>937.98936866506017</v>
       </c>
       <c r="HY15" s="3">
-        <f t="shared" si="14"/>
-        <v>460.12232506588805</v>
+        <f t="shared" si="34"/>
+        <v>928.60947497840959</v>
       </c>
       <c r="HZ15" s="3">
-        <f t="shared" ref="HZ15:KK15" si="15">HY15*(1+$AS$28)</f>
-        <v>455.52110181522914</v>
+        <f t="shared" si="34"/>
+        <v>919.32338022862552</v>
       </c>
       <c r="IA15" s="3">
-        <f t="shared" si="15"/>
-        <v>450.96589079707684</v>
+        <f t="shared" si="34"/>
+        <v>910.13014642633925</v>
       </c>
       <c r="IB15" s="3">
-        <f t="shared" si="15"/>
-        <v>446.45623188910605</v>
+        <f t="shared" si="34"/>
+        <v>901.02884496207582</v>
       </c>
       <c r="IC15" s="3">
-        <f t="shared" si="15"/>
-        <v>441.99166957021498</v>
+        <f t="shared" si="34"/>
+        <v>892.01855651245501</v>
       </c>
       <c r="ID15" s="3">
-        <f t="shared" si="15"/>
-        <v>437.57175287451281</v>
+        <f t="shared" ref="ID15:KO15" si="35">IC15*(1+$AW$28)</f>
+        <v>883.09837094733041</v>
       </c>
       <c r="IE15" s="3">
-        <f t="shared" si="15"/>
-        <v>433.19603534576765</v>
+        <f t="shared" si="35"/>
+        <v>874.26738723785706</v>
       </c>
       <c r="IF15" s="3">
-        <f t="shared" si="15"/>
-        <v>428.86407499230995</v>
+        <f t="shared" si="35"/>
+        <v>865.52471336547853</v>
       </c>
       <c r="IG15" s="3">
-        <f t="shared" si="15"/>
-        <v>424.57543424238685</v>
+        <f t="shared" si="35"/>
+        <v>856.86946623182371</v>
       </c>
       <c r="IH15" s="3">
-        <f t="shared" si="15"/>
-        <v>420.32967989996297</v>
+        <f t="shared" si="35"/>
+        <v>848.30077156950551</v>
       </c>
       <c r="II15" s="3">
-        <f t="shared" si="15"/>
-        <v>416.12638310096332</v>
+        <f t="shared" si="35"/>
+        <v>839.81776385381045</v>
       </c>
       <c r="IJ15" s="3">
-        <f t="shared" si="15"/>
-        <v>411.96511926995368</v>
+        <f t="shared" si="35"/>
+        <v>831.41958621527237</v>
       </c>
       <c r="IK15" s="3">
-        <f t="shared" si="15"/>
-        <v>407.84546807725411</v>
+        <f t="shared" si="35"/>
+        <v>823.10539035311967</v>
       </c>
       <c r="IL15" s="3">
-        <f t="shared" si="15"/>
-        <v>403.76701339648156</v>
+        <f t="shared" si="35"/>
+        <v>814.87433644958844</v>
       </c>
       <c r="IM15" s="3">
-        <f t="shared" si="15"/>
-        <v>399.72934326251675</v>
+        <f t="shared" si="35"/>
+        <v>806.72559308509256</v>
       </c>
       <c r="IN15" s="3">
-        <f t="shared" si="15"/>
-        <v>395.73204982989159</v>
+        <f t="shared" si="35"/>
+        <v>798.65833715424162</v>
       </c>
       <c r="IO15" s="3">
-        <f t="shared" si="15"/>
-        <v>391.77472933159265</v>
+        <f t="shared" si="35"/>
+        <v>790.67175378269917</v>
       </c>
       <c r="IP15" s="3">
-        <f t="shared" si="15"/>
-        <v>387.85698203827673</v>
+        <f t="shared" si="35"/>
+        <v>782.76503624487214</v>
       </c>
       <c r="IQ15" s="3">
-        <f t="shared" si="15"/>
-        <v>383.97841221789395</v>
+        <f t="shared" si="35"/>
+        <v>774.93738588242343</v>
       </c>
       <c r="IR15" s="3">
-        <f t="shared" si="15"/>
-        <v>380.13862809571498</v>
+        <f t="shared" si="35"/>
+        <v>767.18801202359919</v>
       </c>
       <c r="IS15" s="3">
-        <f t="shared" si="15"/>
-        <v>376.33724181475782</v>
+        <f t="shared" si="35"/>
+        <v>759.5161319033632</v>
       </c>
       <c r="IT15" s="3">
-        <f t="shared" si="15"/>
-        <v>372.57386939661023</v>
+        <f t="shared" si="35"/>
+        <v>751.92097058432955</v>
       </c>
       <c r="IU15" s="3">
-        <f t="shared" si="15"/>
-        <v>368.84813070264414</v>
+        <f t="shared" si="35"/>
+        <v>744.40176087848624</v>
       </c>
       <c r="IV15" s="3">
-        <f t="shared" si="15"/>
-        <v>365.15964939561769</v>
+        <f t="shared" si="35"/>
+        <v>736.95774326970138</v>
       </c>
       <c r="IW15" s="3">
-        <f t="shared" si="15"/>
-        <v>361.50805290166153</v>
+        <f t="shared" si="35"/>
+        <v>729.58816583700434</v>
       </c>
       <c r="IX15" s="3">
-        <f t="shared" si="15"/>
-        <v>357.89297237264492</v>
+        <f t="shared" si="35"/>
+        <v>722.2922841786343</v>
       </c>
       <c r="IY15" s="3">
-        <f t="shared" si="15"/>
-        <v>354.31404264891847</v>
+        <f t="shared" si="35"/>
+        <v>715.06936133684792</v>
       </c>
       <c r="IZ15" s="3">
-        <f t="shared" si="15"/>
-        <v>350.7709022224293</v>
+        <f t="shared" si="35"/>
+        <v>707.91866772347942</v>
       </c>
       <c r="JA15" s="3">
-        <f t="shared" si="15"/>
-        <v>347.26319320020502</v>
+        <f t="shared" si="35"/>
+        <v>700.8394810462446</v>
       </c>
       <c r="JB15" s="3">
-        <f t="shared" si="15"/>
-        <v>343.79056126820296</v>
+        <f t="shared" si="35"/>
+        <v>693.8310862357821</v>
       </c>
       <c r="JC15" s="3">
-        <f t="shared" si="15"/>
-        <v>340.35265565552095</v>
+        <f t="shared" si="35"/>
+        <v>686.89277537342423</v>
       </c>
       <c r="JD15" s="3">
-        <f t="shared" si="15"/>
-        <v>336.94912909896573</v>
+        <f t="shared" si="35"/>
+        <v>680.02384761968995</v>
       </c>
       <c r="JE15" s="3">
-        <f t="shared" si="15"/>
-        <v>333.57963780797604</v>
+        <f t="shared" si="35"/>
+        <v>673.22360914349304</v>
       </c>
       <c r="JF15" s="3">
-        <f t="shared" si="15"/>
-        <v>330.24384142989629</v>
+        <f t="shared" si="35"/>
+        <v>666.49137305205807</v>
       </c>
       <c r="JG15" s="3">
-        <f t="shared" si="15"/>
-        <v>326.9414030155973</v>
+        <f t="shared" si="35"/>
+        <v>659.82645932153753</v>
       </c>
       <c r="JH15" s="3">
-        <f t="shared" si="15"/>
-        <v>323.67198898544132</v>
+        <f t="shared" si="35"/>
+        <v>653.22819472832214</v>
       </c>
       <c r="JI15" s="3">
-        <f t="shared" si="15"/>
-        <v>320.43526909558688</v>
+        <f t="shared" si="35"/>
+        <v>646.69591278103894</v>
       </c>
       <c r="JJ15" s="3">
-        <f t="shared" si="15"/>
-        <v>317.23091640463099</v>
+        <f t="shared" si="35"/>
+        <v>640.22895365322859</v>
       </c>
       <c r="JK15" s="3">
-        <f t="shared" si="15"/>
-        <v>314.05860724058465</v>
+        <f t="shared" si="35"/>
+        <v>633.82666411669629</v>
       </c>
       <c r="JL15" s="3">
-        <f t="shared" si="15"/>
-        <v>310.91802116817883</v>
+        <f t="shared" si="35"/>
+        <v>627.48839747552927</v>
       </c>
       <c r="JM15" s="3">
-        <f t="shared" si="15"/>
-        <v>307.80884095649702</v>
+        <f t="shared" si="35"/>
+        <v>621.21351350077396</v>
       </c>
       <c r="JN15" s="3">
-        <f t="shared" si="15"/>
-        <v>304.73075254693202</v>
+        <f t="shared" si="35"/>
+        <v>615.00137836576619</v>
       </c>
       <c r="JO15" s="3">
-        <f t="shared" si="15"/>
-        <v>301.68344502146272</v>
+        <f t="shared" si="35"/>
+        <v>608.85136458210854</v>
       </c>
       <c r="JP15" s="3">
-        <f t="shared" si="15"/>
-        <v>298.6666105712481</v>
+        <f t="shared" si="35"/>
+        <v>602.76285093628746</v>
       </c>
       <c r="JQ15" s="3">
-        <f t="shared" si="15"/>
-        <v>295.67994446553564</v>
+        <f t="shared" si="35"/>
+        <v>596.73522242692457</v>
       </c>
       <c r="JR15" s="3">
-        <f t="shared" si="15"/>
-        <v>292.72314502088028</v>
+        <f t="shared" si="35"/>
+        <v>590.76787020265533</v>
       </c>
       <c r="JS15" s="3">
-        <f t="shared" si="15"/>
-        <v>289.79591357067147</v>
+        <f t="shared" si="35"/>
+        <v>584.86019150062873</v>
       </c>
       <c r="JT15" s="3">
-        <f t="shared" si="15"/>
-        <v>286.89795443496473</v>
+        <f t="shared" si="35"/>
+        <v>579.01158958562246</v>
       </c>
       <c r="JU15" s="3">
-        <f t="shared" si="15"/>
-        <v>284.02897489061507</v>
+        <f t="shared" si="35"/>
+        <v>573.22147368976619</v>
       </c>
       <c r="JV15" s="3">
-        <f t="shared" si="15"/>
-        <v>281.1886851417089</v>
+        <f t="shared" si="35"/>
+        <v>567.48925895286857</v>
       </c>
       <c r="JW15" s="3">
-        <f t="shared" si="15"/>
-        <v>278.37679829029179</v>
+        <f t="shared" si="35"/>
+        <v>561.8143663633399</v>
       </c>
       <c r="JX15" s="3">
-        <f t="shared" si="15"/>
-        <v>275.59303030738886</v>
+        <f t="shared" si="35"/>
+        <v>556.19622269970648</v>
       </c>
       <c r="JY15" s="3">
-        <f t="shared" si="15"/>
-        <v>272.83710000431495</v>
+        <f t="shared" si="35"/>
+        <v>550.63426047270946</v>
       </c>
       <c r="JZ15" s="3">
-        <f t="shared" si="15"/>
-        <v>270.10872900427182</v>
+        <f t="shared" si="35"/>
+        <v>545.12791786798232</v>
       </c>
       <c r="KA15" s="3">
-        <f t="shared" si="15"/>
-        <v>267.4076417142291</v>
+        <f t="shared" si="35"/>
+        <v>539.67663868930254</v>
       </c>
       <c r="KB15" s="3">
-        <f t="shared" si="15"/>
-        <v>264.73356529708678</v>
+        <f t="shared" si="35"/>
+        <v>534.27987230240956</v>
       </c>
       <c r="KC15" s="3">
-        <f t="shared" si="15"/>
-        <v>262.08622964411592</v>
+        <f t="shared" si="35"/>
+        <v>528.93707357938547</v>
       </c>
       <c r="KD15" s="3">
-        <f t="shared" si="15"/>
-        <v>259.46536734767477</v>
+        <f t="shared" si="35"/>
+        <v>523.64770284359156</v>
       </c>
       <c r="KE15" s="3">
-        <f t="shared" si="15"/>
-        <v>256.87071367419804</v>
+        <f t="shared" si="35"/>
+        <v>518.4112258151556</v>
       </c>
       <c r="KF15" s="3">
-        <f t="shared" si="15"/>
-        <v>254.30200653745607</v>
+        <f t="shared" si="35"/>
+        <v>513.22711355700403</v>
       </c>
       <c r="KG15" s="3">
-        <f t="shared" si="15"/>
-        <v>251.75898647208152</v>
+        <f t="shared" si="35"/>
+        <v>508.09484242143401</v>
       </c>
       <c r="KH15" s="3">
-        <f t="shared" si="15"/>
-        <v>249.24139660736071</v>
+        <f t="shared" si="35"/>
+        <v>503.01389399721967</v>
       </c>
       <c r="KI15" s="3">
-        <f t="shared" si="15"/>
-        <v>246.74898264128711</v>
+        <f t="shared" si="35"/>
+        <v>497.98375505724749</v>
       </c>
       <c r="KJ15" s="3">
-        <f t="shared" si="15"/>
-        <v>244.28149281487424</v>
+        <f t="shared" si="35"/>
+        <v>493.00391750667501</v>
       </c>
       <c r="KK15" s="3">
-        <f t="shared" si="15"/>
-        <v>241.83867788672549</v>
+        <f t="shared" si="35"/>
+        <v>488.07387833160823</v>
       </c>
       <c r="KL15" s="3">
-        <f t="shared" ref="KL15:MW15" si="16">KK15*(1+$AS$28)</f>
-        <v>239.42029110785825</v>
+        <f t="shared" si="35"/>
+        <v>483.19313954829215</v>
       </c>
       <c r="KM15" s="3">
-        <f t="shared" si="16"/>
-        <v>237.02608819677965</v>
+        <f t="shared" si="35"/>
+        <v>478.36120815280924</v>
       </c>
       <c r="KN15" s="3">
-        <f t="shared" si="16"/>
-        <v>234.65582731481186</v>
+        <f t="shared" si="35"/>
+        <v>473.57759607128116</v>
       </c>
       <c r="KO15" s="3">
-        <f t="shared" si="16"/>
-        <v>232.30926904166373</v>
+        <f t="shared" si="35"/>
+        <v>468.84182011056834</v>
       </c>
       <c r="KP15" s="3">
-        <f t="shared" si="16"/>
-        <v>229.98617635124708</v>
+        <f t="shared" ref="KP15:NA15" si="36">KO15*(1+$AW$28)</f>
+        <v>464.15340190946267</v>
       </c>
       <c r="KQ15" s="3">
-        <f t="shared" si="16"/>
-        <v>227.68631458773461</v>
+        <f t="shared" si="36"/>
+        <v>459.51186789036802</v>
       </c>
       <c r="KR15" s="3">
-        <f t="shared" si="16"/>
-        <v>225.40945144185727</v>
+        <f t="shared" si="36"/>
+        <v>454.91674921146432</v>
       </c>
       <c r="KS15" s="3">
-        <f t="shared" si="16"/>
-        <v>223.1553569274387</v>
+        <f t="shared" si="36"/>
+        <v>450.36758171934969</v>
       </c>
       <c r="KT15" s="3">
-        <f t="shared" si="16"/>
-        <v>220.92380335816432</v>
+        <f t="shared" si="36"/>
+        <v>445.8639059021562</v>
       </c>
       <c r="KU15" s="3">
-        <f t="shared" si="16"/>
-        <v>218.71456532458268</v>
+        <f t="shared" si="36"/>
+        <v>441.40526684313465</v>
       </c>
       <c r="KV15" s="3">
-        <f t="shared" si="16"/>
-        <v>216.52741967133684</v>
+        <f t="shared" si="36"/>
+        <v>436.99121417470332</v>
       </c>
       <c r="KW15" s="3">
-        <f t="shared" si="16"/>
-        <v>214.36214547462347</v>
+        <f t="shared" si="36"/>
+        <v>432.62130203295629</v>
       </c>
       <c r="KX15" s="3">
-        <f t="shared" si="16"/>
-        <v>212.21852401987724</v>
+        <f t="shared" si="36"/>
+        <v>428.2950890126267</v>
       </c>
       <c r="KY15" s="3">
-        <f t="shared" si="16"/>
-        <v>210.09633877967846</v>
+        <f t="shared" si="36"/>
+        <v>424.01213812250046</v>
       </c>
       <c r="KZ15" s="3">
-        <f t="shared" si="16"/>
-        <v>207.99537539188168</v>
+        <f t="shared" si="36"/>
+        <v>419.77201674127548</v>
       </c>
       <c r="LA15" s="3">
-        <f t="shared" si="16"/>
-        <v>205.91542163796285</v>
+        <f t="shared" si="36"/>
+        <v>415.57429657386274</v>
       </c>
       <c r="LB15" s="3">
-        <f t="shared" si="16"/>
-        <v>203.85626742158323</v>
+        <f t="shared" si="36"/>
+        <v>411.41855360812411</v>
       </c>
       <c r="LC15" s="3">
-        <f t="shared" si="16"/>
-        <v>201.8177047473674</v>
+        <f t="shared" si="36"/>
+        <v>407.30436807204285</v>
       </c>
       <c r="LD15" s="3">
-        <f t="shared" si="16"/>
-        <v>199.79952769989373</v>
+        <f t="shared" si="36"/>
+        <v>403.2313243913224</v>
       </c>
       <c r="LE15" s="3">
-        <f t="shared" si="16"/>
-        <v>197.80153242289478</v>
+        <f t="shared" si="36"/>
+        <v>399.19901114740918</v>
       </c>
       <c r="LF15" s="3">
-        <f t="shared" si="16"/>
-        <v>195.82351709866583</v>
+        <f t="shared" si="36"/>
+        <v>395.2070210359351</v>
       </c>
       <c r="LG15" s="3">
-        <f t="shared" si="16"/>
-        <v>193.86528192767918</v>
+        <f t="shared" si="36"/>
+        <v>391.25495082557575</v>
       </c>
       <c r="LH15" s="3">
-        <f t="shared" si="16"/>
-        <v>191.92662910840238</v>
+        <f t="shared" si="36"/>
+        <v>387.34240131731997</v>
       </c>
       <c r="LI15" s="3">
-        <f t="shared" si="16"/>
-        <v>190.00736281731835</v>
+        <f t="shared" si="36"/>
+        <v>383.46897730414679</v>
       </c>
       <c r="LJ15" s="3">
-        <f t="shared" si="16"/>
-        <v>188.10728918914518</v>
+        <f t="shared" si="36"/>
+        <v>379.63428753110531</v>
       </c>
       <c r="LK15" s="3">
-        <f t="shared" si="16"/>
-        <v>186.22621629725373</v>
+        <f t="shared" si="36"/>
+        <v>375.83794465579427</v>
       </c>
       <c r="LL15" s="3">
-        <f t="shared" si="16"/>
-        <v>184.36395413428119</v>
+        <f t="shared" si="36"/>
+        <v>372.07956520923631</v>
       </c>
       <c r="LM15" s="3">
-        <f t="shared" si="16"/>
-        <v>182.52031459293838</v>
+        <f t="shared" si="36"/>
+        <v>368.35876955714394</v>
       </c>
       <c r="LN15" s="3">
-        <f t="shared" si="16"/>
-        <v>180.695111447009</v>
+        <f t="shared" si="36"/>
+        <v>364.67518186157253</v>
       </c>
       <c r="LO15" s="3">
-        <f t="shared" si="16"/>
-        <v>178.88816033253892</v>
+        <f t="shared" si="36"/>
+        <v>361.02843004295681</v>
       </c>
       <c r="LP15" s="3">
-        <f t="shared" si="16"/>
-        <v>177.09927872921352</v>
+        <f t="shared" si="36"/>
+        <v>357.41814574252726</v>
       </c>
       <c r="LQ15" s="3">
-        <f t="shared" si="16"/>
-        <v>175.32828594192139</v>
+        <f t="shared" si="36"/>
+        <v>353.843964285102</v>
       </c>
       <c r="LR15" s="3">
-        <f t="shared" si="16"/>
-        <v>173.57500308250218</v>
+        <f t="shared" si="36"/>
+        <v>350.30552464225099</v>
       </c>
       <c r="LS15" s="3">
-        <f t="shared" si="16"/>
-        <v>171.83925305167716</v>
+        <f t="shared" si="36"/>
+        <v>346.8024693958285</v>
       </c>
       <c r="LT15" s="3">
-        <f t="shared" si="16"/>
-        <v>170.12086052116038</v>
+        <f t="shared" si="36"/>
+        <v>343.33444470187021</v>
       </c>
       <c r="LU15" s="3">
-        <f t="shared" si="16"/>
-        <v>168.41965191594878</v>
+        <f t="shared" si="36"/>
+        <v>339.90110025485149</v>
       </c>
       <c r="LV15" s="3">
-        <f t="shared" si="16"/>
-        <v>166.73545539678929</v>
+        <f t="shared" si="36"/>
+        <v>336.50208925230299</v>
       </c>
       <c r="LW15" s="3">
-        <f t="shared" si="16"/>
-        <v>165.06810084282139</v>
+        <f t="shared" si="36"/>
+        <v>333.13706835977996</v>
       </c>
       <c r="LX15" s="3">
-        <f t="shared" si="16"/>
-        <v>163.41741983439317</v>
+        <f t="shared" si="36"/>
+        <v>329.80569767618215</v>
       </c>
       <c r="LY15" s="3">
-        <f t="shared" si="16"/>
-        <v>161.78324563604923</v>
+        <f t="shared" si="36"/>
+        <v>326.50764069942034</v>
       </c>
       <c r="LZ15" s="3">
-        <f t="shared" si="16"/>
-        <v>160.16541317968873</v>
+        <f t="shared" si="36"/>
+        <v>323.24256429242615</v>
       </c>
       <c r="MA15" s="3">
-        <f t="shared" si="16"/>
-        <v>158.56375904789184</v>
+        <f t="shared" si="36"/>
+        <v>320.01013864950187</v>
       </c>
       <c r="MB15" s="3">
-        <f t="shared" si="16"/>
-        <v>156.97812145741293</v>
+        <f t="shared" si="36"/>
+        <v>316.81003726300685</v>
       </c>
       <c r="MC15" s="3">
-        <f t="shared" si="16"/>
-        <v>155.40834024283879</v>
+        <f t="shared" si="36"/>
+        <v>313.64193689037677</v>
       </c>
       <c r="MD15" s="3">
-        <f t="shared" si="16"/>
-        <v>153.85425684041041</v>
+        <f t="shared" si="36"/>
+        <v>310.505517521473</v>
       </c>
       <c r="ME15" s="3">
-        <f t="shared" si="16"/>
-        <v>152.31571427200632</v>
+        <f t="shared" si="36"/>
+        <v>307.40046234625828</v>
       </c>
       <c r="MF15" s="3">
-        <f t="shared" si="16"/>
-        <v>150.79255712928625</v>
+        <f t="shared" si="36"/>
+        <v>304.32645772279568</v>
       </c>
       <c r="MG15" s="3">
-        <f t="shared" si="16"/>
-        <v>149.28463155799338</v>
+        <f t="shared" si="36"/>
+        <v>301.28319314556774</v>
       </c>
       <c r="MH15" s="3">
-        <f t="shared" si="16"/>
-        <v>147.79178524241345</v>
+        <f t="shared" si="36"/>
+        <v>298.27036121411203</v>
       </c>
       <c r="MI15" s="3">
-        <f t="shared" si="16"/>
-        <v>146.31386738998933</v>
+        <f t="shared" si="36"/>
+        <v>295.28765760197092</v>
       </c>
       <c r="MJ15" s="3">
-        <f t="shared" si="16"/>
-        <v>144.85072871608944</v>
+        <f t="shared" si="36"/>
+        <v>292.3347810259512</v>
       </c>
       <c r="MK15" s="3">
-        <f t="shared" si="16"/>
-        <v>143.40222142892853</v>
+        <f t="shared" si="36"/>
+        <v>289.41143321569166</v>
       </c>
       <c r="ML15" s="3">
-        <f t="shared" si="16"/>
-        <v>141.96819921463924</v>
+        <f t="shared" si="36"/>
+        <v>286.51731888353476</v>
       </c>
       <c r="MM15" s="3">
-        <f t="shared" si="16"/>
-        <v>140.54851722249285</v>
+        <f t="shared" si="36"/>
+        <v>283.65214569469941</v>
       </c>
       <c r="MN15" s="3">
-        <f t="shared" si="16"/>
-        <v>139.14303205026792</v>
+        <f t="shared" si="36"/>
+        <v>280.81562423775244</v>
       </c>
       <c r="MO15" s="3">
-        <f t="shared" si="16"/>
-        <v>137.75160172976524</v>
+        <f t="shared" si="36"/>
+        <v>278.0074679953749</v>
       </c>
       <c r="MP15" s="3">
-        <f t="shared" si="16"/>
-        <v>136.37408571246758</v>
+        <f t="shared" si="36"/>
+        <v>275.22739331542112</v>
       </c>
       <c r="MQ15" s="3">
-        <f t="shared" si="16"/>
-        <v>135.01034485534291</v>
+        <f t="shared" si="36"/>
+        <v>272.47511938226694</v>
       </c>
       <c r="MR15" s="3">
-        <f t="shared" si="16"/>
-        <v>133.66024140678948</v>
+        <f t="shared" si="36"/>
+        <v>269.75036818844427</v>
       </c>
       <c r="MS15" s="3">
-        <f t="shared" si="16"/>
-        <v>132.32363899272158</v>
+        <f t="shared" si="36"/>
+        <v>267.05286450655984</v>
       </c>
       <c r="MT15" s="3">
-        <f t="shared" si="16"/>
-        <v>131.00040260279437</v>
+        <f t="shared" si="36"/>
+        <v>264.38233586149425</v>
       </c>
       <c r="MU15" s="3">
-        <f t="shared" si="16"/>
-        <v>129.69039857676643</v>
+        <f t="shared" si="36"/>
+        <v>261.7385125028793</v>
       </c>
       <c r="MV15" s="3">
-        <f t="shared" si="16"/>
-        <v>128.39349459099876</v>
+        <f t="shared" si="36"/>
+        <v>259.12112737785048</v>
       </c>
       <c r="MW15" s="3">
-        <f t="shared" si="16"/>
-        <v>127.10955964508877</v>
+        <f t="shared" si="36"/>
+        <v>256.52991610407196</v>
       </c>
       <c r="MX15" s="3">
-        <f t="shared" ref="MX15:PI15" si="17">MW15*(1+$AS$28)</f>
-        <v>125.83846404863787</v>
+        <f t="shared" si="36"/>
+        <v>253.96461694303125</v>
       </c>
       <c r="MY15" s="3">
-        <f t="shared" si="17"/>
-        <v>124.58007940815149</v>
+        <f t="shared" si="36"/>
+        <v>251.42497077360093</v>
       </c>
       <c r="MZ15" s="3">
-        <f t="shared" si="17"/>
-        <v>123.33427861406997</v>
+        <f t="shared" si="36"/>
+        <v>248.91072106586492</v>
       </c>
       <c r="NA15" s="3">
-        <f t="shared" si="17"/>
-        <v>122.10093582792928</v>
+        <f t="shared" si="36"/>
+        <v>246.42161385520626</v>
       </c>
       <c r="NB15" s="3">
-        <f t="shared" si="17"/>
-        <v>120.87992646964999</v>
+        <f t="shared" ref="NB15:PM15" si="37">NA15*(1+$AW$28)</f>
+        <v>243.95739771665419</v>
       </c>
       <c r="NC15" s="3">
-        <f t="shared" si="17"/>
-        <v>119.67112720495349</v>
+        <f t="shared" si="37"/>
+        <v>241.51782373948765</v>
       </c>
       <c r="ND15" s="3">
-        <f t="shared" si="17"/>
-        <v>118.47441593290395</v>
+        <f t="shared" si="37"/>
+        <v>239.10264550209277</v>
       </c>
       <c r="NE15" s="3">
-        <f t="shared" si="17"/>
-        <v>117.28967177357491</v>
+        <f t="shared" si="37"/>
+        <v>236.71161904707185</v>
       </c>
       <c r="NF15" s="3">
-        <f t="shared" si="17"/>
-        <v>116.11677505583916</v>
+        <f t="shared" si="37"/>
+        <v>234.34450285660114</v>
       </c>
       <c r="NG15" s="3">
-        <f t="shared" si="17"/>
-        <v>114.95560730528076</v>
+        <f t="shared" si="37"/>
+        <v>232.00105782803513</v>
       </c>
       <c r="NH15" s="3">
-        <f t="shared" si="17"/>
-        <v>113.80605123222796</v>
+        <f t="shared" si="37"/>
+        <v>229.68104724975478</v>
       </c>
       <c r="NI15" s="3">
-        <f t="shared" si="17"/>
-        <v>112.66799071990567</v>
+        <f t="shared" si="37"/>
+        <v>227.38423677725723</v>
       </c>
       <c r="NJ15" s="3">
-        <f t="shared" si="17"/>
-        <v>111.54131081270661</v>
+        <f t="shared" si="37"/>
+        <v>225.11039440948466</v>
       </c>
       <c r="NK15" s="3">
-        <f t="shared" si="17"/>
-        <v>110.42589770457954</v>
+        <f t="shared" si="37"/>
+        <v>222.85929046538982</v>
       </c>
       <c r="NL15" s="3">
-        <f t="shared" si="17"/>
-        <v>109.32163872753374</v>
+        <f t="shared" si="37"/>
+        <v>220.63069756073591</v>
       </c>
       <c r="NM15" s="3">
-        <f t="shared" si="17"/>
-        <v>108.2284223402584</v>
+        <f t="shared" si="37"/>
+        <v>218.42439058512855</v>
       </c>
       <c r="NN15" s="3">
-        <f t="shared" si="17"/>
-        <v>107.14613811685582</v>
+        <f t="shared" si="37"/>
+        <v>216.24014667927727</v>
       </c>
       <c r="NO15" s="3">
-        <f t="shared" si="17"/>
-        <v>106.07467673568726</v>
+        <f t="shared" si="37"/>
+        <v>214.0777452124845</v>
       </c>
       <c r="NP15" s="3">
-        <f t="shared" si="17"/>
-        <v>105.01392996833039</v>
+        <f t="shared" si="37"/>
+        <v>211.93696776035966</v>
       </c>
       <c r="NQ15" s="3">
-        <f t="shared" si="17"/>
-        <v>103.96379066864708</v>
+        <f t="shared" si="37"/>
+        <v>209.81759808275606</v>
       </c>
       <c r="NR15" s="3">
-        <f t="shared" si="17"/>
-        <v>102.92415276196061</v>
+        <f t="shared" si="37"/>
+        <v>207.7194221019285</v>
       </c>
       <c r="NS15" s="3">
-        <f t="shared" si="17"/>
-        <v>101.89491123434101</v>
+        <f t="shared" si="37"/>
+        <v>205.64222788090922</v>
       </c>
       <c r="NT15" s="3">
-        <f t="shared" si="17"/>
-        <v>100.8759621219976</v>
+        <f t="shared" si="37"/>
+        <v>203.58580560210012</v>
       </c>
       <c r="NU15" s="3">
-        <f t="shared" si="17"/>
-        <v>99.867202500777623</v>
+        <f t="shared" si="37"/>
+        <v>201.54994754607912</v>
       </c>
       <c r="NV15" s="3">
-        <f t="shared" si="17"/>
-        <v>98.868530475769845</v>
+        <f t="shared" si="37"/>
+        <v>199.53444807061834</v>
       </c>
       <c r="NW15" s="3">
-        <f t="shared" si="17"/>
-        <v>97.87984517101215</v>
+        <f t="shared" si="37"/>
+        <v>197.53910358991214</v>
       </c>
       <c r="NX15" s="3">
-        <f t="shared" si="17"/>
-        <v>96.90104671930203</v>
+        <f t="shared" si="37"/>
+        <v>195.56371255401302</v>
       </c>
       <c r="NY15" s="3">
-        <f t="shared" si="17"/>
-        <v>95.932036252109015</v>
+        <f t="shared" si="37"/>
+        <v>193.60807542847289</v>
       </c>
       <c r="NZ15" s="3">
-        <f t="shared" si="17"/>
-        <v>94.972715889587917</v>
+        <f t="shared" si="37"/>
+        <v>191.67199467418817</v>
       </c>
       <c r="OA15" s="3">
-        <f t="shared" si="17"/>
-        <v>94.022988730692035</v>
+        <f t="shared" si="37"/>
+        <v>189.75527472744628</v>
       </c>
       <c r="OB15" s="3">
-        <f t="shared" si="17"/>
-        <v>93.082758843385108</v>
+        <f t="shared" si="37"/>
+        <v>187.85772198017182</v>
       </c>
       <c r="OC15" s="3">
-        <f t="shared" si="17"/>
-        <v>92.151931254951251</v>
+        <f t="shared" si="37"/>
+        <v>185.9791447603701</v>
       </c>
       <c r="OD15" s="3">
-        <f t="shared" si="17"/>
-        <v>91.230411942401744</v>
+        <f t="shared" si="37"/>
+        <v>184.11935331276641</v>
       </c>
       <c r="OE15" s="3">
-        <f t="shared" si="17"/>
-        <v>90.318107822977723</v>
+        <f t="shared" si="37"/>
+        <v>182.27815977963874</v>
       </c>
       <c r="OF15" s="3">
-        <f t="shared" si="17"/>
-        <v>89.414926744747945</v>
+        <f t="shared" si="37"/>
+        <v>180.45537818184235</v>
       </c>
       <c r="OG15" s="3">
-        <f t="shared" si="17"/>
-        <v>88.52077747730047</v>
+        <f t="shared" si="37"/>
+        <v>178.65082440002394</v>
       </c>
       <c r="OH15" s="3">
-        <f t="shared" si="17"/>
-        <v>87.635569702527462</v>
+        <f t="shared" si="37"/>
+        <v>176.8643161560237</v>
       </c>
       <c r="OI15" s="3">
-        <f t="shared" si="17"/>
-        <v>86.759214005502187</v>
+        <f t="shared" si="37"/>
+        <v>175.09567299446346</v>
       </c>
       <c r="OJ15" s="3">
-        <f t="shared" si="17"/>
-        <v>85.891621865447163</v>
+        <f t="shared" si="37"/>
+        <v>173.34471626451881</v>
       </c>
       <c r="OK15" s="3">
-        <f t="shared" si="17"/>
-        <v>85.032705646792692</v>
+        <f t="shared" si="37"/>
+        <v>171.61126910187363</v>
       </c>
       <c r="OL15" s="3">
-        <f t="shared" si="17"/>
-        <v>84.18237859032476</v>
+        <f t="shared" si="37"/>
+        <v>169.8951564108549</v>
       </c>
       <c r="OM15" s="3">
-        <f t="shared" si="17"/>
-        <v>83.340554804421515</v>
+        <f t="shared" si="37"/>
+        <v>168.19620484674635</v>
       </c>
       <c r="ON15" s="3">
-        <f t="shared" si="17"/>
-        <v>82.507149256377303</v>
+        <f t="shared" si="37"/>
+        <v>166.5142427982789</v>
       </c>
       <c r="OO15" s="3">
-        <f t="shared" si="17"/>
-        <v>81.682077763813524</v>
+        <f t="shared" si="37"/>
+        <v>164.8491003702961</v>
       </c>
       <c r="OP15" s="3">
-        <f t="shared" si="17"/>
-        <v>80.865256986175382</v>
+        <f t="shared" si="37"/>
+        <v>163.20060936659314</v>
       </c>
       <c r="OQ15" s="3">
-        <f t="shared" si="17"/>
-        <v>80.056604416313633</v>
+        <f t="shared" si="37"/>
+        <v>161.56860327292722</v>
       </c>
       <c r="OR15" s="3">
-        <f t="shared" si="17"/>
-        <v>79.256038372150499</v>
+        <f t="shared" si="37"/>
+        <v>159.95291724019793</v>
       </c>
       <c r="OS15" s="3">
-        <f t="shared" si="17"/>
-        <v>78.463477988428991</v>
+        <f t="shared" si="37"/>
+        <v>158.35338806779595</v>
       </c>
       <c r="OT15" s="3">
-        <f t="shared" si="17"/>
-        <v>77.678843208544706</v>
+        <f t="shared" si="37"/>
+        <v>156.769854187118</v>
       </c>
       <c r="OU15" s="3">
-        <f t="shared" si="17"/>
-        <v>76.902054776459252</v>
+        <f t="shared" si="37"/>
+        <v>155.20215564524682</v>
       </c>
       <c r="OV15" s="3">
-        <f t="shared" si="17"/>
-        <v>76.133034228694655</v>
+        <f t="shared" si="37"/>
+        <v>153.65013408879435</v>
       </c>
       <c r="OW15" s="3">
-        <f t="shared" si="17"/>
-        <v>75.371703886407701</v>
+        <f t="shared" si="37"/>
+        <v>152.11363274790639</v>
       </c>
       <c r="OX15" s="3">
-        <f t="shared" si="17"/>
-        <v>74.617986847543619</v>
+        <f t="shared" si="37"/>
+        <v>150.59249642042732</v>
       </c>
       <c r="OY15" s="3">
-        <f t="shared" si="17"/>
-        <v>73.871806979068182</v>
+        <f t="shared" si="37"/>
+        <v>149.08657145622306</v>
       </c>
       <c r="OZ15" s="3">
-        <f t="shared" si="17"/>
-        <v>73.133088909277504</v>
+        <f t="shared" si="37"/>
+        <v>147.59570574166082</v>
       </c>
       <c r="PA15" s="3">
-        <f t="shared" si="17"/>
-        <v>72.40175802018473</v>
+        <f t="shared" si="37"/>
+        <v>146.1197486842442</v>
       </c>
       <c r="PB15" s="3">
-        <f t="shared" si="17"/>
-        <v>71.677740439982884</v>
+        <f t="shared" si="37"/>
+        <v>144.65855119740175</v>
       </c>
       <c r="PC15" s="3">
-        <f t="shared" si="17"/>
-        <v>70.960963035583049</v>
+        <f t="shared" si="37"/>
+        <v>143.21196568542774</v>
       </c>
       <c r="PD15" s="3">
-        <f t="shared" si="17"/>
-        <v>70.251353405227221</v>
+        <f t="shared" si="37"/>
+        <v>141.77984602857347</v>
       </c>
       <c r="PE15" s="3">
-        <f t="shared" si="17"/>
-        <v>69.548839871174948</v>
+        <f t="shared" si="37"/>
+        <v>140.36204756828775</v>
       </c>
       <c r="PF15" s="3">
-        <f t="shared" si="17"/>
-        <v>68.853351472463203</v>
+        <f t="shared" si="37"/>
+        <v>138.95842709260486</v>
       </c>
       <c r="PG15" s="3">
-        <f t="shared" si="17"/>
-        <v>68.164817957738563</v>
+        <f t="shared" si="37"/>
+        <v>137.56884282167883</v>
       </c>
       <c r="PH15" s="3">
-        <f t="shared" si="17"/>
-        <v>67.483169778161184</v>
+        <f t="shared" si="37"/>
+        <v>136.19315439346204</v>
       </c>
       <c r="PI15" s="3">
-        <f t="shared" si="17"/>
-        <v>66.808338080379571</v>
+        <f t="shared" si="37"/>
+        <v>134.83122284952742</v>
       </c>
       <c r="PJ15" s="3">
-        <f t="shared" ref="PJ15:QA15" si="18">PI15*(1+$AS$28)</f>
-        <v>66.140254699575777</v>
+        <f t="shared" si="37"/>
+        <v>133.48291062103215</v>
       </c>
       <c r="PK15" s="3">
-        <f t="shared" si="18"/>
-        <v>65.478852152580018</v>
+        <f t="shared" si="37"/>
+        <v>132.14808151482183</v>
       </c>
       <c r="PL15" s="3">
-        <f t="shared" si="18"/>
-        <v>64.824063631054216</v>
+        <f t="shared" si="37"/>
+        <v>130.82660069967361</v>
       </c>
       <c r="PM15" s="3">
-        <f t="shared" si="18"/>
-        <v>64.175822994743669</v>
+        <f t="shared" si="37"/>
+        <v>129.51833469267686</v>
       </c>
       <c r="PN15" s="3">
-        <f t="shared" si="18"/>
-        <v>63.534064764796234</v>
+        <f t="shared" ref="PN15:QE15" si="38">PM15*(1+$AW$28)</f>
+        <v>128.2231513457501</v>
       </c>
       <c r="PO15" s="3">
-        <f t="shared" si="18"/>
-        <v>62.898724117148269</v>
+        <f t="shared" si="38"/>
+        <v>126.94091983229259</v>
       </c>
       <c r="PP15" s="3">
-        <f t="shared" si="18"/>
-        <v>62.269736875976783</v>
+        <f t="shared" si="38"/>
+        <v>125.67151063396966</v>
       </c>
       <c r="PQ15" s="3">
-        <f t="shared" si="18"/>
-        <v>61.647039507217016</v>
+        <f t="shared" si="38"/>
+        <v>124.41479552762996</v>
       </c>
       <c r="PR15" s="3">
-        <f t="shared" si="18"/>
-        <v>61.030569112144846</v>
+        <f t="shared" si="38"/>
+        <v>123.17064757235366</v>
       </c>
       <c r="PS15" s="3">
-        <f t="shared" si="18"/>
-        <v>60.4202634210234</v>
+        <f t="shared" si="38"/>
+        <v>121.93894109663012</v>
       </c>
       <c r="PT15" s="3">
-        <f t="shared" si="18"/>
-        <v>59.816060786813168</v>
+        <f t="shared" si="38"/>
+        <v>120.71955168566382</v>
       </c>
       <c r="PU15" s="3">
-        <f t="shared" si="18"/>
-        <v>59.217900178945037</v>
+        <f t="shared" si="38"/>
+        <v>119.51235616880717</v>
       </c>
       <c r="PV15" s="3">
-        <f t="shared" si="18"/>
-        <v>58.625721177155583</v>
+        <f t="shared" si="38"/>
+        <v>118.3172326071191</v>
       </c>
       <c r="PW15" s="3">
-        <f t="shared" si="18"/>
-        <v>58.03946396538403</v>
+        <f t="shared" si="38"/>
+        <v>117.13406028104791</v>
       </c>
       <c r="PX15" s="3">
-        <f t="shared" si="18"/>
-        <v>57.459069325730191</v>
+        <f t="shared" si="38"/>
+        <v>115.96271967823743</v>
       </c>
       <c r="PY15" s="3">
-        <f t="shared" si="18"/>
-        <v>56.884478632472891</v>
+        <f t="shared" si="38"/>
+        <v>114.80309248145505</v>
       </c>
       <c r="PZ15" s="3">
-        <f t="shared" si="18"/>
-        <v>56.31563384614816</v>
+        <f t="shared" si="38"/>
+        <v>113.6550615566405</v>
       </c>
       <c r="QA15" s="3">
-        <f t="shared" si="18"/>
-        <v>55.752477507686677</v>
+        <f t="shared" si="38"/>
+        <v>112.5185109410741</v>
+      </c>
+      <c r="QB15" s="3">
+        <f t="shared" si="38"/>
+        <v>111.39332583166336</v>
+      </c>
+      <c r="QC15" s="3">
+        <f t="shared" si="38"/>
+        <v>110.27939257334673</v>
+      </c>
+      <c r="QD15" s="3">
+        <f t="shared" si="38"/>
+        <v>109.17659864761326</v>
+      </c>
+      <c r="QE15" s="3">
+        <f t="shared" si="38"/>
+        <v>108.08483266113713</v>
       </c>
     </row>
-    <row r="16" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:447" x14ac:dyDescent="0.2">
       <c r="C16"/>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:V17" si="19">C15/C18</f>
+        <f t="shared" ref="C17:V17" si="39">C15/C18</f>
         <v>-5.7851239669421489E-2</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-3.2520325203252036E-2</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-3.968253968253968E-2</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.1328125</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.2265625</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.14615384615384616</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.36641221374045801</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.41353383458646614</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.50370370370370365</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.43382352941176472</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.57971014492753625</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.64479856115107914</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.70405693950177972</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.70921985815602839</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.66901408450704225</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.46853146853146854</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.39995833333333297</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="39"/>
         <v>-0.2620689655172414</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="19"/>
-        <v>-0.13717948717948716</v>
+        <f t="shared" si="39"/>
+        <v>-0.21510958904109589</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" ref="W17:Z17" si="40">W15/W18</f>
+        <v>-0.23129251700680273</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="40"/>
+        <v>-0.15748683748683762</v>
+      </c>
+      <c r="Y17" s="6">
+        <f t="shared" si="40"/>
+        <v>-0.1132990499433451</v>
       </c>
       <c r="Z17" s="6">
-        <f>Z15/Z18</f>
-        <v>-0.23387096774193547</v>
-      </c>
-      <c r="AA17" s="6">
-        <f>AA15/AA18</f>
-        <v>-0.89922480620155043</v>
-      </c>
-      <c r="AB17" s="6">
-        <f>AB15/AB18</f>
-        <v>-1.9338235294117647</v>
-      </c>
-      <c r="AC17" s="6">
-        <f>AC15/AC18</f>
-        <v>-2.7375886524822697</v>
+        <f t="shared" si="40"/>
+        <v>-9.509264069264084E-2</v>
       </c>
       <c r="AD17" s="6">
         <f>AD15/AD18</f>
-        <v>-1.1794487179487176</v>
+        <v>-0.23387096774193547</v>
+      </c>
+      <c r="AE17" s="6">
+        <f>AE15/AE18</f>
+        <v>-0.89922480620155043</v>
+      </c>
+      <c r="AF17" s="6">
+        <f>AF15/AF18</f>
+        <v>-1.9338235294117647</v>
+      </c>
+      <c r="AG17" s="6">
+        <f>AG15/AG18</f>
+        <v>-2.7375886524822697</v>
+      </c>
+      <c r="AH17" s="6">
+        <f>AH15/AH18</f>
+        <v>-1.3472222222222223</v>
+      </c>
+      <c r="AI17" s="6">
+        <f>AI15/AI18</f>
+        <v>-0.44042337662337683</v>
+      </c>
+      <c r="AJ17" s="6">
+        <f t="shared" ref="AJ17:AR17" si="41">AJ15/AJ18</f>
+        <v>0.65264919354838868</v>
+      </c>
+      <c r="AK17" s="6">
+        <f t="shared" si="41"/>
+        <v>1.7472845703125011</v>
+      </c>
+      <c r="AL17" s="6">
+        <f t="shared" si="41"/>
+        <v>3.1959022821969731</v>
+      </c>
+      <c r="AM17" s="6">
+        <f t="shared" si="41"/>
+        <v>5.0916241328125036</v>
+      </c>
+      <c r="AN17" s="6">
+        <f t="shared" si="41"/>
+        <v>8.2933173897544687</v>
+      </c>
+      <c r="AO17" s="6">
+        <f t="shared" si="41"/>
+        <v>12.341626754467233</v>
+      </c>
+      <c r="AP17" s="6">
+        <f t="shared" si="41"/>
+        <v>17.437910592205924</v>
+      </c>
+      <c r="AQ17" s="6">
+        <f t="shared" si="41"/>
+        <v>23.83009520802851</v>
+      </c>
+      <c r="AR17" s="6">
+        <f t="shared" si="41"/>
+        <v>31.823410455649253</v>
       </c>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -6285,25 +7979,81 @@
         <v>145</v>
       </c>
       <c r="V18">
-        <v>156</v>
+        <f>U18+1</f>
+        <v>146</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:Z18" si="42">V18+1</f>
+        <v>147</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="42"/>
+        <v>148</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="42"/>
+        <v>149</v>
       </c>
       <c r="Z18">
+        <f t="shared" si="42"/>
+        <v>150</v>
+      </c>
+      <c r="AD18">
         <v>124</v>
       </c>
-      <c r="AA18">
+      <c r="AE18">
         <v>129</v>
       </c>
-      <c r="AB18">
+      <c r="AF18">
         <v>136</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>141</v>
       </c>
-      <c r="AD18">
-        <v>156</v>
+      <c r="AH18">
+        <v>144</v>
+      </c>
+      <c r="AI18">
+        <v>150</v>
+      </c>
+      <c r="AJ18">
+        <f>AI18+5</f>
+        <v>155</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" ref="AK18:AR18" si="43">AJ18+5</f>
+        <v>160</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="43"/>
+        <v>165</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="43"/>
+        <v>170</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="43"/>
+        <v>175</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="43"/>
+        <v>180</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="43"/>
+        <v>185</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="43"/>
+        <v>190</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="43"/>
+        <v>195</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -6312,123 +8062,139 @@
         <v>0.49206349206349209</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" ref="H21:V21" si="20">H4/D4-1</f>
+        <f t="shared" ref="H21:W21" si="44">H4/D4-1</f>
         <v>0.36486486486486491</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.40506329113924044</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.46511627906976738</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.52127659574468077</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.5544554455445545</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.5855855855855856</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.56349206349206349</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.62778980891719738</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.63068181818181812</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.6142131979695431</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.54112554112554112</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.51664364559815001</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.45993031358885017</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="20"/>
-        <v>0.35220125786163514</v>
-      </c>
-      <c r="AA21" s="18">
-        <f t="shared" ref="AA21:AB21" si="21">AA4/Z4-1</f>
+        <f t="shared" si="44"/>
+        <v>0.42579245283018885</v>
+      </c>
+      <c r="W21" s="18">
+        <f t="shared" si="44"/>
+        <v>0.39325842696629221</v>
+      </c>
+      <c r="X21" s="18">
+        <f t="shared" ref="X21:X22" si="45">X4/T4-1</f>
+        <v>0.3028962997745086</v>
+      </c>
+      <c r="Y21" s="18">
+        <f t="shared" ref="Y21:Y22" si="46">Y4/U4-1</f>
+        <v>0.24105011933174225</v>
+      </c>
+      <c r="Z21" s="18">
+        <f t="shared" ref="Z21:Z22" si="47">Z4/V4-1</f>
+        <v>0.1689405869405074</v>
+      </c>
+      <c r="AE21" s="18">
+        <f t="shared" ref="AE21:AF21" si="48">AE4/AD4-1</f>
         <v>0.42244224422442245</v>
       </c>
-      <c r="AB21" s="18">
-        <f t="shared" si="21"/>
+      <c r="AF21" s="18">
+        <f t="shared" si="48"/>
         <v>0.56148491879350337</v>
       </c>
-      <c r="AC21" s="18">
-        <f>AC4/AB4-1</f>
+      <c r="AG21" s="18">
+        <f>AG4/AF4-1</f>
         <v>0.6210995542347697</v>
       </c>
-      <c r="AD21" s="18">
-        <f>AD4/AC4-1</f>
-        <v>0.45921173235563706</v>
-      </c>
-      <c r="AE21" s="18">
-        <f t="shared" ref="AE21:AN21" si="22">AE4/AD4-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="AF21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="AG21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
-      </c>
       <c r="AH21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000031</v>
+        <f>AH4/AG4-1</f>
+        <v>0.48120989917506884</v>
       </c>
       <c r="AI21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" ref="AI21:AR21" si="49">AI4/AH4-1</f>
+        <v>0.26918316831683176</v>
       </c>
       <c r="AJ21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="49"/>
+        <v>0.25</v>
       </c>
       <c r="AK21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="49"/>
+        <v>0.25</v>
       </c>
       <c r="AL21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="49"/>
+        <v>0.25</v>
       </c>
       <c r="AM21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="49"/>
+        <v>0.25</v>
       </c>
       <c r="AN21" s="18">
-        <f t="shared" si="22"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="49"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO21" s="18">
+        <f t="shared" si="49"/>
+        <v>0.25</v>
+      </c>
+      <c r="AP21" s="18">
+        <f t="shared" si="49"/>
+        <v>0.25</v>
+      </c>
+      <c r="AQ21" s="18">
+        <f t="shared" si="49"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR21" s="18">
+        <f t="shared" si="49"/>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>71</v>
       </c>
@@ -6437,69 +8203,81 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" ref="H22:V22" si="23">H5/D5-1</f>
+        <f t="shared" ref="H22:W22" si="50">H5/D5-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="J22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.7</v>
       </c>
       <c r="M22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="N22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.45161290322580649</v>
       </c>
       <c r="O22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.625</v>
       </c>
       <c r="P22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.69950000000000001</v>
       </c>
       <c r="Q22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.64102564102564097</v>
       </c>
       <c r="R22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="S22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.48076923076923084</v>
       </c>
       <c r="T22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.51608604606891295</v>
       </c>
       <c r="U22" s="18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
       <c r="V22" s="18">
-        <f t="shared" si="23"/>
-        <v>0.39117647058823479</v>
-      </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
+        <f t="shared" si="50"/>
+        <v>0.505823529411765</v>
+      </c>
+      <c r="W22" s="18">
+        <f t="shared" si="50"/>
+        <v>0.44155844155844148</v>
+      </c>
+      <c r="X22" s="18">
+        <f t="shared" si="45"/>
+        <v>0.26820693119035655</v>
+      </c>
+      <c r="Y22" s="18">
+        <f t="shared" si="46"/>
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="Z22" s="18">
+        <f t="shared" si="47"/>
+        <v>0.13871635610766031</v>
+      </c>
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
@@ -6510,8 +8288,12 @@
       <c r="AL22" s="18"/>
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>72</v>
       </c>
@@ -6520,66 +8302,81 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" ref="H23:V23" si="24">H10/D10-1</f>
+        <f t="shared" ref="H23:W23" si="51">H10/D10-1</f>
         <v>0.75</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.38961038961038952</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.82894736842105265</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.67391304347826098</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.58035714285714279</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.7009345794392523</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.56834532374100721</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.64285714285714279</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.58813559322033915</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.70329670329670324</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.52293577981651373</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.37549407114624511</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.29929562433297741</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
+      <c r="V23" s="18">
+        <f t="shared" si="51"/>
+        <v>0.19207228915662666</v>
+      </c>
+      <c r="W23" s="18">
+        <f t="shared" si="51"/>
+        <v>0.24137931034482762</v>
+      </c>
+      <c r="X23" s="18">
+        <f t="shared" ref="X23" si="52">X10/T10-1</f>
+        <v>0.18280983046392429</v>
+      </c>
+      <c r="Y23" s="18">
+        <f t="shared" ref="Y23" si="53">Y10/U10-1</f>
+        <v>0.18010752688172049</v>
+      </c>
+      <c r="Z23" s="18">
+        <f t="shared" ref="Z23" si="54">Z10/V10-1</f>
+        <v>0.12692284368619999</v>
+      </c>
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
       <c r="AG23" s="18"/>
@@ -6590,8 +8387,12 @@
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
       <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.2">
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -6608,10 +8409,10 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
       <c r="AE24" s="18"/>
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
@@ -6622,25 +8423,29 @@
       <c r="AL24" s="18"/>
       <c r="AM24" s="18"/>
       <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" ref="C25:F25" si="25">C6/C4</f>
+        <f t="shared" ref="C25:F25" si="55">C6/C4</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="55"/>
         <v>0.79729729729729726</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="55"/>
         <v>0.810126582278481</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="55"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="G25" s="18">
@@ -6648,123 +8453,139 @@
         <v>0.78723404255319152</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" ref="H25:T25" si="26">H6/H4</f>
+        <f t="shared" ref="H25:T25" si="56">H6/H4</f>
         <v>0.80198019801980203</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77477477477477474</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.75396825396825395</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77622377622377625</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.78343949044585992</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77840909090909094</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77157360406091369</v>
       </c>
       <c r="O25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77489177489177485</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77389919511040328</v>
       </c>
       <c r="Q25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77700348432055744</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.78616352201257866</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.7837078651685393</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="56"/>
         <v>0.77398232189020588</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" ref="U25:V25" si="27">U6/U4</f>
+        <f t="shared" ref="U25:V25" si="57">U6/U4</f>
         <v>0.77088305489260145</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="57"/>
+        <v>0.7741606786030939</v>
+      </c>
+      <c r="W25" s="18">
+        <f t="shared" ref="W25:Z25" si="58">W6/W4</f>
+        <v>0.77620967741935487</v>
+      </c>
+      <c r="X25" s="18">
+        <f t="shared" si="58"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="Y25" s="18">
+        <f t="shared" si="58"/>
         <v>0.78</v>
       </c>
-      <c r="AA25" s="18">
-        <f t="shared" ref="AA25:AC25" si="28">AA6/AA4</f>
+      <c r="Z25" s="18">
+        <f t="shared" si="58"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="AE25" s="18">
+        <f t="shared" ref="AE25:AG25" si="59">AE6/AE4</f>
         <v>0.77726218097447797</v>
       </c>
-      <c r="AB25" s="18">
-        <f t="shared" si="28"/>
+      <c r="AF25" s="18">
+        <f t="shared" si="59"/>
         <v>0.77711738484398218</v>
       </c>
-      <c r="AC25" s="18">
-        <f t="shared" si="28"/>
+      <c r="AG25" s="18">
+        <f t="shared" si="59"/>
         <v>0.77818515123739684</v>
       </c>
-      <c r="AD25" s="18">
-        <f t="shared" ref="AD25:AN25" si="29">AD6/AD4</f>
-        <v>0.77725753768844219</v>
-      </c>
-      <c r="AE25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AH25" s="18">
+        <f t="shared" ref="AH25:AR25" si="60">AH6/AH4</f>
+        <v>0.77537128712871284</v>
+      </c>
+      <c r="AI25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AF25" s="18">
-        <f t="shared" si="29"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AG25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AJ25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AH25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AK25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AI25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AL25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AJ25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AM25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AK25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AN25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AL25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AO25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AM25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AP25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AN25" s="18">
-        <f t="shared" si="29"/>
+      <c r="AQ25" s="18">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
+      <c r="AR25" s="18">
+        <f t="shared" si="60"/>
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -6773,139 +8594,155 @@
         <v>-0.14285714285714285</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:T26" si="30">D11/D4</f>
+        <f t="shared" ref="D26:T26" si="61">D11/D4</f>
         <v>-6.7567567567567571E-2</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.16455696202531644</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-8.1395348837209308E-2</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.19148936170212766</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.30693069306930693</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.1891891891891892</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.34920634920634919</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.30069930069930068</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.34394904458598724</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.25568181818181818</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.3350253807106599</v>
       </c>
       <c r="O26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.32034632034632032</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.3260252853503835</v>
       </c>
       <c r="Q26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.30313588850174217</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.25786163522012578</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.19382022471910113</v>
       </c>
       <c r="T26" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="61"/>
         <v>-0.1683135619894838</v>
       </c>
       <c r="U26" s="18">
-        <f t="shared" ref="U26:V26" si="31">U11/U4</f>
+        <f t="shared" ref="U26:V26" si="62">U11/U4</f>
         <v>-0.11694510739856802</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="31"/>
-        <v>-0.08</v>
-      </c>
-      <c r="AA26" s="18">
-        <f t="shared" ref="AA26:AC26" si="32">AA11/AA4</f>
+        <f t="shared" si="62"/>
+        <v>-9.8724751986096218E-2</v>
+      </c>
+      <c r="W26" s="18">
+        <f t="shared" ref="W26:Z26" si="63">W11/W4</f>
+        <v>-9.4758064516129031E-2</v>
+      </c>
+      <c r="X26" s="18">
+        <f t="shared" si="63"/>
+        <v>-7.5445544554455485E-2</v>
+      </c>
+      <c r="Y26" s="18">
+        <f t="shared" si="63"/>
+        <v>-6.4230769230769189E-2</v>
+      </c>
+      <c r="Z26" s="18">
+        <f t="shared" si="63"/>
+        <v>-6.1509433962264194E-2</v>
+      </c>
+      <c r="AE26" s="18">
+        <f t="shared" ref="AE26:AG26" si="64">AE11/AE4</f>
         <v>-0.26682134570765659</v>
       </c>
-      <c r="AB26" s="18">
-        <f t="shared" si="32"/>
+      <c r="AF26" s="18">
+        <f t="shared" si="64"/>
         <v>-0.30906389301634474</v>
       </c>
-      <c r="AC26" s="18">
-        <f t="shared" si="32"/>
+      <c r="AG26" s="18">
+        <f t="shared" si="64"/>
         <v>-0.29972502291475711</v>
       </c>
-      <c r="AD26" s="18">
-        <f t="shared" ref="AD26:AN26" si="33">AD11/AD4</f>
-        <v>-0.13670728643216076</v>
-      </c>
-      <c r="AE26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
       <c r="AH26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" ref="AH26:AR26" si="65">AH11/AH4</f>
+        <v>-0.14108910891089108</v>
       </c>
       <c r="AI26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>-6.2754753778644576E-2</v>
       </c>
       <c r="AJ26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>5.4656265236471078E-3</v>
       </c>
       <c r="AK26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>6.8228376401755303E-2</v>
       </c>
       <c r="AL26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>0.12597010628961497</v>
       </c>
       <c r="AM26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>0.17909249778644579</v>
       </c>
       <c r="AN26" s="18">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="65"/>
+        <v>0.25240139805207223</v>
+      </c>
+      <c r="AO26" s="18">
+        <f t="shared" si="65"/>
+        <v>0.31691323028582352</v>
+      </c>
+      <c r="AP26" s="18">
+        <f t="shared" si="65"/>
+        <v>0.37368364265152465</v>
+      </c>
+      <c r="AQ26" s="18">
+        <f t="shared" si="65"/>
+        <v>0.42364160553334168</v>
+      </c>
+      <c r="AR26" s="18">
+        <f t="shared" si="65"/>
+        <v>0.46760461286934069</v>
       </c>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -6914,153 +8751,169 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:T27" si="34">D15/D4</f>
+        <f t="shared" ref="D27:T27" si="66">D15/D4</f>
         <v>-5.4054054054054057E-2</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.15189873417721519</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-5.8139534883720929E-2</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.18085106382978725</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.28712871287128711</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.17117117117117117</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.38095238095238093</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.38461538461538464</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.43312101910828027</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.33522727272727271</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.40609137055837563</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.38799567099567095</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.38706698543998957</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.34843205574912894</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.29874213836477986</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.18820224719101122</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="66"/>
         <v>-0.14859209799844153</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:V27" si="35">U15/U4</f>
+        <f t="shared" ref="U27:V27" si="67">U15/U4</f>
         <v>-9.0692124105011929E-2</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="35"/>
-        <v>-4.9767441860465111E-2</v>
-      </c>
-      <c r="AA27" s="18">
-        <f t="shared" ref="AA27:AC27" si="36">AA15/AA4</f>
+        <f t="shared" si="67"/>
+        <v>-6.9267449195195424E-2</v>
+      </c>
+      <c r="W27" s="18">
+        <f t="shared" ref="W27:Z27" si="68">W15/W4</f>
+        <v>-6.8548387096774188E-2</v>
+      </c>
+      <c r="X27" s="18">
+        <f t="shared" si="68"/>
+        <v>-4.6154558312974193E-2</v>
+      </c>
+      <c r="Y27" s="18">
+        <f t="shared" si="68"/>
+        <v>-3.246453546453542E-2</v>
+      </c>
+      <c r="Z27" s="18">
+        <f t="shared" si="68"/>
+        <v>-2.6913011516785143E-2</v>
+      </c>
+      <c r="AE27" s="18">
+        <f t="shared" ref="AE27:AG27" si="69">AE15/AE4</f>
         <v>-0.26914153132250579</v>
       </c>
-      <c r="AB27" s="18">
-        <f t="shared" si="36"/>
+      <c r="AF27" s="18">
+        <f t="shared" si="69"/>
         <v>-0.39078751857355126</v>
       </c>
-      <c r="AC27" s="18">
-        <f t="shared" si="36"/>
+      <c r="AG27" s="18">
+        <f t="shared" si="69"/>
         <v>-0.35380384967919343</v>
       </c>
-      <c r="AD27" s="18">
-        <f t="shared" ref="AD27:AN27" si="37">AD15/AD4</f>
-        <v>-0.11557412060301504</v>
-      </c>
-      <c r="AE27" s="18">
-        <f t="shared" si="37"/>
-        <v>2.9999999999999995E-2</v>
-      </c>
-      <c r="AF27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.05</v>
-      </c>
-      <c r="AG27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.06</v>
-      </c>
       <c r="AH27" s="18">
-        <f t="shared" si="37"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ref="AH27:AR27" si="70">AH15/AH4</f>
+        <v>-0.12004950495049505</v>
       </c>
       <c r="AI27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.08</v>
+        <f t="shared" si="70"/>
+        <v>-3.2210388343981725E-2</v>
       </c>
       <c r="AJ27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
+        <f t="shared" si="70"/>
+        <v>3.9458069234519839E-2</v>
       </c>
       <c r="AK27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
+        <f t="shared" si="70"/>
+        <v>8.7236440760604633E-2</v>
       </c>
       <c r="AL27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
+        <f t="shared" si="70"/>
+        <v>0.13163813983422734</v>
       </c>
       <c r="AM27" s="18">
-        <f t="shared" si="37"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="70"/>
+        <v>0.17286200468844479</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" si="37"/>
-        <v>0.1</v>
-      </c>
-      <c r="AR27" t="s">
+        <f t="shared" si="70"/>
+        <v>0.23187322886303277</v>
+      </c>
+      <c r="AO27" s="18">
+        <f t="shared" si="70"/>
+        <v>0.28393515977871797</v>
+      </c>
+      <c r="AP27" s="18">
+        <f t="shared" si="70"/>
+        <v>0.32986058404384105</v>
+      </c>
+      <c r="AQ27" s="18">
+        <f t="shared" si="70"/>
+        <v>0.37036813444697836</v>
+      </c>
+      <c r="AR27" s="18">
+        <f t="shared" si="70"/>
+        <v>0.40609304752359532</v>
+      </c>
+      <c r="AV27" t="s">
         <v>66</v>
       </c>
-      <c r="AS27" s="19">
+      <c r="AW27" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="AR28" t="s">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="AV28" t="s">
         <v>67</v>
       </c>
-      <c r="AS28" s="18">
+      <c r="AW28" s="18">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>60</v>
       </c>
@@ -7076,15 +8929,15 @@
         <f>1275+693</f>
         <v>1968</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AV29" t="s">
         <v>68</v>
       </c>
-      <c r="AS29" s="3">
-        <f>NPV(AS27,AD15:QA15)</f>
-        <v>18780.435196142451</v>
+      <c r="AW29" s="3">
+        <f>NPV(AW27,AH15:QE15)</f>
+        <v>35345.303827805066</v>
       </c>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -7100,15 +8953,15 @@
         <f>1275+693</f>
         <v>1968</v>
       </c>
-      <c r="AR30" t="s">
+      <c r="AV30" t="s">
         <v>69</v>
       </c>
-      <c r="AS30" s="2">
-        <f>AS29/Main!K2</f>
-        <v>129.41314220054059</v>
+      <c r="AW30" s="2">
+        <f>AW29/Main!K2</f>
+        <v>243.55914986083977</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -7121,15 +8974,15 @@
       <c r="U31">
         <v>376</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AV31" t="s">
         <v>70</v>
       </c>
-      <c r="AS31" s="18">
-        <f>AS30/Main!K1-1</f>
-        <v>-4.1384131847847505E-2</v>
+      <c r="AW31" s="18">
+        <f>AW30/Main!K1-1</f>
+        <v>0.8041418508210354</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -7143,7 +8996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>51</v>
       </c>
@@ -7157,7 +9010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -7171,7 +9024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -7185,7 +9038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -7199,7 +9052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -7216,7 +9069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -7230,7 +9083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>53</v>
       </c>
@@ -7248,11 +9101,11 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="40" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C40" s="8"/>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -7266,7 +9119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -7280,7 +9133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>73</v>
       </c>
@@ -7294,7 +9147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>56</v>
       </c>
@@ -7308,7 +9161,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>49</v>
       </c>
@@ -7322,7 +9175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>41</v>
       </c>
@@ -7337,7 +9190,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>57</v>
       </c>
@@ -7351,7 +9204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>58</v>
       </c>
@@ -7365,7 +9218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -7379,7 +9232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>59</v>
       </c>
@@ -7404,4 +9257,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3B61F1-CF1F-6145-8CB5-4CB54E05B595}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="G13:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>212.5</v>
+      </c>
+      <c r="H13">
+        <f>173-81</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" ref="G14:G40" si="0">G13+2.5</f>
+        <v>215</v>
+      </c>
+      <c r="H14">
+        <f>109-79</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>217.5</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>222.5</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="H18">
+        <f>97-46</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>227.5</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>232.5</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>237.5</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>242.5</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>247.5</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>252.5</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>257.5</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="H32">
+        <f>165-80</f>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ZS.xlsx
+++ b/ZS.xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobgarza/repos/Stock_Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE11F10-7637-2E4A-9DAD-9C5E84A3BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8AF3D9-D91F-DD46-9B95-A0FD256C2D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="20980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$13:$G$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$13:$H$32</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$G$13:$G$32</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$H$13:$H$32</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -268,9 +262,6 @@
     <t>Q124</t>
   </si>
   <si>
-    <t>Q225*</t>
-  </si>
-  <si>
     <t>Q325*</t>
   </si>
   <si>
@@ -278,6 +269,9 @@
   </si>
   <si>
     <t>Skew</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
             <c:spPr>
               <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -770,7 +764,7 @@
                   <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Q225*</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q325*</c:v>
@@ -851,13 +845,13 @@
                   <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>520</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>530</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1263,7 @@
                   <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Q225*</c:v>
+                  <c:v>Q225</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Q325*</c:v>
@@ -1350,13 +1344,13 @@
                   <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-23.308051948051968</c:v>
+                  <c:v>-27.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-16.881558441558418</c:v>
+                  <c:v>-24.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-14.263896103896126</c:v>
+                  <c:v>-6.3000000000000114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,14 +3603,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13418</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>17512</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>52023</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3633,8 +3627,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17660930" y="0"/>
-          <a:ext cx="28167" cy="11708780"/>
+          <a:off x="18324885" y="0"/>
+          <a:ext cx="38605" cy="12175435"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3746,13 +3740,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>8660</xdr:colOff>
+      <xdr:colOff>8659</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>97415</xdr:rowOff>
+      <xdr:rowOff>14768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>371259</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>236278</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>155865</xdr:rowOff>
     </xdr:to>
@@ -4243,11 +4237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD53B0-CC7A-4D38-8B43-AB607B5A39F2}">
   <dimension ref="A1:QE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4333,13 +4327,13 @@
         <v>74</v>
       </c>
       <c r="X1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>76</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>77</v>
       </c>
       <c r="AC1">
         <v>2018</v>
@@ -4546,13 +4540,13 @@
         <v>496</v>
       </c>
       <c r="X4" s="3">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="Y4" s="3">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="Z4" s="3">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="18">
@@ -4576,43 +4570,43 @@
       </c>
       <c r="AI4" s="3">
         <f>SUM(W4:Z4)</f>
-        <v>2051</v>
+        <v>2121</v>
       </c>
       <c r="AJ4" s="3">
         <f>AI4*1.25</f>
-        <v>2563.75</v>
+        <v>2651.25</v>
       </c>
       <c r="AK4" s="3">
         <f t="shared" ref="AK4:AR4" si="1">AJ4*1.25</f>
-        <v>3204.6875</v>
+        <v>3314.0625</v>
       </c>
       <c r="AL4" s="3">
         <f t="shared" si="1"/>
-        <v>4005.859375</v>
+        <v>4142.578125</v>
       </c>
       <c r="AM4" s="3">
         <f t="shared" si="1"/>
-        <v>5007.32421875</v>
+        <v>5178.22265625</v>
       </c>
       <c r="AN4" s="3">
         <f t="shared" si="1"/>
-        <v>6259.1552734375</v>
+        <v>6472.7783203125</v>
       </c>
       <c r="AO4" s="3">
         <f t="shared" si="1"/>
-        <v>7823.944091796875</v>
+        <v>8090.972900390625</v>
       </c>
       <c r="AP4" s="3">
         <f t="shared" si="1"/>
-        <v>9779.9301147460938</v>
+        <v>10113.716125488281</v>
       </c>
       <c r="AQ4" s="3">
         <f t="shared" si="1"/>
-        <v>12224.912643432617</v>
+        <v>12642.145156860352</v>
       </c>
       <c r="AR4" s="3">
         <f t="shared" si="1"/>
-        <v>15281.140804290771</v>
+        <v>15802.681446075439</v>
       </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.2">
@@ -4684,20 +4678,19 @@
         <v>111</v>
       </c>
       <c r="X5" s="2">
-        <f>X4*0.22</f>
-        <v>111.1</v>
+        <v>117</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" ref="Y5:Z5" si="2">Y4*0.22</f>
-        <v>114.4</v>
+        <v>117.7</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="2"/>
-        <v>116.6</v>
+        <v>124.3</v>
       </c>
       <c r="AB5">
         <f>AB4*AI4</f>
-        <v>-50.024390243902481</v>
+        <v>-51.731707317073216</v>
       </c>
       <c r="AD5">
         <v>60</v>
@@ -4716,43 +4709,43 @@
       </c>
       <c r="AI5" s="3">
         <f>SUM(W5:Z5)</f>
-        <v>453.1</v>
+        <v>470</v>
       </c>
       <c r="AJ5" s="3">
         <f t="shared" ref="AJ5:AR5" si="3">AJ4-AJ6</f>
-        <v>538.38749999999982</v>
+        <v>556.76249999999982</v>
       </c>
       <c r="AK5" s="3">
         <f t="shared" si="3"/>
-        <v>672.984375</v>
+        <v>695.953125</v>
       </c>
       <c r="AL5" s="3">
         <f t="shared" si="3"/>
-        <v>841.23046875</v>
+        <v>869.94140625</v>
       </c>
       <c r="AM5" s="3">
         <f t="shared" si="3"/>
-        <v>1051.5380859375</v>
+        <v>1087.4267578125</v>
       </c>
       <c r="AN5" s="3">
         <f t="shared" si="3"/>
-        <v>1314.422607421875</v>
+        <v>1359.283447265625</v>
       </c>
       <c r="AO5" s="3">
         <f t="shared" si="3"/>
-        <v>1643.0282592773438</v>
+        <v>1699.1043090820312</v>
       </c>
       <c r="AP5" s="3">
         <f t="shared" si="3"/>
-        <v>2053.7853240966797</v>
+        <v>2123.8803863525391</v>
       </c>
       <c r="AQ5" s="3">
         <f t="shared" si="3"/>
-        <v>2567.2316551208496</v>
+        <v>2654.8504829406738</v>
       </c>
       <c r="AR5" s="3">
         <f t="shared" si="3"/>
-        <v>3209.039568901062</v>
+        <v>3318.5631036758423</v>
       </c>
     </row>
     <row r="6" spans="1:447" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4845,15 +4838,15 @@
       </c>
       <c r="X6" s="9">
         <f t="shared" ref="X6:Z6" si="5">X4-X5</f>
-        <v>393.9</v>
+        <v>408</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="5"/>
-        <v>405.6</v>
+        <v>417.3</v>
       </c>
       <c r="Z6" s="9">
         <f t="shared" si="5"/>
-        <v>413.4</v>
+        <v>440.7</v>
       </c>
       <c r="AD6" s="9">
         <f>AD4-AD5</f>
@@ -4877,43 +4870,43 @@
       </c>
       <c r="AI6" s="9">
         <f>AI4*0.79</f>
-        <v>1620.29</v>
+        <v>1675.5900000000001</v>
       </c>
       <c r="AJ6" s="9">
         <f t="shared" ref="AJ6:AR6" si="6">AJ4*0.79</f>
-        <v>2025.3625000000002</v>
+        <v>2094.4875000000002</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" si="6"/>
-        <v>2531.703125</v>
+        <v>2618.109375</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" si="6"/>
-        <v>3164.62890625</v>
+        <v>3272.63671875</v>
       </c>
       <c r="AM6" s="9">
         <f t="shared" si="6"/>
-        <v>3955.7861328125</v>
+        <v>4090.7958984375</v>
       </c>
       <c r="AN6" s="9">
         <f t="shared" si="6"/>
-        <v>4944.732666015625</v>
+        <v>5113.494873046875</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="6"/>
-        <v>6180.9158325195312</v>
+        <v>6391.8685913085938</v>
       </c>
       <c r="AP6" s="9">
         <f t="shared" si="6"/>
-        <v>7726.1447906494141</v>
+        <v>7989.8357391357422</v>
       </c>
       <c r="AQ6" s="9">
         <f t="shared" si="6"/>
-        <v>9657.6809883117676</v>
+        <v>9987.2946739196777</v>
       </c>
       <c r="AR6" s="9">
         <f t="shared" si="6"/>
-        <v>12072.101235389709</v>
+        <v>12484.118342399597</v>
       </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.2">
@@ -4985,15 +4978,15 @@
         <v>267</v>
       </c>
       <c r="X7" s="3">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Y7" s="3">
         <f>X7+5</f>
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ref="Z7" si="7">Y7+5</f>
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AD7">
         <v>170</v>
@@ -5012,7 +5005,7 @@
       </c>
       <c r="AI7" s="3">
         <f>SUM(W7:Z7)</f>
-        <v>1083</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.2">
@@ -5084,13 +5077,13 @@
         <v>114</v>
       </c>
       <c r="X8" s="3">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="3">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="3">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AD8">
         <v>62</v>
@@ -5109,7 +5102,7 @@
       </c>
       <c r="AI8" s="3">
         <f t="shared" ref="AI8:AI9" si="8">SUM(W8:Z8)</f>
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.2">
@@ -5181,15 +5174,15 @@
         <v>51</v>
       </c>
       <c r="X9" s="3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="3">
         <f>X9+2</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ref="Z9" si="9">Y9+2</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD9">
         <v>47</v>
@@ -5208,7 +5201,7 @@
       </c>
       <c r="AI9" s="3">
         <f t="shared" si="8"/>
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.2">
@@ -5301,75 +5294,75 @@
       </c>
       <c r="X10" s="3">
         <f t="shared" ref="X10:Z10" si="12">SUM(X7:X9)</f>
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" si="12"/>
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" si="12"/>
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="AD10" s="3">
-        <f>AD9+AD8+AD7</f>
+        <f t="shared" ref="AD10:AI10" si="13">AD9+AD8+AD7</f>
         <v>279</v>
       </c>
       <c r="AE10" s="3">
-        <f>AE9+AE8+AE7</f>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="AF10" s="3">
-        <f>AF9+AF8+AF7</f>
+        <f t="shared" si="13"/>
         <v>731</v>
       </c>
       <c r="AG10" s="3">
-        <f>AG9+AG8+AG7</f>
+        <f t="shared" si="13"/>
         <v>1176</v>
       </c>
       <c r="AH10" s="3">
-        <f>AH9+AH8+AH7</f>
+        <f t="shared" si="13"/>
         <v>1481</v>
       </c>
       <c r="AI10" s="3">
-        <f>AI9+AI8+AI7</f>
-        <v>1749</v>
+        <f t="shared" si="13"/>
+        <v>1812</v>
       </c>
       <c r="AJ10" s="3">
         <f>AI10*1.15</f>
-        <v>2011.35</v>
+        <v>2083.7999999999997</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" ref="AK10:AM10" si="13">AJ10*1.15</f>
-        <v>2313.0524999999998</v>
+        <f t="shared" ref="AK10:AM10" si="14">AJ10*1.15</f>
+        <v>2396.3699999999994</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="13"/>
-        <v>2660.0103749999994</v>
+        <f t="shared" si="14"/>
+        <v>2755.825499999999</v>
       </c>
       <c r="AM10" s="3">
-        <f t="shared" si="13"/>
-        <v>3059.0119312499992</v>
+        <f t="shared" si="14"/>
+        <v>3169.1993249999987</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" ref="AK10:AR10" si="14">AM10*1.1</f>
-        <v>3364.9131243749994</v>
+        <f t="shared" ref="AN10:AR10" si="15">AM10*1.1</f>
+        <v>3486.1192574999986</v>
       </c>
       <c r="AO10" s="3">
-        <f t="shared" si="14"/>
-        <v>3701.4044368124996</v>
+        <f t="shared" si="15"/>
+        <v>3834.7311832499986</v>
       </c>
       <c r="AP10" s="3">
-        <f t="shared" si="14"/>
-        <v>4071.54488049375</v>
+        <f t="shared" si="15"/>
+        <v>4218.2043015749987</v>
       </c>
       <c r="AQ10" s="3">
-        <f t="shared" si="14"/>
-        <v>4478.6993685431253</v>
+        <f t="shared" si="15"/>
+        <v>4640.0247317324993</v>
       </c>
       <c r="AR10" s="3">
-        <f t="shared" si="14"/>
-        <v>4926.5693053974383</v>
+        <f t="shared" si="15"/>
+        <v>5104.0272049057494</v>
       </c>
     </row>
     <row r="11" spans="1:447" x14ac:dyDescent="0.2">
@@ -5377,160 +5370,160 @@
         <v>35</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:U11" si="15">C6-C10</f>
+        <f t="shared" ref="C11:U11" si="16">C6-C10</f>
         <v>-9</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-13</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-18</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-31</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-21</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-44</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-43</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-54</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-45</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-66</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-74</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-83.32000000000005</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-87</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-82</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-69</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-65.237999999999943</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-49</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" ref="V11:W11" si="16">V6-V10</f>
+        <f t="shared" ref="V11:W11" si="17">V6-V10</f>
         <v>-44.762</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-47</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" ref="X11:Z11" si="17">X6-X10</f>
-        <v>-38.100000000000023</v>
+        <f t="shared" ref="X11:Z11" si="18">X6-X10</f>
+        <v>-45</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="17"/>
-        <v>-33.399999999999977</v>
+        <f t="shared" si="18"/>
+        <v>-42.699999999999989</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" si="17"/>
-        <v>-32.600000000000023</v>
+        <f t="shared" si="18"/>
+        <v>-26.300000000000011</v>
       </c>
       <c r="AD11" s="3">
-        <f>AD6-AD10</f>
+        <f t="shared" ref="AD11:AJ11" si="19">AD6-AD10</f>
         <v>-36</v>
       </c>
       <c r="AE11" s="3">
-        <f>AE6-AE10</f>
+        <f t="shared" si="19"/>
         <v>-115</v>
       </c>
       <c r="AF11" s="3">
-        <f>AF6-AF10</f>
+        <f t="shared" si="19"/>
         <v>-208</v>
       </c>
       <c r="AG11" s="3">
-        <f>AG6-AG10</f>
+        <f t="shared" si="19"/>
         <v>-327</v>
       </c>
       <c r="AH11" s="3">
-        <f>AH6-AH10</f>
+        <f t="shared" si="19"/>
         <v>-228</v>
       </c>
       <c r="AI11" s="3">
-        <f>AI6-AI10</f>
-        <v>-128.71000000000004</v>
+        <f t="shared" si="19"/>
+        <v>-136.40999999999985</v>
       </c>
       <c r="AJ11" s="3">
-        <f>AJ6-AJ10</f>
-        <v>14.012500000000273</v>
+        <f t="shared" si="19"/>
+        <v>10.687500000000455</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" ref="AK11:AR11" si="18">AK6-AK10</f>
-        <v>218.65062500000022</v>
+        <f t="shared" ref="AK11:AR11" si="20">AK6-AK10</f>
+        <v>221.73937500000056</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="18"/>
-        <v>504.61853125000061</v>
+        <f t="shared" si="20"/>
+        <v>516.81121875000099</v>
       </c>
       <c r="AM11" s="3">
-        <f t="shared" si="18"/>
-        <v>896.77420156250082</v>
+        <f t="shared" si="20"/>
+        <v>921.59657343750132</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" si="18"/>
-        <v>1579.8195416406256</v>
+        <f t="shared" si="20"/>
+        <v>1627.3756155468764</v>
       </c>
       <c r="AO11" s="3">
-        <f t="shared" si="18"/>
-        <v>2479.5113957070316</v>
+        <f t="shared" si="20"/>
+        <v>2557.1374080585952</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" si="18"/>
-        <v>3654.599910155664</v>
+        <f t="shared" si="20"/>
+        <v>3771.6314375607435</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="18"/>
-        <v>5178.9816197686423</v>
+        <f t="shared" si="20"/>
+        <v>5347.2699421871785</v>
       </c>
       <c r="AR11" s="3">
-        <f t="shared" si="18"/>
-        <v>7145.5319299922712</v>
+        <f t="shared" si="20"/>
+        <v>7380.0911374938478</v>
       </c>
     </row>
     <row r="12" spans="1:447" x14ac:dyDescent="0.2">
@@ -5615,16 +5608,15 @@
         <v>22</v>
       </c>
       <c r="X12" s="3">
-        <f>W12+2</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" ref="Y12:Z12" si="19">X12+2</f>
-        <v>26</v>
+        <f t="shared" ref="Y12:Z12" si="21">X12+2</f>
+        <v>27</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="19"/>
-        <v>28</v>
+        <f t="shared" si="21"/>
+        <v>29</v>
       </c>
       <c r="AD12">
         <v>8</v>
@@ -5645,44 +5637,44 @@
         <v>54</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" ref="AI12:AI14" si="20">SUM(W12:Z12)</f>
-        <v>100</v>
+        <f t="shared" ref="AI12:AI14" si="22">SUM(W12:Z12)</f>
+        <v>103</v>
       </c>
       <c r="AJ12">
         <f>AI12*1.05</f>
-        <v>105</v>
+        <v>108.15</v>
       </c>
       <c r="AK12">
-        <f t="shared" ref="AK12:AR12" si="21">AJ12*1.05</f>
-        <v>110.25</v>
+        <f t="shared" ref="AK12:AR12" si="23">AJ12*1.05</f>
+        <v>113.5575</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="21"/>
-        <v>115.7625</v>
+        <f t="shared" si="23"/>
+        <v>119.235375</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="21"/>
-        <v>121.55062500000001</v>
+        <f t="shared" si="23"/>
+        <v>125.19714375000001</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="21"/>
-        <v>127.62815625000002</v>
+        <f t="shared" si="23"/>
+        <v>131.45700093750003</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="21"/>
-        <v>134.00956406250003</v>
+        <f t="shared" si="23"/>
+        <v>138.02985098437503</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="21"/>
-        <v>140.71004226562505</v>
+        <f t="shared" si="23"/>
+        <v>144.93134353359378</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="21"/>
-        <v>147.74554437890632</v>
+        <f t="shared" si="23"/>
+        <v>152.17791071027347</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="21"/>
-        <v>155.13282159785163</v>
+        <f t="shared" si="23"/>
+        <v>159.78680624578715</v>
       </c>
     </row>
     <row r="13" spans="1:447" x14ac:dyDescent="0.2">
@@ -5690,160 +5682,160 @@
         <v>37</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:T13" si="22">C11+C12</f>
+        <f t="shared" ref="C13:T13" si="24">C11+C12</f>
         <v>-7</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-11</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-5</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-16</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-29</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-19</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-48</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-55</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-66</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-57</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-79</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-87.527000000000001</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-96.82000000000005</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-100</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-93</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-62</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-53.901999999999944</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" ref="U13:V13" si="23">U11+U12</f>
+        <f t="shared" ref="U13:V13" si="25">U11+U12</f>
         <v>-31</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-27.097999999999999</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" ref="W13:Z13" si="24">W11+W12</f>
+        <f t="shared" ref="W13:Z13" si="26">W11+W12</f>
         <v>-25</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="24"/>
-        <v>-14.100000000000023</v>
+        <f t="shared" si="26"/>
+        <v>-20</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="24"/>
-        <v>-7.3999999999999773</v>
+        <f t="shared" si="26"/>
+        <v>-15.699999999999989</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="24"/>
-        <v>-4.6000000000000227</v>
+        <f t="shared" si="26"/>
+        <v>2.6999999999999886</v>
       </c>
       <c r="AD13" s="3">
-        <f>AD11+AD12</f>
+        <f t="shared" ref="AD13:AI13" si="27">AD11+AD12</f>
         <v>-28</v>
       </c>
       <c r="AE13" s="3">
-        <f>AE11+AE12</f>
+        <f t="shared" si="27"/>
         <v>-114</v>
       </c>
       <c r="AF13" s="3">
-        <f>AF11+AF12</f>
+        <f t="shared" si="27"/>
         <v>-258</v>
       </c>
       <c r="AG13" s="3">
-        <f>AG11+AG12</f>
+        <f t="shared" si="27"/>
         <v>-379</v>
       </c>
       <c r="AH13" s="3">
-        <f>AH11+AH12</f>
+        <f t="shared" si="27"/>
         <v>-174</v>
       </c>
       <c r="AI13" s="3">
-        <f>AI11+AI12</f>
-        <v>-28.710000000000036</v>
+        <f t="shared" si="27"/>
+        <v>-33.409999999999854</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" ref="AJ13:AR13" si="25">AJ11+AJ12</f>
-        <v>119.01250000000027</v>
+        <f t="shared" ref="AJ13:AR13" si="28">AJ11+AJ12</f>
+        <v>118.83750000000046</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="25"/>
-        <v>328.90062500000022</v>
+        <f t="shared" si="28"/>
+        <v>335.29687500000057</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="25"/>
-        <v>620.38103125000066</v>
+        <f t="shared" si="28"/>
+        <v>636.04659375000097</v>
       </c>
       <c r="AM13" s="3">
-        <f t="shared" si="25"/>
-        <v>1018.3248265625008</v>
+        <f t="shared" si="28"/>
+        <v>1046.7937171875014</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" si="25"/>
-        <v>1707.4476978906257</v>
+        <f t="shared" si="28"/>
+        <v>1758.8326164843763</v>
       </c>
       <c r="AO13" s="3">
-        <f t="shared" si="25"/>
-        <v>2613.5209597695316</v>
+        <f t="shared" si="28"/>
+        <v>2695.1672590429703</v>
       </c>
       <c r="AP13" s="3">
-        <f t="shared" si="25"/>
-        <v>3795.3099524212889</v>
+        <f t="shared" si="28"/>
+        <v>3916.5627810943374</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="25"/>
-        <v>5326.727164147549</v>
+        <f t="shared" si="28"/>
+        <v>5499.4478528974523</v>
       </c>
       <c r="AR13" s="3">
-        <f t="shared" si="25"/>
-        <v>7300.6647515901232</v>
+        <f t="shared" si="28"/>
+        <v>7539.8779437396352</v>
       </c>
     </row>
     <row r="14" spans="1:447" x14ac:dyDescent="0.2">
@@ -5913,16 +5905,13 @@
         <v>9</v>
       </c>
       <c r="X14" s="2">
-        <f>W14/W6 * X6</f>
-        <v>9.2080519480519474</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" ref="Y14:Z14" si="26">X14/X6 * Y6</f>
-        <v>9.4815584415584429</v>
+        <v>9</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="26"/>
-        <v>9.6638961038961035</v>
+        <v>9</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -5940,44 +5929,44 @@
         <v>20</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="20"/>
-        <v>37.353506493506487</v>
+        <f t="shared" si="22"/>
+        <v>34.799999999999997</v>
       </c>
       <c r="AJ14">
         <f>AJ13*0.15</f>
-        <v>17.851875000000039</v>
+        <v>17.82562500000007</v>
       </c>
       <c r="AK14">
-        <f t="shared" ref="AK14:AR14" si="27">AK13*0.15</f>
-        <v>49.335093750000034</v>
+        <f t="shared" ref="AK14:AR14" si="29">AK13*0.15</f>
+        <v>50.294531250000084</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="27"/>
-        <v>93.057154687500102</v>
+        <f t="shared" si="29"/>
+        <v>95.406989062500145</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="27"/>
-        <v>152.74872398437512</v>
+        <f t="shared" si="29"/>
+        <v>157.0190575781252</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="27"/>
-        <v>256.11715468359387</v>
+        <f t="shared" si="29"/>
+        <v>263.82489247265642</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="27"/>
-        <v>392.02814396542971</v>
+        <f t="shared" si="29"/>
+        <v>404.27508885644551</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="27"/>
-        <v>569.29649286319329</v>
+        <f t="shared" si="29"/>
+        <v>587.48441716415061</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="27"/>
-        <v>799.00907462213229</v>
+        <f t="shared" si="29"/>
+        <v>824.91717793461783</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="27"/>
-        <v>1095.0997127385185</v>
+        <f t="shared" si="29"/>
+        <v>1130.9816915609451</v>
       </c>
     </row>
     <row r="15" spans="1:447" x14ac:dyDescent="0.2">
@@ -5985,1772 +5974,1772 @@
         <v>39</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:T15" si="28">C13-C14</f>
+        <f t="shared" ref="C15:T15" si="30">C13-C14</f>
         <v>-7</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-12</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-5</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-17</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-29</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-19</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-48</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-55</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-68</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-59</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-80</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-89.626999999999995</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-98.920000000000044</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-100</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-95</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-67</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-57.593999999999944</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" ref="U15:V15" si="29">U13-U14</f>
+        <f t="shared" ref="U15:V15" si="31">U13-U14</f>
         <v>-38</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-31.405999999999999</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" ref="W15:Z15" si="30">W13-W14</f>
+        <f t="shared" ref="W15:Z15" si="32">W13-W14</f>
         <v>-34</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="30"/>
-        <v>-23.308051948051968</v>
+        <f t="shared" si="32"/>
+        <v>-27.8</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="30"/>
-        <v>-16.881558441558418</v>
+        <f t="shared" si="32"/>
+        <v>-24.699999999999989</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="30"/>
-        <v>-14.263896103896126</v>
+        <f t="shared" si="32"/>
+        <v>-6.3000000000000114</v>
       </c>
       <c r="AD15" s="3">
-        <f>AD13-AD14</f>
+        <f t="shared" ref="AD15:AI15" si="33">AD13-AD14</f>
         <v>-29</v>
       </c>
       <c r="AE15" s="3">
-        <f>AE13-AE14</f>
+        <f t="shared" si="33"/>
         <v>-116</v>
       </c>
       <c r="AF15" s="3">
-        <f>AF13-AF14</f>
+        <f t="shared" si="33"/>
         <v>-263</v>
       </c>
       <c r="AG15" s="3">
-        <f>AG13-AG14</f>
+        <f t="shared" si="33"/>
         <v>-386</v>
       </c>
       <c r="AH15" s="3">
-        <f>AH13-AH14</f>
+        <f t="shared" si="33"/>
         <v>-194</v>
       </c>
       <c r="AI15" s="3">
-        <f>AI13-AI14</f>
-        <v>-66.063506493506523</v>
+        <f t="shared" si="33"/>
+        <v>-68.209999999999852</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" ref="AJ15:AR15" si="31">AJ13-AJ14</f>
-        <v>101.16062500000024</v>
+        <f t="shared" ref="AJ15:AR15" si="34">AJ13-AJ14</f>
+        <v>101.01187500000039</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="31"/>
-        <v>279.56553125000016</v>
+        <f t="shared" si="34"/>
+        <v>285.00234375000048</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="31"/>
-        <v>527.32387656250057</v>
+        <f t="shared" si="34"/>
+        <v>540.63960468750088</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="31"/>
-        <v>865.57610257812564</v>
+        <f t="shared" si="34"/>
+        <v>889.77465960937627</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="31"/>
-        <v>1451.330543207032</v>
+        <f t="shared" si="34"/>
+        <v>1495.0077240117198</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="31"/>
-        <v>2221.4928158041021</v>
+        <f t="shared" si="34"/>
+        <v>2290.8921701865247</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" si="31"/>
-        <v>3226.0134595580957</v>
+        <f t="shared" si="34"/>
+        <v>3329.0783639301867</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="31"/>
-        <v>4527.7180895254169</v>
+        <f t="shared" si="34"/>
+        <v>4674.5306749628344</v>
       </c>
       <c r="AR15" s="3">
-        <f t="shared" si="31"/>
-        <v>6205.5650388516042</v>
+        <f t="shared" si="34"/>
+        <v>6408.8962521786898</v>
       </c>
       <c r="AS15" s="3">
         <f>AR15*(1+$AW$28)</f>
-        <v>6143.5093884630878</v>
+        <v>6344.8072896569029</v>
       </c>
       <c r="AT15" s="3">
-        <f t="shared" ref="AT15:DE15" si="32">AS15*(1+$AW$28)</f>
-        <v>6082.0742945784568</v>
+        <f t="shared" ref="AT15:DE15" si="35">AS15*(1+$AW$28)</f>
+        <v>6281.3592167603338</v>
       </c>
       <c r="AU15" s="3">
-        <f t="shared" si="32"/>
-        <v>6021.2535516326725</v>
+        <f t="shared" si="35"/>
+        <v>6218.5456245927307</v>
       </c>
       <c r="AV15" s="3">
-        <f t="shared" si="32"/>
-        <v>5961.0410161163454</v>
+        <f t="shared" si="35"/>
+        <v>6156.3601683468032</v>
       </c>
       <c r="AW15" s="3">
-        <f t="shared" si="32"/>
-        <v>5901.4306059551818</v>
+        <f t="shared" si="35"/>
+        <v>6094.7965666633354</v>
       </c>
       <c r="AX15" s="3">
-        <f t="shared" si="32"/>
-        <v>5842.4162998956299</v>
+        <f t="shared" si="35"/>
+        <v>6033.8486009967019</v>
       </c>
       <c r="AY15" s="3">
-        <f t="shared" si="32"/>
-        <v>5783.9921368966734</v>
+        <f t="shared" si="35"/>
+        <v>5973.5101149867351</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="32"/>
-        <v>5726.1522155277062</v>
+        <f t="shared" si="35"/>
+        <v>5913.7750138368674</v>
       </c>
       <c r="BA15" s="3">
-        <f t="shared" si="32"/>
-        <v>5668.8906933724293</v>
+        <f t="shared" si="35"/>
+        <v>5854.6372636984988</v>
       </c>
       <c r="BB15" s="3">
-        <f t="shared" si="32"/>
-        <v>5612.2017864387053</v>
+        <f t="shared" si="35"/>
+        <v>5796.0908910615135</v>
       </c>
       <c r="BC15" s="3">
-        <f t="shared" si="32"/>
-        <v>5556.0797685743182</v>
+        <f t="shared" si="35"/>
+        <v>5738.1299821508983</v>
       </c>
       <c r="BD15" s="3">
-        <f t="shared" si="32"/>
-        <v>5500.5189708885746</v>
+        <f t="shared" si="35"/>
+        <v>5680.7486823293893</v>
       </c>
       <c r="BE15" s="3">
-        <f t="shared" si="32"/>
-        <v>5445.5137811796885</v>
+        <f t="shared" si="35"/>
+        <v>5623.941195506095</v>
       </c>
       <c r="BF15" s="3">
-        <f t="shared" si="32"/>
-        <v>5391.0586433678918</v>
+        <f t="shared" si="35"/>
+        <v>5567.7017835510342</v>
       </c>
       <c r="BG15" s="3">
-        <f t="shared" si="32"/>
-        <v>5337.1480569342129</v>
+        <f t="shared" si="35"/>
+        <v>5512.0247657155242</v>
       </c>
       <c r="BH15" s="3">
-        <f t="shared" si="32"/>
-        <v>5283.7765763648704</v>
+        <f t="shared" si="35"/>
+        <v>5456.9045180583689</v>
       </c>
       <c r="BI15" s="3">
-        <f t="shared" si="32"/>
-        <v>5230.938810601222</v>
+        <f t="shared" si="35"/>
+        <v>5402.3354728777849</v>
       </c>
       <c r="BJ15" s="3">
-        <f t="shared" si="32"/>
-        <v>5178.6294224952098</v>
+        <f t="shared" si="35"/>
+        <v>5348.3121181490069</v>
       </c>
       <c r="BK15" s="3">
-        <f t="shared" si="32"/>
-        <v>5126.8431282702577</v>
+        <f t="shared" si="35"/>
+        <v>5294.828996967517</v>
       </c>
       <c r="BL15" s="3">
-        <f t="shared" si="32"/>
-        <v>5075.5746969875554</v>
+        <f t="shared" si="35"/>
+        <v>5241.880706997842</v>
       </c>
       <c r="BM15" s="3">
-        <f t="shared" si="32"/>
-        <v>5024.8189500176795</v>
+        <f t="shared" si="35"/>
+        <v>5189.4618999278637</v>
       </c>
       <c r="BN15" s="3">
-        <f t="shared" si="32"/>
-        <v>4974.570760517503</v>
+        <f t="shared" si="35"/>
+        <v>5137.5672809285852</v>
       </c>
       <c r="BO15" s="3">
-        <f t="shared" si="32"/>
-        <v>4924.8250529123279</v>
+        <f t="shared" si="35"/>
+        <v>5086.1916081192994</v>
       </c>
       <c r="BP15" s="3">
-        <f t="shared" si="32"/>
-        <v>4875.5768023832043</v>
+        <f t="shared" si="35"/>
+        <v>5035.3296920381063</v>
       </c>
       <c r="BQ15" s="3">
-        <f t="shared" si="32"/>
-        <v>4826.8210343593719</v>
+        <f t="shared" si="35"/>
+        <v>4984.9763951177256</v>
       </c>
       <c r="BR15" s="3">
-        <f t="shared" si="32"/>
-        <v>4778.5528240157782</v>
+        <f t="shared" si="35"/>
+        <v>4935.1266311665486</v>
       </c>
       <c r="BS15" s="3">
-        <f t="shared" si="32"/>
-        <v>4730.7672957756204</v>
+        <f t="shared" si="35"/>
+        <v>4885.7753648548833</v>
       </c>
       <c r="BT15" s="3">
-        <f t="shared" si="32"/>
-        <v>4683.4596228178643</v>
+        <f t="shared" si="35"/>
+        <v>4836.9176112063342</v>
       </c>
       <c r="BU15" s="3">
-        <f t="shared" si="32"/>
-        <v>4636.6250265896861</v>
+        <f t="shared" si="35"/>
+        <v>4788.5484350942706</v>
       </c>
       <c r="BV15" s="3">
-        <f t="shared" si="32"/>
-        <v>4590.2587763237889</v>
+        <f t="shared" si="35"/>
+        <v>4740.6629507433281</v>
       </c>
       <c r="BW15" s="3">
-        <f t="shared" si="32"/>
-        <v>4544.3561885605513</v>
+        <f t="shared" si="35"/>
+        <v>4693.2563212358946</v>
       </c>
       <c r="BX15" s="3">
-        <f t="shared" si="32"/>
-        <v>4498.9126266749454</v>
+        <f t="shared" si="35"/>
+        <v>4646.3237580235354</v>
       </c>
       <c r="BY15" s="3">
-        <f t="shared" si="32"/>
-        <v>4453.9235004081957</v>
+        <f t="shared" si="35"/>
+        <v>4599.8605204432997</v>
       </c>
       <c r="BZ15" s="3">
-        <f t="shared" si="32"/>
-        <v>4409.3842654041136</v>
+        <f t="shared" si="35"/>
+        <v>4553.8619152388665</v>
       </c>
       <c r="CA15" s="3">
-        <f t="shared" si="32"/>
-        <v>4365.2904227500721</v>
+        <f t="shared" si="35"/>
+        <v>4508.323296086478</v>
       </c>
       <c r="CB15" s="3">
-        <f t="shared" si="32"/>
-        <v>4321.6375185225716</v>
+        <f t="shared" si="35"/>
+        <v>4463.2400631256132</v>
       </c>
       <c r="CC15" s="3">
-        <f t="shared" si="32"/>
-        <v>4278.4211433373457</v>
+        <f t="shared" si="35"/>
+        <v>4418.6076624943571</v>
       </c>
       <c r="CD15" s="3">
-        <f t="shared" si="32"/>
-        <v>4235.6369319039723</v>
+        <f t="shared" si="35"/>
+        <v>4374.4215858694133</v>
       </c>
       <c r="CE15" s="3">
-        <f t="shared" si="32"/>
-        <v>4193.2805625849323</v>
+        <f t="shared" si="35"/>
+        <v>4330.6773700107187</v>
       </c>
       <c r="CF15" s="3">
-        <f t="shared" si="32"/>
-        <v>4151.3477569590832</v>
+        <f t="shared" si="35"/>
+        <v>4287.3705963106113</v>
       </c>
       <c r="CG15" s="3">
-        <f t="shared" si="32"/>
-        <v>4109.8342793894926</v>
+        <f t="shared" si="35"/>
+        <v>4244.4968903475055</v>
       </c>
       <c r="CH15" s="3">
-        <f t="shared" si="32"/>
-        <v>4068.7359365955977</v>
+        <f t="shared" si="35"/>
+        <v>4202.0519214440301</v>
       </c>
       <c r="CI15" s="3">
-        <f t="shared" si="32"/>
-        <v>4028.0485772296415</v>
+        <f t="shared" si="35"/>
+        <v>4160.0314022295897</v>
       </c>
       <c r="CJ15" s="3">
-        <f t="shared" si="32"/>
-        <v>3987.7680914573452</v>
+        <f t="shared" si="35"/>
+        <v>4118.4310882072941</v>
       </c>
       <c r="CK15" s="3">
-        <f t="shared" si="32"/>
-        <v>3947.8904105427719</v>
+        <f t="shared" si="35"/>
+        <v>4077.246777325221</v>
       </c>
       <c r="CL15" s="3">
-        <f t="shared" si="32"/>
-        <v>3908.4115064373441</v>
+        <f t="shared" si="35"/>
+        <v>4036.4743095519689</v>
       </c>
       <c r="CM15" s="3">
-        <f t="shared" si="32"/>
-        <v>3869.3273913729704</v>
+        <f t="shared" si="35"/>
+        <v>3996.1095664564491</v>
       </c>
       <c r="CN15" s="3">
-        <f t="shared" si="32"/>
-        <v>3830.6341174592408</v>
+        <f t="shared" si="35"/>
+        <v>3956.1484707918844</v>
       </c>
       <c r="CO15" s="3">
-        <f t="shared" si="32"/>
-        <v>3792.3277762846483</v>
+        <f t="shared" si="35"/>
+        <v>3916.5869860839657</v>
       </c>
       <c r="CP15" s="3">
-        <f t="shared" si="32"/>
-        <v>3754.4044985218015</v>
+        <f t="shared" si="35"/>
+        <v>3877.4211162231259</v>
       </c>
       <c r="CQ15" s="3">
-        <f t="shared" si="32"/>
-        <v>3716.8604535365835</v>
+        <f t="shared" si="35"/>
+        <v>3838.6469050608944</v>
       </c>
       <c r="CR15" s="3">
-        <f t="shared" si="32"/>
-        <v>3679.6918490012176</v>
+        <f t="shared" si="35"/>
+        <v>3800.2604360102855</v>
       </c>
       <c r="CS15" s="3">
-        <f t="shared" si="32"/>
-        <v>3642.8949305112055</v>
+        <f t="shared" si="35"/>
+        <v>3762.2578316501827</v>
       </c>
       <c r="CT15" s="3">
-        <f t="shared" si="32"/>
-        <v>3606.4659812060936</v>
+        <f t="shared" si="35"/>
+        <v>3724.6352533336808</v>
       </c>
       <c r="CU15" s="3">
-        <f t="shared" si="32"/>
-        <v>3570.4013213940325</v>
+        <f t="shared" si="35"/>
+        <v>3687.3889008003439</v>
       </c>
       <c r="CV15" s="3">
-        <f t="shared" si="32"/>
-        <v>3534.697308180092</v>
+        <f t="shared" si="35"/>
+        <v>3650.5150117923404</v>
       </c>
       <c r="CW15" s="3">
-        <f t="shared" si="32"/>
-        <v>3499.350335098291</v>
+        <f t="shared" si="35"/>
+        <v>3614.0098616744172</v>
       </c>
       <c r="CX15" s="3">
-        <f t="shared" si="32"/>
-        <v>3464.3568317473082</v>
+        <f t="shared" si="35"/>
+        <v>3577.869763057673</v>
       </c>
       <c r="CY15" s="3">
-        <f t="shared" si="32"/>
-        <v>3429.713263429835</v>
+        <f t="shared" si="35"/>
+        <v>3542.0910654270961</v>
       </c>
       <c r="CZ15" s="3">
-        <f t="shared" si="32"/>
-        <v>3395.4161307955364</v>
+        <f t="shared" si="35"/>
+        <v>3506.6701547728248</v>
       </c>
       <c r="DA15" s="3">
-        <f t="shared" si="32"/>
-        <v>3361.461969487581</v>
+        <f t="shared" si="35"/>
+        <v>3471.6034532250965</v>
       </c>
       <c r="DB15" s="3">
-        <f t="shared" si="32"/>
-        <v>3327.8473497927052</v>
+        <f t="shared" si="35"/>
+        <v>3436.8874186928456</v>
       </c>
       <c r="DC15" s="3">
-        <f t="shared" si="32"/>
-        <v>3294.568876294778</v>
+        <f t="shared" si="35"/>
+        <v>3402.5185445059169</v>
       </c>
       <c r="DD15" s="3">
-        <f t="shared" si="32"/>
-        <v>3261.6231875318304</v>
+        <f t="shared" si="35"/>
+        <v>3368.4933590608575</v>
       </c>
       <c r="DE15" s="3">
-        <f t="shared" si="32"/>
-        <v>3229.0069556565122</v>
+        <f t="shared" si="35"/>
+        <v>3334.8084254702489</v>
       </c>
       <c r="DF15" s="3">
-        <f t="shared" ref="DF15:FQ15" si="33">DE15*(1+$AW$28)</f>
-        <v>3196.7168860999473</v>
+        <f t="shared" ref="DF15:FQ15" si="36">DE15*(1+$AW$28)</f>
+        <v>3301.4603412155466</v>
       </c>
       <c r="DG15" s="3">
-        <f t="shared" si="33"/>
-        <v>3164.7497172389476</v>
+        <f t="shared" si="36"/>
+        <v>3268.4457378033912</v>
       </c>
       <c r="DH15" s="3">
-        <f t="shared" si="33"/>
-        <v>3133.1022200665579</v>
+        <f t="shared" si="36"/>
+        <v>3235.7612804253572</v>
       </c>
       <c r="DI15" s="3">
-        <f t="shared" si="33"/>
-        <v>3101.7711978658922</v>
+        <f t="shared" si="36"/>
+        <v>3203.4036676211035</v>
       </c>
       <c r="DJ15" s="3">
-        <f t="shared" si="33"/>
-        <v>3070.7534858872332</v>
+        <f t="shared" si="36"/>
+        <v>3171.3696309448924</v>
       </c>
       <c r="DK15" s="3">
-        <f t="shared" si="33"/>
-        <v>3040.0459510283608</v>
+        <f t="shared" si="36"/>
+        <v>3139.6559346354434</v>
       </c>
       <c r="DL15" s="3">
-        <f t="shared" si="33"/>
-        <v>3009.6454915180771</v>
+        <f t="shared" si="36"/>
+        <v>3108.2593752890889</v>
       </c>
       <c r="DM15" s="3">
-        <f t="shared" si="33"/>
-        <v>2979.5490366028962</v>
+        <f t="shared" si="36"/>
+        <v>3077.1767815361982</v>
       </c>
       <c r="DN15" s="3">
-        <f t="shared" si="33"/>
-        <v>2949.7535462368674</v>
+        <f t="shared" si="36"/>
+        <v>3046.405013720836</v>
       </c>
       <c r="DO15" s="3">
-        <f t="shared" si="33"/>
-        <v>2920.2560107744985</v>
+        <f t="shared" si="36"/>
+        <v>3015.9409635836278</v>
       </c>
       <c r="DP15" s="3">
-        <f t="shared" si="33"/>
-        <v>2891.0534506667536</v>
+        <f t="shared" si="36"/>
+        <v>2985.7815539477915</v>
       </c>
       <c r="DQ15" s="3">
-        <f t="shared" si="33"/>
-        <v>2862.1429161600859</v>
+        <f t="shared" si="36"/>
+        <v>2955.9237384083135</v>
       </c>
       <c r="DR15" s="3">
-        <f t="shared" si="33"/>
-        <v>2833.5214869984848</v>
+        <f t="shared" si="36"/>
+        <v>2926.3645010242303</v>
       </c>
       <c r="DS15" s="3">
-        <f t="shared" si="33"/>
-        <v>2805.1862721284997</v>
+        <f t="shared" si="36"/>
+        <v>2897.1008560139881</v>
       </c>
       <c r="DT15" s="3">
-        <f t="shared" si="33"/>
-        <v>2777.1344094072147</v>
+        <f t="shared" si="36"/>
+        <v>2868.129847453848</v>
       </c>
       <c r="DU15" s="3">
-        <f t="shared" si="33"/>
-        <v>2749.3630653131427</v>
+        <f t="shared" si="36"/>
+        <v>2839.4485489793096</v>
       </c>
       <c r="DV15" s="3">
-        <f t="shared" si="33"/>
-        <v>2721.8694346600114</v>
+        <f t="shared" si="36"/>
+        <v>2811.0540634895165</v>
       </c>
       <c r="DW15" s="3">
-        <f t="shared" si="33"/>
-        <v>2694.6507403134115</v>
+        <f t="shared" si="36"/>
+        <v>2782.9435228546213</v>
       </c>
       <c r="DX15" s="3">
-        <f t="shared" si="33"/>
-        <v>2667.7042329102774</v>
+        <f t="shared" si="36"/>
+        <v>2755.1140876260752</v>
       </c>
       <c r="DY15" s="3">
-        <f t="shared" si="33"/>
-        <v>2641.0271905811746</v>
+        <f t="shared" si="36"/>
+        <v>2727.5629467498143</v>
       </c>
       <c r="DZ15" s="3">
-        <f t="shared" si="33"/>
-        <v>2614.6169186753627</v>
+        <f t="shared" si="36"/>
+        <v>2700.2873172823161</v>
       </c>
       <c r="EA15" s="3">
-        <f t="shared" si="33"/>
-        <v>2588.4707494886093</v>
+        <f t="shared" si="36"/>
+        <v>2673.2844441094931</v>
       </c>
       <c r="EB15" s="3">
-        <f t="shared" si="33"/>
-        <v>2562.586041993723</v>
+        <f t="shared" si="36"/>
+        <v>2646.551599668398</v>
       </c>
       <c r="EC15" s="3">
-        <f t="shared" si="33"/>
-        <v>2536.9601815737856</v>
+        <f t="shared" si="36"/>
+        <v>2620.0860836717138</v>
       </c>
       <c r="ED15" s="3">
-        <f t="shared" si="33"/>
-        <v>2511.5905797580476</v>
+        <f t="shared" si="36"/>
+        <v>2593.8852228349965</v>
       </c>
       <c r="EE15" s="3">
-        <f t="shared" si="33"/>
-        <v>2486.474673960467</v>
+        <f t="shared" si="36"/>
+        <v>2567.9463706066467</v>
       </c>
       <c r="EF15" s="3">
-        <f t="shared" si="33"/>
-        <v>2461.6099272208626</v>
+        <f t="shared" si="36"/>
+        <v>2542.2669069005801</v>
       </c>
       <c r="EG15" s="3">
-        <f t="shared" si="33"/>
-        <v>2436.9938279486541</v>
+        <f t="shared" si="36"/>
+        <v>2516.8442378315744</v>
       </c>
       <c r="EH15" s="3">
-        <f t="shared" si="33"/>
-        <v>2412.6238896691675</v>
+        <f t="shared" si="36"/>
+        <v>2491.6757954532586</v>
       </c>
       <c r="EI15" s="3">
-        <f t="shared" si="33"/>
-        <v>2388.4976507724759</v>
+        <f t="shared" si="36"/>
+        <v>2466.7590374987262</v>
       </c>
       <c r="EJ15" s="3">
-        <f t="shared" si="33"/>
-        <v>2364.6126742647511</v>
+        <f t="shared" si="36"/>
+        <v>2442.0914471237388</v>
       </c>
       <c r="EK15" s="3">
-        <f t="shared" si="33"/>
-        <v>2340.9665475221036</v>
+        <f t="shared" si="36"/>
+        <v>2417.6705326525016</v>
       </c>
       <c r="EL15" s="3">
-        <f t="shared" si="33"/>
-        <v>2317.5568820468825</v>
+        <f t="shared" si="36"/>
+        <v>2393.4938273259768</v>
       </c>
       <c r="EM15" s="3">
-        <f t="shared" si="33"/>
-        <v>2294.3813132264136</v>
+        <f t="shared" si="36"/>
+        <v>2369.5588890527169</v>
       </c>
       <c r="EN15" s="3">
-        <f t="shared" si="33"/>
-        <v>2271.4375000941495</v>
+        <f t="shared" si="36"/>
+        <v>2345.8633001621897</v>
       </c>
       <c r="EO15" s="3">
-        <f t="shared" si="33"/>
-        <v>2248.7231250932082</v>
+        <f t="shared" si="36"/>
+        <v>2322.4046671605679</v>
       </c>
       <c r="EP15" s="3">
-        <f t="shared" si="33"/>
-        <v>2226.2358938422763</v>
+        <f t="shared" si="36"/>
+        <v>2299.1806204889622</v>
       </c>
       <c r="EQ15" s="3">
-        <f t="shared" si="33"/>
-        <v>2203.9735349038533</v>
+        <f t="shared" si="36"/>
+        <v>2276.1888142840726</v>
       </c>
       <c r="ER15" s="3">
-        <f t="shared" si="33"/>
-        <v>2181.9337995548149</v>
+        <f t="shared" si="36"/>
+        <v>2253.4269261412319</v>
       </c>
       <c r="ES15" s="3">
-        <f t="shared" si="33"/>
-        <v>2160.1144615592666</v>
+        <f t="shared" si="36"/>
+        <v>2230.8926568798197</v>
       </c>
       <c r="ET15" s="3">
-        <f t="shared" si="33"/>
-        <v>2138.513316943674</v>
+        <f t="shared" si="36"/>
+        <v>2208.5837303110216</v>
       </c>
       <c r="EU15" s="3">
-        <f t="shared" si="33"/>
-        <v>2117.1281837742372</v>
+        <f t="shared" si="36"/>
+        <v>2186.4978930079114</v>
       </c>
       <c r="EV15" s="3">
-        <f t="shared" si="33"/>
-        <v>2095.9569019364949</v>
+        <f t="shared" si="36"/>
+        <v>2164.6329140778321</v>
       </c>
       <c r="EW15" s="3">
-        <f t="shared" si="33"/>
-        <v>2074.9973329171298</v>
+        <f t="shared" si="36"/>
+        <v>2142.9865849370535</v>
       </c>
       <c r="EX15" s="3">
-        <f t="shared" si="33"/>
-        <v>2054.2473595879587</v>
+        <f t="shared" si="36"/>
+        <v>2121.5567190876832</v>
       </c>
       <c r="EY15" s="3">
-        <f t="shared" si="33"/>
-        <v>2033.7048859920792</v>
+        <f t="shared" si="36"/>
+        <v>2100.3411518968064</v>
       </c>
       <c r="EZ15" s="3">
-        <f t="shared" si="33"/>
-        <v>2013.3678371321585</v>
+        <f t="shared" si="36"/>
+        <v>2079.3377403778381</v>
       </c>
       <c r="FA15" s="3">
-        <f t="shared" si="33"/>
-        <v>1993.2341587608369</v>
+        <f t="shared" si="36"/>
+        <v>2058.5443629740598</v>
       </c>
       <c r="FB15" s="3">
-        <f t="shared" si="33"/>
-        <v>1973.3018171732285</v>
+        <f t="shared" si="36"/>
+        <v>2037.9589193443192</v>
       </c>
       <c r="FC15" s="3">
-        <f t="shared" si="33"/>
-        <v>1953.5687990014962</v>
+        <f t="shared" si="36"/>
+        <v>2017.5793301508759</v>
       </c>
       <c r="FD15" s="3">
-        <f t="shared" si="33"/>
-        <v>1934.0331110114812</v>
+        <f t="shared" si="36"/>
+        <v>1997.4035368493671</v>
       </c>
       <c r="FE15" s="3">
-        <f t="shared" si="33"/>
-        <v>1914.6927799013663</v>
+        <f t="shared" si="36"/>
+        <v>1977.4295014808733</v>
       </c>
       <c r="FF15" s="3">
-        <f t="shared" si="33"/>
-        <v>1895.5458521023527</v>
+        <f t="shared" si="36"/>
+        <v>1957.6552064660646</v>
       </c>
       <c r="FG15" s="3">
-        <f t="shared" si="33"/>
-        <v>1876.5903935813292</v>
+        <f t="shared" si="36"/>
+        <v>1938.0786544014038</v>
       </c>
       <c r="FH15" s="3">
-        <f t="shared" si="33"/>
-        <v>1857.8244896455158</v>
+        <f t="shared" si="36"/>
+        <v>1918.6978678573898</v>
       </c>
       <c r="FI15" s="3">
-        <f t="shared" si="33"/>
-        <v>1839.2462447490607</v>
+        <f t="shared" si="36"/>
+        <v>1899.5108891788159</v>
       </c>
       <c r="FJ15" s="3">
-        <f t="shared" si="33"/>
-        <v>1820.8537823015702</v>
+        <f t="shared" si="36"/>
+        <v>1880.5157802870276</v>
       </c>
       <c r="FK15" s="3">
-        <f t="shared" si="33"/>
-        <v>1802.6452444785543</v>
+        <f t="shared" si="36"/>
+        <v>1861.7106224841573</v>
       </c>
       <c r="FL15" s="3">
-        <f t="shared" si="33"/>
-        <v>1784.6187920337688</v>
+        <f t="shared" si="36"/>
+        <v>1843.0935162593157</v>
       </c>
       <c r="FM15" s="3">
-        <f t="shared" si="33"/>
-        <v>1766.772604113431</v>
+        <f t="shared" si="36"/>
+        <v>1824.6625810967225</v>
       </c>
       <c r="FN15" s="3">
-        <f t="shared" si="33"/>
-        <v>1749.1048780722967</v>
+        <f t="shared" si="36"/>
+        <v>1806.4159552857552</v>
       </c>
       <c r="FO15" s="3">
-        <f t="shared" si="33"/>
-        <v>1731.6138292915737</v>
+        <f t="shared" si="36"/>
+        <v>1788.3517957328977</v>
       </c>
       <c r="FP15" s="3">
-        <f t="shared" si="33"/>
-        <v>1714.297690998658</v>
+        <f t="shared" si="36"/>
+        <v>1770.4682777755686</v>
       </c>
       <c r="FQ15" s="3">
-        <f t="shared" si="33"/>
-        <v>1697.1547140886714</v>
+        <f t="shared" si="36"/>
+        <v>1752.7635949978128</v>
       </c>
       <c r="FR15" s="3">
-        <f t="shared" ref="FR15:IC15" si="34">FQ15*(1+$AW$28)</f>
-        <v>1680.1831669477847</v>
+        <f t="shared" ref="FR15:IC15" si="37">FQ15*(1+$AW$28)</f>
+        <v>1735.2359590478347</v>
       </c>
       <c r="FS15" s="3">
-        <f t="shared" si="34"/>
-        <v>1663.3813352783068</v>
+        <f t="shared" si="37"/>
+        <v>1717.8835994573565</v>
       </c>
       <c r="FT15" s="3">
-        <f t="shared" si="34"/>
-        <v>1646.7475219255236</v>
+        <f t="shared" si="37"/>
+        <v>1700.7047634627829</v>
       </c>
       <c r="FU15" s="3">
-        <f t="shared" si="34"/>
-        <v>1630.2800467062684</v>
+        <f t="shared" si="37"/>
+        <v>1683.697715828155</v>
       </c>
       <c r="FV15" s="3">
-        <f t="shared" si="34"/>
-        <v>1613.9772462392057</v>
+        <f t="shared" si="37"/>
+        <v>1666.8607386698734</v>
       </c>
       <c r="FW15" s="3">
-        <f t="shared" si="34"/>
-        <v>1597.8374737768136</v>
+        <f t="shared" si="37"/>
+        <v>1650.1921312831746</v>
       </c>
       <c r="FX15" s="3">
-        <f t="shared" si="34"/>
-        <v>1581.8590990390453</v>
+        <f t="shared" si="37"/>
+        <v>1633.6902099703429</v>
       </c>
       <c r="FY15" s="3">
-        <f t="shared" si="34"/>
-        <v>1566.0405080486548</v>
+        <f t="shared" si="37"/>
+        <v>1617.3533078706396</v>
       </c>
       <c r="FZ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1550.3801029681683</v>
+        <f t="shared" si="37"/>
+        <v>1601.1797747919331</v>
       </c>
       <c r="GA15" s="3">
-        <f t="shared" si="34"/>
-        <v>1534.8763019384867</v>
+        <f t="shared" si="37"/>
+        <v>1585.1679770440137</v>
       </c>
       <c r="GB15" s="3">
-        <f t="shared" si="34"/>
-        <v>1519.5275389191017</v>
+        <f t="shared" si="37"/>
+        <v>1569.3162972735736</v>
       </c>
       <c r="GC15" s="3">
-        <f t="shared" si="34"/>
-        <v>1504.3322635299107</v>
+        <f t="shared" si="37"/>
+        <v>1553.6231343008378</v>
       </c>
       <c r="GD15" s="3">
-        <f t="shared" si="34"/>
-        <v>1489.2889408946116</v>
+        <f t="shared" si="37"/>
+        <v>1538.0869029578294</v>
       </c>
       <c r="GE15" s="3">
-        <f t="shared" si="34"/>
-        <v>1474.3960514856656</v>
+        <f t="shared" si="37"/>
+        <v>1522.7060339282511</v>
       </c>
       <c r="GF15" s="3">
-        <f t="shared" si="34"/>
-        <v>1459.6520909708088</v>
+        <f t="shared" si="37"/>
+        <v>1507.4789735889685</v>
       </c>
       <c r="GG15" s="3">
-        <f t="shared" si="34"/>
-        <v>1445.0555700611008</v>
+        <f t="shared" si="37"/>
+        <v>1492.4041838530788</v>
       </c>
       <c r="GH15" s="3">
-        <f t="shared" si="34"/>
-        <v>1430.6050143604898</v>
+        <f t="shared" si="37"/>
+        <v>1477.4801420145479</v>
       </c>
       <c r="GI15" s="3">
-        <f t="shared" si="34"/>
-        <v>1416.298964216885</v>
+        <f t="shared" si="37"/>
+        <v>1462.7053405944025</v>
       </c>
       <c r="GJ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1402.1359745747161</v>
+        <f t="shared" si="37"/>
+        <v>1448.0782871884585</v>
       </c>
       <c r="GK15" s="3">
-        <f t="shared" si="34"/>
-        <v>1388.114614828969</v>
+        <f t="shared" si="37"/>
+        <v>1433.5975043165738</v>
       </c>
       <c r="GL15" s="3">
-        <f t="shared" si="34"/>
-        <v>1374.2334686806794</v>
+        <f t="shared" si="37"/>
+        <v>1419.2615292734081</v>
       </c>
       <c r="GM15" s="3">
-        <f t="shared" si="34"/>
-        <v>1360.4911339938726</v>
+        <f t="shared" si="37"/>
+        <v>1405.0689139806741</v>
       </c>
       <c r="GN15" s="3">
-        <f t="shared" si="34"/>
-        <v>1346.8862226539338</v>
+        <f t="shared" si="37"/>
+        <v>1391.0182248408673</v>
       </c>
       <c r="GO15" s="3">
-        <f t="shared" si="34"/>
-        <v>1333.4173604273944</v>
+        <f t="shared" si="37"/>
+        <v>1377.1080425924586</v>
       </c>
       <c r="GP15" s="3">
-        <f t="shared" si="34"/>
-        <v>1320.0831868231205</v>
+        <f t="shared" si="37"/>
+        <v>1363.336962166534</v>
       </c>
       <c r="GQ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1306.8823549548893</v>
+        <f t="shared" si="37"/>
+        <v>1349.7035925448686</v>
       </c>
       <c r="GR15" s="3">
-        <f t="shared" si="34"/>
-        <v>1293.8135314053404</v>
+        <f t="shared" si="37"/>
+        <v>1336.2065566194199</v>
       </c>
       <c r="GS15" s="3">
-        <f t="shared" si="34"/>
-        <v>1280.875396091287</v>
+        <f t="shared" si="37"/>
+        <v>1322.8444910532257</v>
       </c>
       <c r="GT15" s="3">
-        <f t="shared" si="34"/>
-        <v>1268.0666421303742</v>
+        <f t="shared" si="37"/>
+        <v>1309.6160461426934</v>
       </c>
       <c r="GU15" s="3">
-        <f t="shared" si="34"/>
-        <v>1255.3859757090704</v>
+        <f t="shared" si="37"/>
+        <v>1296.5198856812665</v>
       </c>
       <c r="GV15" s="3">
-        <f t="shared" si="34"/>
-        <v>1242.8321159519796</v>
+        <f t="shared" si="37"/>
+        <v>1283.5546868244537</v>
       </c>
       <c r="GW15" s="3">
-        <f t="shared" si="34"/>
-        <v>1230.4037947924598</v>
+        <f t="shared" si="37"/>
+        <v>1270.7191399562091</v>
       </c>
       <c r="GX15" s="3">
-        <f t="shared" si="34"/>
-        <v>1218.0997568445352</v>
+        <f t="shared" si="37"/>
+        <v>1258.011948556647</v>
       </c>
       <c r="GY15" s="3">
-        <f t="shared" si="34"/>
-        <v>1205.91875927609</v>
+        <f t="shared" si="37"/>
+        <v>1245.4318290710805</v>
       </c>
       <c r="GZ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1193.859571683329</v>
+        <f t="shared" si="37"/>
+        <v>1232.9775107803698</v>
       </c>
       <c r="HA15" s="3">
-        <f t="shared" si="34"/>
-        <v>1181.9209759664957</v>
+        <f t="shared" si="37"/>
+        <v>1220.6477356725661</v>
       </c>
       <c r="HB15" s="3">
-        <f t="shared" si="34"/>
-        <v>1170.1017662068307</v>
+        <f t="shared" si="37"/>
+        <v>1208.4412583158405</v>
       </c>
       <c r="HC15" s="3">
-        <f t="shared" si="34"/>
-        <v>1158.4007485447623</v>
+        <f t="shared" si="37"/>
+        <v>1196.3568457326821</v>
       </c>
       <c r="HD15" s="3">
-        <f t="shared" si="34"/>
-        <v>1146.8167410593146</v>
+        <f t="shared" si="37"/>
+        <v>1184.3932772753553</v>
       </c>
       <c r="HE15" s="3">
-        <f t="shared" si="34"/>
-        <v>1135.3485736487214</v>
+        <f t="shared" si="37"/>
+        <v>1172.5493445026018</v>
       </c>
       <c r="HF15" s="3">
-        <f t="shared" si="34"/>
-        <v>1123.9950879122341</v>
+        <f t="shared" si="37"/>
+        <v>1160.8238510575757</v>
       </c>
       <c r="HG15" s="3">
-        <f t="shared" si="34"/>
-        <v>1112.7551370331119</v>
+        <f t="shared" si="37"/>
+        <v>1149.2156125469999</v>
       </c>
       <c r="HH15" s="3">
-        <f t="shared" si="34"/>
-        <v>1101.6275856627808</v>
+        <f t="shared" si="37"/>
+        <v>1137.7234564215298</v>
       </c>
       <c r="HI15" s="3">
-        <f t="shared" si="34"/>
-        <v>1090.611309806153</v>
+        <f t="shared" si="37"/>
+        <v>1126.3462218573145</v>
       </c>
       <c r="HJ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1079.7051967080915</v>
+        <f t="shared" si="37"/>
+        <v>1115.0827596387414</v>
       </c>
       <c r="HK15" s="3">
-        <f t="shared" si="34"/>
-        <v>1068.9081447410106</v>
+        <f t="shared" si="37"/>
+        <v>1103.931932042354</v>
       </c>
       <c r="HL15" s="3">
-        <f t="shared" si="34"/>
-        <v>1058.2190632936004</v>
+        <f t="shared" si="37"/>
+        <v>1092.8926127219304</v>
       </c>
       <c r="HM15" s="3">
-        <f t="shared" si="34"/>
-        <v>1047.6368726606643</v>
+        <f t="shared" si="37"/>
+        <v>1081.9636865947111</v>
       </c>
       <c r="HN15" s="3">
-        <f t="shared" si="34"/>
-        <v>1037.1605039340577</v>
+        <f t="shared" si="37"/>
+        <v>1071.144049728764</v>
       </c>
       <c r="HO15" s="3">
-        <f t="shared" si="34"/>
-        <v>1026.788898894717</v>
+        <f t="shared" si="37"/>
+        <v>1060.4326092314764</v>
       </c>
       <c r="HP15" s="3">
-        <f t="shared" si="34"/>
-        <v>1016.5210099057698</v>
+        <f t="shared" si="37"/>
+        <v>1049.8282831391616</v>
       </c>
       <c r="HQ15" s="3">
-        <f t="shared" si="34"/>
-        <v>1006.3557998067121</v>
+        <f t="shared" si="37"/>
+        <v>1039.33000030777</v>
       </c>
       <c r="HR15" s="3">
-        <f t="shared" si="34"/>
-        <v>996.29224180864492</v>
+        <f t="shared" si="37"/>
+        <v>1028.9367003046923</v>
       </c>
       <c r="HS15" s="3">
-        <f t="shared" si="34"/>
-        <v>986.32931939055845</v>
+        <f t="shared" si="37"/>
+        <v>1018.6473333016454</v>
       </c>
       <c r="HT15" s="3">
-        <f t="shared" si="34"/>
-        <v>976.46602619665282</v>
+        <f t="shared" si="37"/>
+        <v>1008.4608599686289</v>
       </c>
       <c r="HU15" s="3">
-        <f t="shared" si="34"/>
-        <v>966.70136593468624</v>
+        <f t="shared" si="37"/>
+        <v>998.37625136894269</v>
       </c>
       <c r="HV15" s="3">
-        <f t="shared" si="34"/>
-        <v>957.03435227533942</v>
+        <f t="shared" si="37"/>
+        <v>988.3924888552533</v>
       </c>
       <c r="HW15" s="3">
-        <f t="shared" si="34"/>
-        <v>947.46400875258598</v>
+        <f t="shared" si="37"/>
+        <v>978.50856396670076</v>
       </c>
       <c r="HX15" s="3">
-        <f t="shared" si="34"/>
-        <v>937.98936866506017</v>
+        <f t="shared" si="37"/>
+        <v>968.72347832703372</v>
       </c>
       <c r="HY15" s="3">
-        <f t="shared" si="34"/>
-        <v>928.60947497840959</v>
+        <f t="shared" si="37"/>
+        <v>959.03624354376336</v>
       </c>
       <c r="HZ15" s="3">
-        <f t="shared" si="34"/>
-        <v>919.32338022862552</v>
+        <f t="shared" si="37"/>
+        <v>949.44588110832569</v>
       </c>
       <c r="IA15" s="3">
-        <f t="shared" si="34"/>
-        <v>910.13014642633925</v>
+        <f t="shared" si="37"/>
+        <v>939.9514222972424</v>
       </c>
       <c r="IB15" s="3">
-        <f t="shared" si="34"/>
-        <v>901.02884496207582</v>
+        <f t="shared" si="37"/>
+        <v>930.55190807426993</v>
       </c>
       <c r="IC15" s="3">
-        <f t="shared" si="34"/>
-        <v>892.01855651245501</v>
+        <f t="shared" si="37"/>
+        <v>921.24638899352726</v>
       </c>
       <c r="ID15" s="3">
-        <f t="shared" ref="ID15:KO15" si="35">IC15*(1+$AW$28)</f>
-        <v>883.09837094733041</v>
+        <f t="shared" ref="ID15:KO15" si="38">IC15*(1+$AW$28)</f>
+        <v>912.03392510359197</v>
       </c>
       <c r="IE15" s="3">
-        <f t="shared" si="35"/>
-        <v>874.26738723785706</v>
+        <f t="shared" si="38"/>
+        <v>902.91358585255603</v>
       </c>
       <c r="IF15" s="3">
-        <f t="shared" si="35"/>
-        <v>865.52471336547853</v>
+        <f t="shared" si="38"/>
+        <v>893.88444999403043</v>
       </c>
       <c r="IG15" s="3">
-        <f t="shared" si="35"/>
-        <v>856.86946623182371</v>
+        <f t="shared" si="38"/>
+        <v>884.94560549409016</v>
       </c>
       <c r="IH15" s="3">
-        <f t="shared" si="35"/>
-        <v>848.30077156950551</v>
+        <f t="shared" si="38"/>
+        <v>876.09614943914926</v>
       </c>
       <c r="II15" s="3">
-        <f t="shared" si="35"/>
-        <v>839.81776385381045</v>
+        <f t="shared" si="38"/>
+        <v>867.33518794475776</v>
       </c>
       <c r="IJ15" s="3">
-        <f t="shared" si="35"/>
-        <v>831.41958621527237</v>
+        <f t="shared" si="38"/>
+        <v>858.66183606531013</v>
       </c>
       <c r="IK15" s="3">
-        <f t="shared" si="35"/>
-        <v>823.10539035311967</v>
+        <f t="shared" si="38"/>
+        <v>850.07521770465701</v>
       </c>
       <c r="IL15" s="3">
-        <f t="shared" si="35"/>
-        <v>814.87433644958844</v>
+        <f t="shared" si="38"/>
+        <v>841.57446552761041</v>
       </c>
       <c r="IM15" s="3">
-        <f t="shared" si="35"/>
-        <v>806.72559308509256</v>
+        <f t="shared" si="38"/>
+        <v>833.15872087233436</v>
       </c>
       <c r="IN15" s="3">
-        <f t="shared" si="35"/>
-        <v>798.65833715424162</v>
+        <f t="shared" si="38"/>
+        <v>824.82713366361099</v>
       </c>
       <c r="IO15" s="3">
-        <f t="shared" si="35"/>
-        <v>790.67175378269917</v>
+        <f t="shared" si="38"/>
+        <v>816.5788623269749</v>
       </c>
       <c r="IP15" s="3">
-        <f t="shared" si="35"/>
-        <v>782.76503624487214</v>
+        <f t="shared" si="38"/>
+        <v>808.41307370370509</v>
       </c>
       <c r="IQ15" s="3">
-        <f t="shared" si="35"/>
-        <v>774.93738588242343</v>
+        <f t="shared" si="38"/>
+        <v>800.32894296666802</v>
       </c>
       <c r="IR15" s="3">
-        <f t="shared" si="35"/>
-        <v>767.18801202359919</v>
+        <f t="shared" si="38"/>
+        <v>792.32565353700136</v>
       </c>
       <c r="IS15" s="3">
-        <f t="shared" si="35"/>
-        <v>759.5161319033632</v>
+        <f t="shared" si="38"/>
+        <v>784.40239700163136</v>
       </c>
       <c r="IT15" s="3">
-        <f t="shared" si="35"/>
-        <v>751.92097058432955</v>
+        <f t="shared" si="38"/>
+        <v>776.55837303161502</v>
       </c>
       <c r="IU15" s="3">
-        <f t="shared" si="35"/>
-        <v>744.40176087848624</v>
+        <f t="shared" si="38"/>
+        <v>768.79278930129885</v>
       </c>
       <c r="IV15" s="3">
-        <f t="shared" si="35"/>
-        <v>736.95774326970138</v>
+        <f t="shared" si="38"/>
+        <v>761.10486140828584</v>
       </c>
       <c r="IW15" s="3">
-        <f t="shared" si="35"/>
-        <v>729.58816583700434</v>
+        <f t="shared" si="38"/>
+        <v>753.493812794203</v>
       </c>
       <c r="IX15" s="3">
-        <f t="shared" si="35"/>
-        <v>722.2922841786343</v>
+        <f t="shared" si="38"/>
+        <v>745.95887466626095</v>
       </c>
       <c r="IY15" s="3">
-        <f t="shared" si="35"/>
-        <v>715.06936133684792</v>
+        <f t="shared" si="38"/>
+        <v>738.49928591959838</v>
       </c>
       <c r="IZ15" s="3">
-        <f t="shared" si="35"/>
-        <v>707.91866772347942</v>
+        <f t="shared" si="38"/>
+        <v>731.11429306040236</v>
       </c>
       <c r="JA15" s="3">
-        <f t="shared" si="35"/>
-        <v>700.8394810462446</v>
+        <f t="shared" si="38"/>
+        <v>723.80315012979838</v>
       </c>
       <c r="JB15" s="3">
-        <f t="shared" si="35"/>
-        <v>693.8310862357821</v>
+        <f t="shared" si="38"/>
+        <v>716.56511862850039</v>
       </c>
       <c r="JC15" s="3">
-        <f t="shared" si="35"/>
-        <v>686.89277537342423</v>
+        <f t="shared" si="38"/>
+        <v>709.39946744221538</v>
       </c>
       <c r="JD15" s="3">
-        <f t="shared" si="35"/>
-        <v>680.02384761968995</v>
+        <f t="shared" si="38"/>
+        <v>702.30547276779328</v>
       </c>
       <c r="JE15" s="3">
-        <f t="shared" si="35"/>
-        <v>673.22360914349304</v>
+        <f t="shared" si="38"/>
+        <v>695.28241804011532</v>
       </c>
       <c r="JF15" s="3">
-        <f t="shared" si="35"/>
-        <v>666.49137305205807</v>
+        <f t="shared" si="38"/>
+        <v>688.32959385971412</v>
       </c>
       <c r="JG15" s="3">
-        <f t="shared" si="35"/>
-        <v>659.82645932153753</v>
+        <f t="shared" si="38"/>
+        <v>681.44629792111698</v>
       </c>
       <c r="JH15" s="3">
-        <f t="shared" si="35"/>
-        <v>653.22819472832214</v>
+        <f t="shared" si="38"/>
+        <v>674.63183494190582</v>
       </c>
       <c r="JI15" s="3">
-        <f t="shared" si="35"/>
-        <v>646.69591278103894</v>
+        <f t="shared" si="38"/>
+        <v>667.88551659248674</v>
       </c>
       <c r="JJ15" s="3">
-        <f t="shared" si="35"/>
-        <v>640.22895365322859</v>
+        <f t="shared" si="38"/>
+        <v>661.20666142656182</v>
       </c>
       <c r="JK15" s="3">
-        <f t="shared" si="35"/>
-        <v>633.82666411669629</v>
+        <f t="shared" si="38"/>
+        <v>654.59459481229624</v>
       </c>
       <c r="JL15" s="3">
-        <f t="shared" si="35"/>
-        <v>627.48839747552927</v>
+        <f t="shared" si="38"/>
+        <v>648.04864886417329</v>
       </c>
       <c r="JM15" s="3">
-        <f t="shared" si="35"/>
-        <v>621.21351350077396</v>
+        <f t="shared" si="38"/>
+        <v>641.56816237553153</v>
       </c>
       <c r="JN15" s="3">
-        <f t="shared" si="35"/>
-        <v>615.00137836576619</v>
+        <f t="shared" si="38"/>
+        <v>635.15248075177624</v>
       </c>
       <c r="JO15" s="3">
-        <f t="shared" si="35"/>
-        <v>608.85136458210854</v>
+        <f t="shared" si="38"/>
+        <v>628.80095594425848</v>
       </c>
       <c r="JP15" s="3">
-        <f t="shared" si="35"/>
-        <v>602.76285093628746</v>
+        <f t="shared" si="38"/>
+        <v>622.5129463848159</v>
       </c>
       <c r="JQ15" s="3">
-        <f t="shared" si="35"/>
-        <v>596.73522242692457</v>
+        <f t="shared" si="38"/>
+        <v>616.28781692096777</v>
       </c>
       <c r="JR15" s="3">
-        <f t="shared" si="35"/>
-        <v>590.76787020265533</v>
+        <f t="shared" si="38"/>
+        <v>610.12493875175812</v>
       </c>
       <c r="JS15" s="3">
-        <f t="shared" si="35"/>
-        <v>584.86019150062873</v>
+        <f t="shared" si="38"/>
+        <v>604.02368936424057</v>
       </c>
       <c r="JT15" s="3">
-        <f t="shared" si="35"/>
-        <v>579.01158958562246</v>
+        <f t="shared" si="38"/>
+        <v>597.98345247059819</v>
       </c>
       <c r="JU15" s="3">
-        <f t="shared" si="35"/>
-        <v>573.22147368976619</v>
+        <f t="shared" si="38"/>
+        <v>592.00361794589219</v>
       </c>
       <c r="JV15" s="3">
-        <f t="shared" si="35"/>
-        <v>567.48925895286857</v>
+        <f t="shared" si="38"/>
+        <v>586.08358176643321</v>
       </c>
       <c r="JW15" s="3">
-        <f t="shared" si="35"/>
-        <v>561.8143663633399</v>
+        <f t="shared" si="38"/>
+        <v>580.22274594876887</v>
       </c>
       <c r="JX15" s="3">
-        <f t="shared" si="35"/>
-        <v>556.19622269970648</v>
+        <f t="shared" si="38"/>
+        <v>574.42051848928122</v>
       </c>
       <c r="JY15" s="3">
-        <f t="shared" si="35"/>
-        <v>550.63426047270946</v>
+        <f t="shared" si="38"/>
+        <v>568.67631330438837</v>
       </c>
       <c r="JZ15" s="3">
-        <f t="shared" si="35"/>
-        <v>545.12791786798232</v>
+        <f t="shared" si="38"/>
+        <v>562.98955017134449</v>
       </c>
       <c r="KA15" s="3">
-        <f t="shared" si="35"/>
-        <v>539.67663868930254</v>
+        <f t="shared" si="38"/>
+        <v>557.35965466963103</v>
       </c>
       <c r="KB15" s="3">
-        <f t="shared" si="35"/>
-        <v>534.27987230240956</v>
+        <f t="shared" si="38"/>
+        <v>551.78605812293472</v>
       </c>
       <c r="KC15" s="3">
-        <f t="shared" si="35"/>
-        <v>528.93707357938547</v>
+        <f t="shared" si="38"/>
+        <v>546.26819754170538</v>
       </c>
       <c r="KD15" s="3">
-        <f t="shared" si="35"/>
-        <v>523.64770284359156</v>
+        <f t="shared" si="38"/>
+        <v>540.80551556628836</v>
       </c>
       <c r="KE15" s="3">
-        <f t="shared" si="35"/>
-        <v>518.4112258151556</v>
+        <f t="shared" si="38"/>
+        <v>535.39746041062551</v>
       </c>
       <c r="KF15" s="3">
-        <f t="shared" si="35"/>
-        <v>513.22711355700403</v>
+        <f t="shared" si="38"/>
+        <v>530.04348580651924</v>
       </c>
       <c r="KG15" s="3">
-        <f t="shared" si="35"/>
-        <v>508.09484242143401</v>
+        <f t="shared" si="38"/>
+        <v>524.74305094845408</v>
       </c>
       <c r="KH15" s="3">
-        <f t="shared" si="35"/>
-        <v>503.01389399721967</v>
+        <f t="shared" si="38"/>
+        <v>519.49562043896958</v>
       </c>
       <c r="KI15" s="3">
-        <f t="shared" si="35"/>
-        <v>497.98375505724749</v>
+        <f t="shared" si="38"/>
+        <v>514.30066423457993</v>
       </c>
       <c r="KJ15" s="3">
-        <f t="shared" si="35"/>
-        <v>493.00391750667501</v>
+        <f t="shared" si="38"/>
+        <v>509.1576575922341</v>
       </c>
       <c r="KK15" s="3">
-        <f t="shared" si="35"/>
-        <v>488.07387833160823</v>
+        <f t="shared" si="38"/>
+        <v>504.06608101631178</v>
       </c>
       <c r="KL15" s="3">
-        <f t="shared" si="35"/>
-        <v>483.19313954829215</v>
+        <f t="shared" si="38"/>
+        <v>499.02542020614868</v>
       </c>
       <c r="KM15" s="3">
-        <f t="shared" si="35"/>
-        <v>478.36120815280924</v>
+        <f t="shared" si="38"/>
+        <v>494.03516600408722</v>
       </c>
       <c r="KN15" s="3">
-        <f t="shared" si="35"/>
-        <v>473.57759607128116</v>
+        <f t="shared" si="38"/>
+        <v>489.09481434404631</v>
       </c>
       <c r="KO15" s="3">
-        <f t="shared" si="35"/>
-        <v>468.84182011056834</v>
+        <f t="shared" si="38"/>
+        <v>484.20386620060583</v>
       </c>
       <c r="KP15" s="3">
-        <f t="shared" ref="KP15:NA15" si="36">KO15*(1+$AW$28)</f>
-        <v>464.15340190946267</v>
+        <f t="shared" ref="KP15:NA15" si="39">KO15*(1+$AW$28)</f>
+        <v>479.36182753859975</v>
       </c>
       <c r="KQ15" s="3">
-        <f t="shared" si="36"/>
-        <v>459.51186789036802</v>
+        <f t="shared" si="39"/>
+        <v>474.56820926321376</v>
       </c>
       <c r="KR15" s="3">
-        <f t="shared" si="36"/>
-        <v>454.91674921146432</v>
+        <f t="shared" si="39"/>
+        <v>469.82252717058162</v>
       </c>
       <c r="KS15" s="3">
-        <f t="shared" si="36"/>
-        <v>450.36758171934969</v>
+        <f t="shared" si="39"/>
+        <v>465.12430189887579</v>
       </c>
       <c r="KT15" s="3">
-        <f t="shared" si="36"/>
-        <v>445.8639059021562</v>
+        <f t="shared" si="39"/>
+        <v>460.47305887988705</v>
       </c>
       <c r="KU15" s="3">
-        <f t="shared" si="36"/>
-        <v>441.40526684313465</v>
+        <f t="shared" si="39"/>
+        <v>455.86832829108818</v>
       </c>
       <c r="KV15" s="3">
-        <f t="shared" si="36"/>
-        <v>436.99121417470332</v>
+        <f t="shared" si="39"/>
+        <v>451.30964500817731</v>
       </c>
       <c r="KW15" s="3">
-        <f t="shared" si="36"/>
-        <v>432.62130203295629</v>
+        <f t="shared" si="39"/>
+        <v>446.79654855809554</v>
       </c>
       <c r="KX15" s="3">
-        <f t="shared" si="36"/>
-        <v>428.2950890126267</v>
+        <f t="shared" si="39"/>
+        <v>442.32858307251456</v>
       </c>
       <c r="KY15" s="3">
-        <f t="shared" si="36"/>
-        <v>424.01213812250046</v>
+        <f t="shared" si="39"/>
+        <v>437.90529724178941</v>
       </c>
       <c r="KZ15" s="3">
-        <f t="shared" si="36"/>
-        <v>419.77201674127548</v>
+        <f t="shared" si="39"/>
+        <v>433.52624426937149</v>
       </c>
       <c r="LA15" s="3">
-        <f t="shared" si="36"/>
-        <v>415.57429657386274</v>
+        <f t="shared" si="39"/>
+        <v>429.19098182667778</v>
       </c>
       <c r="LB15" s="3">
-        <f t="shared" si="36"/>
-        <v>411.41855360812411</v>
+        <f t="shared" si="39"/>
+        <v>424.899072008411</v>
       </c>
       <c r="LC15" s="3">
-        <f t="shared" si="36"/>
-        <v>407.30436807204285</v>
+        <f t="shared" si="39"/>
+        <v>420.65008128832687</v>
       </c>
       <c r="LD15" s="3">
-        <f t="shared" si="36"/>
-        <v>403.2313243913224</v>
+        <f t="shared" si="39"/>
+        <v>416.44358047544358</v>
       </c>
       <c r="LE15" s="3">
-        <f t="shared" si="36"/>
-        <v>399.19901114740918</v>
+        <f t="shared" si="39"/>
+        <v>412.27914467068916</v>
       </c>
       <c r="LF15" s="3">
-        <f t="shared" si="36"/>
-        <v>395.2070210359351</v>
+        <f t="shared" si="39"/>
+        <v>408.15635322398225</v>
       </c>
       <c r="LG15" s="3">
-        <f t="shared" si="36"/>
-        <v>391.25495082557575</v>
+        <f t="shared" si="39"/>
+        <v>404.07478969174241</v>
       </c>
       <c r="LH15" s="3">
-        <f t="shared" si="36"/>
-        <v>387.34240131731997</v>
+        <f t="shared" si="39"/>
+        <v>400.03404179482499</v>
       </c>
       <c r="LI15" s="3">
-        <f t="shared" si="36"/>
-        <v>383.46897730414679</v>
+        <f t="shared" si="39"/>
+        <v>396.03370137687671</v>
       </c>
       <c r="LJ15" s="3">
-        <f t="shared" si="36"/>
-        <v>379.63428753110531</v>
+        <f t="shared" si="39"/>
+        <v>392.07336436310794</v>
       </c>
       <c r="LK15" s="3">
-        <f t="shared" si="36"/>
-        <v>375.83794465579427</v>
+        <f t="shared" si="39"/>
+        <v>388.15263071947686</v>
       </c>
       <c r="LL15" s="3">
-        <f t="shared" si="36"/>
-        <v>372.07956520923631</v>
+        <f t="shared" si="39"/>
+        <v>384.27110441228211</v>
       </c>
       <c r="LM15" s="3">
-        <f t="shared" si="36"/>
-        <v>368.35876955714394</v>
+        <f t="shared" si="39"/>
+        <v>380.42839336815928</v>
       </c>
       <c r="LN15" s="3">
-        <f t="shared" si="36"/>
-        <v>364.67518186157253</v>
+        <f t="shared" si="39"/>
+        <v>376.6241094344777</v>
       </c>
       <c r="LO15" s="3">
-        <f t="shared" si="36"/>
-        <v>361.02843004295681</v>
+        <f t="shared" si="39"/>
+        <v>372.85786834013294</v>
       </c>
       <c r="LP15" s="3">
-        <f t="shared" si="36"/>
-        <v>357.41814574252726</v>
+        <f t="shared" si="39"/>
+        <v>369.1292896567316</v>
       </c>
       <c r="LQ15" s="3">
-        <f t="shared" si="36"/>
-        <v>353.843964285102</v>
+        <f t="shared" si="39"/>
+        <v>365.43799676016425</v>
       </c>
       <c r="LR15" s="3">
-        <f t="shared" si="36"/>
-        <v>350.30552464225099</v>
+        <f t="shared" si="39"/>
+        <v>361.78361679256261</v>
       </c>
       <c r="LS15" s="3">
-        <f t="shared" si="36"/>
-        <v>346.8024693958285</v>
+        <f t="shared" si="39"/>
+        <v>358.16578062463697</v>
       </c>
       <c r="LT15" s="3">
-        <f t="shared" si="36"/>
-        <v>343.33444470187021</v>
+        <f t="shared" si="39"/>
+        <v>354.5841228183906</v>
       </c>
       <c r="LU15" s="3">
-        <f t="shared" si="36"/>
-        <v>339.90110025485149</v>
+        <f t="shared" si="39"/>
+        <v>351.03828159020668</v>
       </c>
       <c r="LV15" s="3">
-        <f t="shared" si="36"/>
-        <v>336.50208925230299</v>
+        <f t="shared" si="39"/>
+        <v>347.52789877430462</v>
       </c>
       <c r="LW15" s="3">
-        <f t="shared" si="36"/>
-        <v>333.13706835977996</v>
+        <f t="shared" si="39"/>
+        <v>344.05261978656159</v>
       </c>
       <c r="LX15" s="3">
-        <f t="shared" si="36"/>
-        <v>329.80569767618215</v>
+        <f t="shared" si="39"/>
+        <v>340.61209358869598</v>
       </c>
       <c r="LY15" s="3">
-        <f t="shared" si="36"/>
-        <v>326.50764069942034</v>
+        <f t="shared" si="39"/>
+        <v>337.20597265280901</v>
       </c>
       <c r="LZ15" s="3">
-        <f t="shared" si="36"/>
-        <v>323.24256429242615</v>
+        <f t="shared" si="39"/>
+        <v>333.8339129262809</v>
       </c>
       <c r="MA15" s="3">
-        <f t="shared" si="36"/>
-        <v>320.01013864950187</v>
+        <f t="shared" si="39"/>
+        <v>330.4955737970181</v>
       </c>
       <c r="MB15" s="3">
-        <f t="shared" si="36"/>
-        <v>316.81003726300685</v>
+        <f t="shared" si="39"/>
+        <v>327.19061805904789</v>
       </c>
       <c r="MC15" s="3">
-        <f t="shared" si="36"/>
-        <v>313.64193689037677</v>
+        <f t="shared" si="39"/>
+        <v>323.91871187845743</v>
       </c>
       <c r="MD15" s="3">
-        <f t="shared" si="36"/>
-        <v>310.505517521473</v>
+        <f t="shared" si="39"/>
+        <v>320.67952475967286</v>
       </c>
       <c r="ME15" s="3">
-        <f t="shared" si="36"/>
-        <v>307.40046234625828</v>
+        <f t="shared" si="39"/>
+        <v>317.47272951207611</v>
       </c>
       <c r="MF15" s="3">
-        <f t="shared" si="36"/>
-        <v>304.32645772279568</v>
+        <f t="shared" si="39"/>
+        <v>314.29800221695535</v>
       </c>
       <c r="MG15" s="3">
-        <f t="shared" si="36"/>
-        <v>301.28319314556774</v>
+        <f t="shared" si="39"/>
+        <v>311.15502219478577</v>
       </c>
       <c r="MH15" s="3">
-        <f t="shared" si="36"/>
-        <v>298.27036121411203</v>
+        <f t="shared" si="39"/>
+        <v>308.04347197283789</v>
       </c>
       <c r="MI15" s="3">
-        <f t="shared" si="36"/>
-        <v>295.28765760197092</v>
+        <f t="shared" si="39"/>
+        <v>304.96303725310952</v>
       </c>
       <c r="MJ15" s="3">
-        <f t="shared" si="36"/>
-        <v>292.3347810259512</v>
+        <f t="shared" si="39"/>
+        <v>301.91340688057841</v>
       </c>
       <c r="MK15" s="3">
-        <f t="shared" si="36"/>
-        <v>289.41143321569166</v>
+        <f t="shared" si="39"/>
+        <v>298.89427281177262</v>
       </c>
       <c r="ML15" s="3">
-        <f t="shared" si="36"/>
-        <v>286.51731888353476</v>
+        <f t="shared" si="39"/>
+        <v>295.90533008365492</v>
       </c>
       <c r="MM15" s="3">
-        <f t="shared" si="36"/>
-        <v>283.65214569469941</v>
+        <f t="shared" si="39"/>
+        <v>292.94627678281836</v>
       </c>
       <c r="MN15" s="3">
-        <f t="shared" si="36"/>
-        <v>280.81562423775244</v>
+        <f t="shared" si="39"/>
+        <v>290.01681401499019</v>
       </c>
       <c r="MO15" s="3">
-        <f t="shared" si="36"/>
-        <v>278.0074679953749</v>
+        <f t="shared" si="39"/>
+        <v>287.11664587484029</v>
       </c>
       <c r="MP15" s="3">
-        <f t="shared" si="36"/>
-        <v>275.22739331542112</v>
+        <f t="shared" si="39"/>
+        <v>284.24547941609188</v>
       </c>
       <c r="MQ15" s="3">
-        <f t="shared" si="36"/>
-        <v>272.47511938226694</v>
+        <f t="shared" si="39"/>
+        <v>281.40302462193097</v>
       </c>
       <c r="MR15" s="3">
-        <f t="shared" si="36"/>
-        <v>269.75036818844427</v>
+        <f t="shared" si="39"/>
+        <v>278.58899437571165</v>
       </c>
       <c r="MS15" s="3">
-        <f t="shared" si="36"/>
-        <v>267.05286450655984</v>
+        <f t="shared" si="39"/>
+        <v>275.80310443195452</v>
       </c>
       <c r="MT15" s="3">
-        <f t="shared" si="36"/>
-        <v>264.38233586149425</v>
+        <f t="shared" si="39"/>
+        <v>273.045073387635</v>
       </c>
       <c r="MU15" s="3">
-        <f t="shared" si="36"/>
-        <v>261.7385125028793</v>
+        <f t="shared" si="39"/>
+        <v>270.31462265375865</v>
       </c>
       <c r="MV15" s="3">
-        <f t="shared" si="36"/>
-        <v>259.12112737785048</v>
+        <f t="shared" si="39"/>
+        <v>267.61147642722108</v>
       </c>
       <c r="MW15" s="3">
-        <f t="shared" si="36"/>
-        <v>256.52991610407196</v>
+        <f t="shared" si="39"/>
+        <v>264.93536166294888</v>
       </c>
       <c r="MX15" s="3">
-        <f t="shared" si="36"/>
-        <v>253.96461694303125</v>
+        <f t="shared" si="39"/>
+        <v>262.28600804631941</v>
       </c>
       <c r="MY15" s="3">
-        <f t="shared" si="36"/>
-        <v>251.42497077360093</v>
+        <f t="shared" si="39"/>
+        <v>259.66314796585624</v>
       </c>
       <c r="MZ15" s="3">
-        <f t="shared" si="36"/>
-        <v>248.91072106586492</v>
+        <f t="shared" si="39"/>
+        <v>257.06651648619766</v>
       </c>
       <c r="NA15" s="3">
-        <f t="shared" si="36"/>
-        <v>246.42161385520626</v>
+        <f t="shared" si="39"/>
+        <v>254.49585132133566</v>
       </c>
       <c r="NB15" s="3">
-        <f t="shared" ref="NB15:PM15" si="37">NA15*(1+$AW$28)</f>
-        <v>243.95739771665419</v>
+        <f t="shared" ref="NB15:PM15" si="40">NA15*(1+$AW$28)</f>
+        <v>251.95089280812232</v>
       </c>
       <c r="NC15" s="3">
-        <f t="shared" si="37"/>
-        <v>241.51782373948765</v>
+        <f t="shared" si="40"/>
+        <v>249.4313838800411</v>
       </c>
       <c r="ND15" s="3">
-        <f t="shared" si="37"/>
-        <v>239.10264550209277</v>
+        <f t="shared" si="40"/>
+        <v>246.93707004124067</v>
       </c>
       <c r="NE15" s="3">
-        <f t="shared" si="37"/>
-        <v>236.71161904707185</v>
+        <f t="shared" si="40"/>
+        <v>244.46769934082826</v>
       </c>
       <c r="NF15" s="3">
-        <f t="shared" si="37"/>
-        <v>234.34450285660114</v>
+        <f t="shared" si="40"/>
+        <v>242.02302234741998</v>
       </c>
       <c r="NG15" s="3">
-        <f t="shared" si="37"/>
-        <v>232.00105782803513</v>
+        <f t="shared" si="40"/>
+        <v>239.60279212394579</v>
       </c>
       <c r="NH15" s="3">
-        <f t="shared" si="37"/>
-        <v>229.68104724975478</v>
+        <f t="shared" si="40"/>
+        <v>237.20676420270632</v>
       </c>
       <c r="NI15" s="3">
-        <f t="shared" si="37"/>
-        <v>227.38423677725723</v>
+        <f t="shared" si="40"/>
+        <v>234.83469656067925</v>
       </c>
       <c r="NJ15" s="3">
-        <f t="shared" si="37"/>
-        <v>225.11039440948466</v>
+        <f t="shared" si="40"/>
+        <v>232.48634959507245</v>
       </c>
       <c r="NK15" s="3">
-        <f t="shared" si="37"/>
-        <v>222.85929046538982</v>
+        <f t="shared" si="40"/>
+        <v>230.16148609912173</v>
       </c>
       <c r="NL15" s="3">
-        <f t="shared" si="37"/>
-        <v>220.63069756073591</v>
+        <f t="shared" si="40"/>
+        <v>227.85987123813052</v>
       </c>
       <c r="NM15" s="3">
-        <f t="shared" si="37"/>
-        <v>218.42439058512855</v>
+        <f t="shared" si="40"/>
+        <v>225.58127252574923</v>
       </c>
       <c r="NN15" s="3">
-        <f t="shared" si="37"/>
-        <v>216.24014667927727</v>
+        <f t="shared" si="40"/>
+        <v>223.32545980049173</v>
       </c>
       <c r="NO15" s="3">
-        <f t="shared" si="37"/>
-        <v>214.0777452124845</v>
+        <f t="shared" si="40"/>
+        <v>221.09220520248681</v>
       </c>
       <c r="NP15" s="3">
-        <f t="shared" si="37"/>
-        <v>211.93696776035966</v>
+        <f t="shared" si="40"/>
+        <v>218.88128315046194</v>
       </c>
       <c r="NQ15" s="3">
-        <f t="shared" si="37"/>
-        <v>209.81759808275606</v>
+        <f t="shared" si="40"/>
+        <v>216.69247031895731</v>
       </c>
       <c r="NR15" s="3">
-        <f t="shared" si="37"/>
-        <v>207.7194221019285</v>
+        <f t="shared" si="40"/>
+        <v>214.52554561576773</v>
       </c>
       <c r="NS15" s="3">
-        <f t="shared" si="37"/>
-        <v>205.64222788090922</v>
+        <f t="shared" si="40"/>
+        <v>212.38029015961004</v>
       </c>
       <c r="NT15" s="3">
-        <f t="shared" si="37"/>
-        <v>203.58580560210012</v>
+        <f t="shared" si="40"/>
+        <v>210.25648725801395</v>
       </c>
       <c r="NU15" s="3">
-        <f t="shared" si="37"/>
-        <v>201.54994754607912</v>
+        <f t="shared" si="40"/>
+        <v>208.15392238543382</v>
       </c>
       <c r="NV15" s="3">
-        <f t="shared" si="37"/>
-        <v>199.53444807061834</v>
+        <f t="shared" si="40"/>
+        <v>206.07238316157947</v>
       </c>
       <c r="NW15" s="3">
-        <f t="shared" si="37"/>
-        <v>197.53910358991214</v>
+        <f t="shared" si="40"/>
+        <v>204.01165932996366</v>
       </c>
       <c r="NX15" s="3">
-        <f t="shared" si="37"/>
-        <v>195.56371255401302</v>
+        <f t="shared" si="40"/>
+        <v>201.97154273666402</v>
       </c>
       <c r="NY15" s="3">
-        <f t="shared" si="37"/>
-        <v>193.60807542847289</v>
+        <f t="shared" si="40"/>
+        <v>199.95182730929739</v>
       </c>
       <c r="NZ15" s="3">
-        <f t="shared" si="37"/>
-        <v>191.67199467418817</v>
+        <f t="shared" si="40"/>
+        <v>197.95230903620441</v>
       </c>
       <c r="OA15" s="3">
-        <f t="shared" si="37"/>
-        <v>189.75527472744628</v>
+        <f t="shared" si="40"/>
+        <v>195.97278594584236</v>
       </c>
       <c r="OB15" s="3">
-        <f t="shared" si="37"/>
-        <v>187.85772198017182</v>
+        <f t="shared" si="40"/>
+        <v>194.01305808638392</v>
       </c>
       <c r="OC15" s="3">
-        <f t="shared" si="37"/>
-        <v>185.9791447603701</v>
+        <f t="shared" si="40"/>
+        <v>192.07292750552008</v>
       </c>
       <c r="OD15" s="3">
-        <f t="shared" si="37"/>
-        <v>184.11935331276641</v>
+        <f t="shared" si="40"/>
+        <v>190.15219823046488</v>
       </c>
       <c r="OE15" s="3">
-        <f t="shared" si="37"/>
-        <v>182.27815977963874</v>
+        <f t="shared" si="40"/>
+        <v>188.25067624816023</v>
       </c>
       <c r="OF15" s="3">
-        <f t="shared" si="37"/>
-        <v>180.45537818184235</v>
+        <f t="shared" si="40"/>
+        <v>186.36816948567864</v>
       </c>
       <c r="OG15" s="3">
-        <f t="shared" si="37"/>
-        <v>178.65082440002394</v>
+        <f t="shared" si="40"/>
+        <v>184.50448779082186</v>
       </c>
       <c r="OH15" s="3">
-        <f t="shared" si="37"/>
-        <v>176.8643161560237</v>
+        <f t="shared" si="40"/>
+        <v>182.65944291291365</v>
       </c>
       <c r="OI15" s="3">
-        <f t="shared" si="37"/>
-        <v>175.09567299446346</v>
+        <f t="shared" si="40"/>
+        <v>180.83284848378452</v>
       </c>
       <c r="OJ15" s="3">
-        <f t="shared" si="37"/>
-        <v>173.34471626451881</v>
+        <f t="shared" si="40"/>
+        <v>179.02451999894666</v>
       </c>
       <c r="OK15" s="3">
-        <f t="shared" si="37"/>
-        <v>171.61126910187363</v>
+        <f t="shared" si="40"/>
+        <v>177.23427479895719</v>
       </c>
       <c r="OL15" s="3">
-        <f t="shared" si="37"/>
-        <v>169.8951564108549</v>
+        <f t="shared" si="40"/>
+        <v>175.46193205096762</v>
       </c>
       <c r="OM15" s="3">
-        <f t="shared" si="37"/>
-        <v>168.19620484674635</v>
+        <f t="shared" si="40"/>
+        <v>173.70731273045794</v>
       </c>
       <c r="ON15" s="3">
-        <f t="shared" si="37"/>
-        <v>166.5142427982789</v>
+        <f t="shared" si="40"/>
+        <v>171.97023960315337</v>
       </c>
       <c r="OO15" s="3">
-        <f t="shared" si="37"/>
-        <v>164.8491003702961</v>
+        <f t="shared" si="40"/>
+        <v>170.25053720712185</v>
       </c>
       <c r="OP15" s="3">
-        <f t="shared" si="37"/>
-        <v>163.20060936659314</v>
+        <f t="shared" si="40"/>
+        <v>168.54803183505064</v>
       </c>
       <c r="OQ15" s="3">
-        <f t="shared" si="37"/>
-        <v>161.56860327292722</v>
+        <f t="shared" si="40"/>
+        <v>166.86255151670014</v>
       </c>
       <c r="OR15" s="3">
-        <f t="shared" si="37"/>
-        <v>159.95291724019793</v>
+        <f t="shared" si="40"/>
+        <v>165.19392600153313</v>
       </c>
       <c r="OS15" s="3">
-        <f t="shared" si="37"/>
-        <v>158.35338806779595</v>
+        <f t="shared" si="40"/>
+        <v>163.5419867415178</v>
       </c>
       <c r="OT15" s="3">
-        <f t="shared" si="37"/>
-        <v>156.769854187118</v>
+        <f t="shared" si="40"/>
+        <v>161.90656687410262</v>
       </c>
       <c r="OU15" s="3">
-        <f t="shared" si="37"/>
-        <v>155.20215564524682</v>
+        <f t="shared" si="40"/>
+        <v>160.28750120536159</v>
       </c>
       <c r="OV15" s="3">
-        <f t="shared" si="37"/>
-        <v>153.65013408879435</v>
+        <f t="shared" si="40"/>
+        <v>158.68462619330796</v>
       </c>
       <c r="OW15" s="3">
-        <f t="shared" si="37"/>
-        <v>152.11363274790639</v>
+        <f t="shared" si="40"/>
+        <v>157.09777993137487</v>
       </c>
       <c r="OX15" s="3">
-        <f t="shared" si="37"/>
-        <v>150.59249642042732</v>
+        <f t="shared" si="40"/>
+        <v>155.52680213206114</v>
       </c>
       <c r="OY15" s="3">
-        <f t="shared" si="37"/>
-        <v>149.08657145622306</v>
+        <f t="shared" si="40"/>
+        <v>153.97153411074052</v>
       </c>
       <c r="OZ15" s="3">
-        <f t="shared" si="37"/>
-        <v>147.59570574166082</v>
+        <f t="shared" si="40"/>
+        <v>152.43181876963311</v>
       </c>
       <c r="PA15" s="3">
-        <f t="shared" si="37"/>
-        <v>146.1197486842442</v>
+        <f t="shared" si="40"/>
+        <v>150.90750058193677</v>
       </c>
       <c r="PB15" s="3">
-        <f t="shared" si="37"/>
-        <v>144.65855119740175</v>
+        <f t="shared" si="40"/>
+        <v>149.3984255761174</v>
       </c>
       <c r="PC15" s="3">
-        <f t="shared" si="37"/>
-        <v>143.21196568542774</v>
+        <f t="shared" si="40"/>
+        <v>147.90444132035623</v>
       </c>
       <c r="PD15" s="3">
-        <f t="shared" si="37"/>
-        <v>141.77984602857347</v>
+        <f t="shared" si="40"/>
+        <v>146.42539690715267</v>
       </c>
       <c r="PE15" s="3">
-        <f t="shared" si="37"/>
-        <v>140.36204756828775</v>
+        <f t="shared" si="40"/>
+        <v>144.96114293808114</v>
       </c>
       <c r="PF15" s="3">
-        <f t="shared" si="37"/>
-        <v>138.95842709260486</v>
+        <f t="shared" si="40"/>
+        <v>143.51153150870033</v>
       </c>
       <c r="PG15" s="3">
-        <f t="shared" si="37"/>
-        <v>137.56884282167883</v>
+        <f t="shared" si="40"/>
+        <v>142.07641619361331</v>
       </c>
       <c r="PH15" s="3">
-        <f t="shared" si="37"/>
-        <v>136.19315439346204</v>
+        <f t="shared" si="40"/>
+        <v>140.65565203167716</v>
       </c>
       <c r="PI15" s="3">
-        <f t="shared" si="37"/>
-        <v>134.83122284952742</v>
+        <f t="shared" si="40"/>
+        <v>139.24909551136039</v>
       </c>
       <c r="PJ15" s="3">
-        <f t="shared" si="37"/>
-        <v>133.48291062103215</v>
+        <f t="shared" si="40"/>
+        <v>137.85660455624679</v>
       </c>
       <c r="PK15" s="3">
-        <f t="shared" si="37"/>
-        <v>132.14808151482183</v>
+        <f t="shared" si="40"/>
+        <v>136.47803851068431</v>
       </c>
       <c r="PL15" s="3">
-        <f t="shared" si="37"/>
-        <v>130.82660069967361</v>
+        <f t="shared" si="40"/>
+        <v>135.11325812557746</v>
       </c>
       <c r="PM15" s="3">
-        <f t="shared" si="37"/>
-        <v>129.51833469267686</v>
+        <f t="shared" si="40"/>
+        <v>133.76212554432169</v>
       </c>
       <c r="PN15" s="3">
-        <f t="shared" ref="PN15:QE15" si="38">PM15*(1+$AW$28)</f>
-        <v>128.2231513457501</v>
+        <f t="shared" ref="PN15:QE15" si="41">PM15*(1+$AW$28)</f>
+        <v>132.42450428887847</v>
       </c>
       <c r="PO15" s="3">
-        <f t="shared" si="38"/>
-        <v>126.94091983229259</v>
+        <f t="shared" si="41"/>
+        <v>131.10025924598969</v>
       </c>
       <c r="PP15" s="3">
-        <f t="shared" si="38"/>
-        <v>125.67151063396966</v>
+        <f t="shared" si="41"/>
+        <v>129.7892566535298</v>
       </c>
       <c r="PQ15" s="3">
-        <f t="shared" si="38"/>
-        <v>124.41479552762996</v>
+        <f t="shared" si="41"/>
+        <v>128.49136408699451</v>
       </c>
       <c r="PR15" s="3">
-        <f t="shared" si="38"/>
-        <v>123.17064757235366</v>
+        <f t="shared" si="41"/>
+        <v>127.20645044612456</v>
       </c>
       <c r="PS15" s="3">
-        <f t="shared" si="38"/>
-        <v>121.93894109663012</v>
+        <f t="shared" si="41"/>
+        <v>125.93438594166332</v>
       </c>
       <c r="PT15" s="3">
-        <f t="shared" si="38"/>
-        <v>120.71955168566382</v>
+        <f t="shared" si="41"/>
+        <v>124.67504208224669</v>
       </c>
       <c r="PU15" s="3">
-        <f t="shared" si="38"/>
-        <v>119.51235616880717</v>
+        <f t="shared" si="41"/>
+        <v>123.42829166142423</v>
       </c>
       <c r="PV15" s="3">
-        <f t="shared" si="38"/>
-        <v>118.3172326071191</v>
+        <f t="shared" si="41"/>
+        <v>122.19400874480998</v>
       </c>
       <c r="PW15" s="3">
-        <f t="shared" si="38"/>
-        <v>117.13406028104791</v>
+        <f t="shared" si="41"/>
+        <v>120.97206865736187</v>
       </c>
       <c r="PX15" s="3">
-        <f t="shared" si="38"/>
-        <v>115.96271967823743</v>
+        <f t="shared" si="41"/>
+        <v>119.76234797078826</v>
       </c>
       <c r="PY15" s="3">
-        <f t="shared" si="38"/>
-        <v>114.80309248145505</v>
+        <f t="shared" si="41"/>
+        <v>118.56472449108037</v>
       </c>
       <c r="PZ15" s="3">
-        <f t="shared" si="38"/>
-        <v>113.6550615566405</v>
+        <f t="shared" si="41"/>
+        <v>117.37907724616956</v>
       </c>
       <c r="QA15" s="3">
-        <f t="shared" si="38"/>
-        <v>112.5185109410741</v>
+        <f t="shared" si="41"/>
+        <v>116.20528647370786</v>
       </c>
       <c r="QB15" s="3">
-        <f t="shared" si="38"/>
-        <v>111.39332583166336</v>
+        <f t="shared" si="41"/>
+        <v>115.04323360897078</v>
       </c>
       <c r="QC15" s="3">
-        <f t="shared" si="38"/>
-        <v>110.27939257334673</v>
+        <f t="shared" si="41"/>
+        <v>113.89280127288107</v>
       </c>
       <c r="QD15" s="3">
-        <f t="shared" si="38"/>
-        <v>109.17659864761326</v>
+        <f t="shared" si="41"/>
+        <v>112.75387326015226</v>
       </c>
       <c r="QE15" s="3">
-        <f t="shared" si="38"/>
-        <v>108.08483266113713</v>
+        <f t="shared" si="41"/>
+        <v>111.62633452755074</v>
       </c>
     </row>
     <row r="16" spans="1:447" x14ac:dyDescent="0.2">
@@ -7761,160 +7750,160 @@
         <v>40</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:V17" si="39">C15/C18</f>
+        <f t="shared" ref="C17:V17" si="42">C15/C18</f>
         <v>-5.7851239669421489E-2</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-3.2520325203252036E-2</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-3.968253968253968E-2</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.1328125</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.2265625</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.14615384615384616</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.36641221374045801</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.41353383458646614</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.50370370370370365</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.43382352941176472</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.57971014492753625</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.64479856115107914</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.70405693950177972</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.70921985815602839</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.66901408450704225</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.46853146853146854</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.39995833333333297</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.2620689655172414</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.21510958904109589</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" ref="W17:Z17" si="40">W15/W18</f>
+        <f t="shared" ref="W17:Z17" si="43">W15/W18</f>
         <v>-0.23129251700680273</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" si="40"/>
-        <v>-0.15748683748683762</v>
+        <f t="shared" si="43"/>
+        <v>-0.18657718120805369</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" si="40"/>
-        <v>-0.1132990499433451</v>
+        <f t="shared" si="43"/>
+        <v>-0.1646666666666666</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="40"/>
-        <v>-9.509264069264084E-2</v>
+        <f t="shared" si="43"/>
+        <v>-4.172185430463584E-2</v>
       </c>
       <c r="AD17" s="6">
-        <f>AD15/AD18</f>
+        <f t="shared" ref="AD17:AI17" si="44">AD15/AD18</f>
         <v>-0.23387096774193547</v>
       </c>
       <c r="AE17" s="6">
-        <f>AE15/AE18</f>
+        <f t="shared" si="44"/>
         <v>-0.89922480620155043</v>
       </c>
       <c r="AF17" s="6">
-        <f>AF15/AF18</f>
+        <f t="shared" si="44"/>
         <v>-1.9338235294117647</v>
       </c>
       <c r="AG17" s="6">
-        <f>AG15/AG18</f>
+        <f t="shared" si="44"/>
         <v>-2.7375886524822697</v>
       </c>
       <c r="AH17" s="6">
-        <f>AH15/AH18</f>
+        <f t="shared" si="44"/>
         <v>-1.3472222222222223</v>
       </c>
       <c r="AI17" s="6">
-        <f>AI15/AI18</f>
-        <v>-0.44042337662337683</v>
+        <f t="shared" si="44"/>
+        <v>-0.45473333333333232</v>
       </c>
       <c r="AJ17" s="6">
-        <f t="shared" ref="AJ17:AR17" si="41">AJ15/AJ18</f>
-        <v>0.65264919354838868</v>
+        <f t="shared" ref="AJ17:AR17" si="45">AJ15/AJ18</f>
+        <v>0.65168951612903481</v>
       </c>
       <c r="AK17" s="6">
-        <f t="shared" si="41"/>
-        <v>1.7472845703125011</v>
+        <f t="shared" si="45"/>
+        <v>1.781264648437503</v>
       </c>
       <c r="AL17" s="6">
-        <f t="shared" si="41"/>
-        <v>3.1959022821969731</v>
+        <f t="shared" si="45"/>
+        <v>3.2766036647727326</v>
       </c>
       <c r="AM17" s="6">
-        <f t="shared" si="41"/>
-        <v>5.0916241328125036</v>
+        <f t="shared" si="45"/>
+        <v>5.2339685859375074</v>
       </c>
       <c r="AN17" s="6">
-        <f t="shared" si="41"/>
-        <v>8.2933173897544687</v>
+        <f t="shared" si="45"/>
+        <v>8.542901280066971</v>
       </c>
       <c r="AO17" s="6">
-        <f t="shared" si="41"/>
-        <v>12.341626754467233</v>
+        <f t="shared" si="45"/>
+        <v>12.72717872325847</v>
       </c>
       <c r="AP17" s="6">
-        <f t="shared" si="41"/>
-        <v>17.437910592205924</v>
+        <f t="shared" si="45"/>
+        <v>17.995018183406415</v>
       </c>
       <c r="AQ17" s="6">
-        <f t="shared" si="41"/>
-        <v>23.83009520802851</v>
+        <f t="shared" si="45"/>
+        <v>24.602793026120182</v>
       </c>
       <c r="AR17" s="6">
-        <f t="shared" si="41"/>
-        <v>31.823410455649253</v>
+        <f t="shared" si="45"/>
+        <v>32.866134626557383</v>
       </c>
     </row>
     <row r="18" spans="2:49" x14ac:dyDescent="0.2">
@@ -7983,20 +7972,19 @@
         <v>146</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18:Z18" si="42">V18+1</f>
+        <f t="shared" ref="W18:Z18" si="46">V18+1</f>
         <v>147</v>
       </c>
       <c r="X18">
-        <f t="shared" si="42"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="42"/>
-        <v>149</v>
+        <f t="shared" si="46"/>
+        <v>150</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="42"/>
-        <v>150</v>
+        <f t="shared" si="46"/>
+        <v>151</v>
       </c>
       <c r="AD18">
         <v>124</v>
@@ -8021,35 +8009,35 @@
         <v>155</v>
       </c>
       <c r="AK18">
-        <f t="shared" ref="AK18:AR18" si="43">AJ18+5</f>
+        <f t="shared" ref="AK18:AR18" si="47">AJ18+5</f>
         <v>160</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>165</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>170</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>175</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>180</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>185</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>190</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>195</v>
       </c>
     </row>
@@ -8062,87 +8050,87 @@
         <v>0.49206349206349209</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" ref="H21:W21" si="44">H4/D4-1</f>
+        <f t="shared" ref="H21:W21" si="48">H4/D4-1</f>
         <v>0.36486486486486491</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.40506329113924044</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.46511627906976738</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.52127659574468077</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.5544554455445545</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.5855855855855856</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.56349206349206349</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.62778980891719738</v>
       </c>
       <c r="Q21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.63068181818181812</v>
       </c>
       <c r="R21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.6142131979695431</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.54112554112554112</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.51664364559815001</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.45993031358885017</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.42579245283018885</v>
       </c>
       <c r="W21" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.39325842696629221</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" ref="X21:X22" si="45">X4/T4-1</f>
-        <v>0.3028962997745086</v>
+        <f t="shared" ref="X21:X22" si="49">X4/T4-1</f>
+        <v>0.35449615323092476</v>
       </c>
       <c r="Y21" s="18">
-        <f t="shared" ref="Y21:Y22" si="46">Y4/U4-1</f>
-        <v>0.24105011933174225</v>
+        <f t="shared" ref="Y21:Y22" si="50">Y4/U4-1</f>
+        <v>0.27684964200477324</v>
       </c>
       <c r="Z21" s="18">
-        <f t="shared" ref="Z21:Z22" si="47">Z4/V4-1</f>
-        <v>0.1689405869405074</v>
+        <f t="shared" ref="Z21:Z22" si="51">Z4/V4-1</f>
+        <v>0.24613477664412575</v>
       </c>
       <c r="AE21" s="18">
-        <f t="shared" ref="AE21:AF21" si="48">AE4/AD4-1</f>
+        <f t="shared" ref="AE21:AF21" si="52">AE4/AD4-1</f>
         <v>0.42244224422442245</v>
       </c>
       <c r="AF21" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.56148491879350337</v>
       </c>
       <c r="AG21" s="18">
@@ -8154,43 +8142,43 @@
         <v>0.48120989917506884</v>
       </c>
       <c r="AI21" s="18">
-        <f t="shared" ref="AI21:AR21" si="49">AI4/AH4-1</f>
-        <v>0.26918316831683176</v>
+        <f t="shared" ref="AI21:AR21" si="53">AI4/AH4-1</f>
+        <v>0.3125</v>
       </c>
       <c r="AJ21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AK21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AL21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AM21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AN21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AO21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AP21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AQ21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
       <c r="AR21" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
     </row>
@@ -8203,80 +8191,80 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" ref="H22:W22" si="50">H5/D5-1</f>
+        <f t="shared" ref="H22:W22" si="54">H5/D5-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="I22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.7</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.45161290322580649</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.625</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.48076923076923084</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.51608604606891295</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.505823529411765</v>
+      </c>
+      <c r="W22" s="18">
+        <f t="shared" si="54"/>
+        <v>0.44155844155844148</v>
+      </c>
+      <c r="X22" s="18">
+        <f t="shared" si="49"/>
+        <v>0.33555545408885434</v>
+      </c>
+      <c r="Y22" s="18">
         <f t="shared" si="50"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.7</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.45161290322580649</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.625</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="Q22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.64102564102564097</v>
-      </c>
-      <c r="R22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="S22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.48076923076923084</v>
-      </c>
-      <c r="T22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.51608604606891295</v>
-      </c>
-      <c r="U22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.5</v>
-      </c>
-      <c r="V22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.505823529411765</v>
-      </c>
-      <c r="W22" s="18">
-        <f t="shared" si="50"/>
-        <v>0.44155844155844148</v>
-      </c>
-      <c r="X22" s="18">
-        <f t="shared" si="45"/>
-        <v>0.26820693119035655</v>
-      </c>
-      <c r="Y22" s="18">
-        <f t="shared" si="46"/>
-        <v>0.19166666666666665</v>
+        <v>0.2260416666666667</v>
       </c>
       <c r="Z22" s="18">
-        <f t="shared" si="47"/>
-        <v>0.13871635610766031</v>
+        <f t="shared" si="51"/>
+        <v>0.21391460603929824</v>
       </c>
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
@@ -8302,80 +8290,80 @@
         <v>0.53333333333333344</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" ref="H23:W23" si="51">H10/D10-1</f>
+        <f t="shared" ref="H23:W23" si="55">H10/D10-1</f>
         <v>0.75</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.38961038961038952</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.82894736842105265</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.67391304347826098</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.58035714285714279</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.7009345794392523</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.56834532374100721</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.64285714285714279</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.58813559322033915</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.70329670329670324</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.52293577981651373</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.37549407114624511</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29929562433297741</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.19207228915662666</v>
       </c>
       <c r="W23" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.24137931034482762</v>
       </c>
       <c r="X23" s="18">
-        <f t="shared" ref="X23" si="52">X10/T10-1</f>
-        <v>0.18280983046392429</v>
+        <f t="shared" ref="X23" si="56">X10/T10-1</f>
+        <v>0.2403075305559208</v>
       </c>
       <c r="Y23" s="18">
-        <f t="shared" ref="Y23" si="53">Y10/U10-1</f>
-        <v>0.18010752688172049</v>
+        <f t="shared" ref="Y23" si="57">Y10/U10-1</f>
+        <v>0.23655913978494625</v>
       </c>
       <c r="Z23" s="18">
-        <f t="shared" ref="Z23" si="54">Z10/V10-1</f>
-        <v>0.12692284368619999</v>
+        <f t="shared" ref="Z23" si="58">Z10/V10-1</f>
+        <v>0.17998423318711954</v>
       </c>
       <c r="AE23" s="18"/>
       <c r="AF23" s="18"/>
@@ -8433,19 +8421,19 @@
         <v>63</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" ref="C25:F25" si="55">C6/C4</f>
+        <f t="shared" ref="C25:F25" si="59">C6/C4</f>
         <v>0.80952380952380953</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.79729729729729726</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.810126582278481</v>
       </c>
       <c r="F25" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.80232558139534882</v>
       </c>
       <c r="G25" s="18">
@@ -8453,135 +8441,135 @@
         <v>0.78723404255319152</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" ref="H25:T25" si="56">H6/H4</f>
+        <f t="shared" ref="H25:T25" si="60">H6/H4</f>
         <v>0.80198019801980203</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77477477477477474</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.75396825396825395</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77622377622377625</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.78343949044585992</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77840909090909094</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77157360406091369</v>
       </c>
       <c r="O25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77489177489177485</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77389919511040328</v>
       </c>
       <c r="Q25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77700348432055744</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.78616352201257866</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.7837078651685393</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0.77398232189020588</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" ref="U25:V25" si="57">U6/U4</f>
+        <f t="shared" ref="U25:V25" si="61">U6/U4</f>
         <v>0.77088305489260145</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0.7741606786030939</v>
       </c>
       <c r="W25" s="18">
-        <f t="shared" ref="W25:Z25" si="58">W6/W4</f>
+        <f t="shared" ref="W25:Z25" si="62">W6/W4</f>
         <v>0.77620967741935487</v>
       </c>
       <c r="X25" s="18">
-        <f t="shared" si="58"/>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="62"/>
+        <v>0.77714285714285714</v>
       </c>
       <c r="Y25" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0.78</v>
       </c>
       <c r="Z25" s="18">
-        <f t="shared" si="58"/>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="62"/>
+        <v>0.78</v>
       </c>
       <c r="AE25" s="18">
-        <f t="shared" ref="AE25:AG25" si="59">AE6/AE4</f>
+        <f t="shared" ref="AE25:AG25" si="63">AE6/AE4</f>
         <v>0.77726218097447797</v>
       </c>
       <c r="AF25" s="18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>0.77711738484398218</v>
       </c>
       <c r="AG25" s="18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>0.77818515123739684</v>
       </c>
       <c r="AH25" s="18">
-        <f t="shared" ref="AH25:AR25" si="60">AH6/AH4</f>
+        <f t="shared" ref="AH25:AR25" si="64">AH6/AH4</f>
         <v>0.77537128712871284</v>
       </c>
       <c r="AI25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AJ25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AK25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AL25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AM25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AN25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AO25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AP25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AQ25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
       <c r="AR25" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0.79</v>
       </c>
     </row>
@@ -8594,152 +8582,152 @@
         <v>-0.14285714285714285</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:T26" si="61">D11/D4</f>
+        <f t="shared" ref="D26:T26" si="65">D11/D4</f>
         <v>-6.7567567567567571E-2</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.16455696202531644</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-8.1395348837209308E-2</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.19148936170212766</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.30693069306930693</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.1891891891891892</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.34920634920634919</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.30069930069930068</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.34394904458598724</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.25568181818181818</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.3350253807106599</v>
       </c>
       <c r="O26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.32034632034632032</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.3260252853503835</v>
       </c>
       <c r="Q26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.30313588850174217</v>
       </c>
       <c r="R26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.25786163522012578</v>
       </c>
       <c r="S26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.19382022471910113</v>
       </c>
       <c r="T26" s="18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>-0.1683135619894838</v>
       </c>
       <c r="U26" s="18">
-        <f t="shared" ref="U26:V26" si="62">U11/U4</f>
+        <f t="shared" ref="U26:V26" si="66">U11/U4</f>
         <v>-0.11694510739856802</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>-9.8724751986096218E-2</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:Z26" si="63">W11/W4</f>
+        <f t="shared" ref="W26:Z26" si="67">W11/W4</f>
         <v>-9.4758064516129031E-2</v>
       </c>
       <c r="X26" s="18">
-        <f t="shared" si="63"/>
-        <v>-7.5445544554455485E-2</v>
+        <f t="shared" si="67"/>
+        <v>-8.5714285714285715E-2</v>
       </c>
       <c r="Y26" s="18">
-        <f t="shared" si="63"/>
-        <v>-6.4230769230769189E-2</v>
+        <f t="shared" si="67"/>
+        <v>-7.9813084112149518E-2</v>
       </c>
       <c r="Z26" s="18">
-        <f t="shared" si="63"/>
-        <v>-6.1509433962264194E-2</v>
+        <f t="shared" si="67"/>
+        <v>-4.6548672566371699E-2</v>
       </c>
       <c r="AE26" s="18">
-        <f t="shared" ref="AE26:AG26" si="64">AE11/AE4</f>
+        <f t="shared" ref="AE26:AG26" si="68">AE11/AE4</f>
         <v>-0.26682134570765659</v>
       </c>
       <c r="AF26" s="18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-0.30906389301634474</v>
       </c>
       <c r="AG26" s="18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>-0.29972502291475711</v>
       </c>
       <c r="AH26" s="18">
-        <f t="shared" ref="AH26:AR26" si="65">AH11/AH4</f>
+        <f t="shared" ref="AH26:AR26" si="69">AH11/AH4</f>
         <v>-0.14108910891089108</v>
       </c>
       <c r="AI26" s="18">
-        <f t="shared" si="65"/>
-        <v>-6.2754753778644576E-2</v>
+        <f t="shared" si="69"/>
+        <v>-6.4314002828854244E-2</v>
       </c>
       <c r="AJ26" s="18">
-        <f t="shared" si="65"/>
-        <v>5.4656265236471078E-3</v>
+        <f t="shared" si="69"/>
+        <v>4.0311173974542022E-3</v>
       </c>
       <c r="AK26" s="18">
-        <f t="shared" si="65"/>
-        <v>6.8228376401755303E-2</v>
+        <f t="shared" si="69"/>
+        <v>6.6908628005657875E-2</v>
       </c>
       <c r="AL26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.12597010628961497</v>
+        <f t="shared" si="69"/>
+        <v>0.12475593776520533</v>
       </c>
       <c r="AM26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.17909249778644579</v>
+        <f t="shared" si="69"/>
+        <v>0.17797546274398893</v>
       </c>
       <c r="AN26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.25240139805207223</v>
+        <f t="shared" si="69"/>
+        <v>0.25141840721471026</v>
       </c>
       <c r="AO26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.31691323028582352</v>
+        <f t="shared" si="69"/>
+        <v>0.31604819834894499</v>
       </c>
       <c r="AP26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.37368364265152465</v>
+        <f t="shared" si="69"/>
+        <v>0.37292241454707159</v>
       </c>
       <c r="AQ26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.42364160553334168</v>
+        <f t="shared" si="69"/>
+        <v>0.42297172480142292</v>
       </c>
       <c r="AR26" s="18">
-        <f t="shared" si="65"/>
-        <v>0.46760461286934069</v>
+        <f t="shared" si="69"/>
+        <v>0.46701511782525218</v>
       </c>
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.2">
@@ -8751,152 +8739,152 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:T27" si="66">D15/D4</f>
+        <f t="shared" ref="D27:T27" si="70">D15/D4</f>
         <v>-5.4054054054054057E-2</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.15189873417721519</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-5.8139534883720929E-2</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.18085106382978725</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.28712871287128711</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.17117117117117117</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.38095238095238093</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.38461538461538464</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.43312101910828027</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.33522727272727271</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.40609137055837563</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.38799567099567095</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.38706698543998957</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.34843205574912894</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.29874213836477986</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.18820224719101122</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>-0.14859209799844153</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:V27" si="67">U15/U4</f>
+        <f t="shared" ref="U27:V27" si="71">U15/U4</f>
         <v>-9.0692124105011929E-2</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>-6.9267449195195424E-2</v>
       </c>
       <c r="W27" s="18">
-        <f t="shared" ref="W27:Z27" si="68">W15/W4</f>
+        <f t="shared" ref="W27:Z27" si="72">W15/W4</f>
         <v>-6.8548387096774188E-2</v>
       </c>
       <c r="X27" s="18">
-        <f t="shared" si="68"/>
-        <v>-4.6154558312974193E-2</v>
+        <f t="shared" si="72"/>
+        <v>-5.2952380952380952E-2</v>
       </c>
       <c r="Y27" s="18">
-        <f t="shared" si="68"/>
-        <v>-3.246453546453542E-2</v>
+        <f t="shared" si="72"/>
+        <v>-4.6168224299065398E-2</v>
       </c>
       <c r="Z27" s="18">
-        <f t="shared" si="68"/>
-        <v>-2.6913011516785143E-2</v>
+        <f t="shared" si="72"/>
+        <v>-1.1150442477876126E-2</v>
       </c>
       <c r="AE27" s="18">
-        <f t="shared" ref="AE27:AG27" si="69">AE15/AE4</f>
+        <f t="shared" ref="AE27:AG27" si="73">AE15/AE4</f>
         <v>-0.26914153132250579</v>
       </c>
       <c r="AF27" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>-0.39078751857355126</v>
       </c>
       <c r="AG27" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>-0.35380384967919343</v>
       </c>
       <c r="AH27" s="18">
-        <f t="shared" ref="AH27:AR27" si="70">AH15/AH4</f>
+        <f t="shared" ref="AH27:AR27" si="74">AH15/AH4</f>
         <v>-0.12004950495049505</v>
       </c>
       <c r="AI27" s="18">
-        <f t="shared" si="70"/>
-        <v>-3.2210388343981725E-2</v>
+        <f t="shared" si="74"/>
+        <v>-3.2159358793022091E-2</v>
       </c>
       <c r="AJ27" s="18">
-        <f t="shared" si="70"/>
-        <v>3.9458069234519839E-2</v>
+        <f t="shared" si="74"/>
+        <v>3.8099717114568749E-2</v>
       </c>
       <c r="AK27" s="18">
-        <f t="shared" si="70"/>
-        <v>8.7236440760604633E-2</v>
+        <f t="shared" si="74"/>
+        <v>8.5997878359264646E-2</v>
       </c>
       <c r="AL27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.13163813983422734</v>
+        <f t="shared" si="74"/>
+        <v>0.13050800452616712</v>
       </c>
       <c r="AM27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.17286200468844479</v>
+        <f t="shared" si="74"/>
+        <v>0.1718301275700144</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.23187322886303277</v>
+        <f t="shared" si="74"/>
+        <v>0.23096847289210765</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.28393515977871797</v>
+        <f t="shared" si="74"/>
+        <v>0.2831417430746706</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.32986058404384105</v>
+        <f t="shared" si="74"/>
+        <v>0.32916470292658739</v>
       </c>
       <c r="AQ27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.37036813444697836</v>
+        <f t="shared" si="74"/>
+        <v>0.36975771255293383</v>
       </c>
       <c r="AR27" s="18">
-        <f t="shared" si="70"/>
-        <v>0.40609304752359532</v>
+        <f t="shared" si="74"/>
+        <v>0.40555751718771277</v>
       </c>
       <c r="AV27" t="s">
         <v>66</v>
@@ -8934,7 +8922,7 @@
       </c>
       <c r="AW29" s="3">
         <f>NPV(AW27,AH15:QE15)</f>
-        <v>35345.303827805066</v>
+        <v>36492.811472913767</v>
       </c>
     </row>
     <row r="30" spans="2:49" x14ac:dyDescent="0.2">
@@ -8958,7 +8946,7 @@
       </c>
       <c r="AW30" s="2">
         <f>AW29/Main!K2</f>
-        <v>243.55914986083977</v>
+        <v>251.46645171522715</v>
       </c>
     </row>
     <row r="31" spans="2:49" x14ac:dyDescent="0.2">
@@ -8979,7 +8967,7 @@
       </c>
       <c r="AW31" s="18">
         <f>AW30/Main!K1-1</f>
-        <v>0.8041418508210354</v>
+        <v>0.86271445714983086</v>
       </c>
     </row>
     <row r="32" spans="2:49" x14ac:dyDescent="0.2">
@@ -9271,7 +9259,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -9285,7 +9273,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G14">
-        <f t="shared" ref="G14:G40" si="0">G13+2.5</f>
+        <f t="shared" ref="G14:G32" si="0">G13+2.5</f>
         <v>215</v>
       </c>
       <c r="H14">
